--- a/data/寧德時代.xlsx
+++ b/data/寧德時代.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7486" uniqueCount="4123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8550" uniqueCount="4723">
   <si>
     <t>﻿標題</t>
   </si>
@@ -20556,6 +20556,3081 @@
 投資者對公司未來發展前景的預期，可能會影響投資者的認購意願。
 </t>
   </si>
+  <si>
+    <t>電動車120km/h撞擊沒起火！寧德時代「磐石底盤」開啟電車安全新標準</t>
+  </si>
+  <si>
+    <t>https://cars.tvbs.com.tw/car-news/230118</t>
+  </si>
+  <si>
+    <t>TVBS地球黃金線寧德時代正式發布全球首款超高安全電車底盤「磐石底盤」，以突破性的安全技術，該底盤在120km/h極速中心柱碰撞測試中，展現不起火、不爆炸、無熱失控的卓越表現，...3 分鐘前</t>
+  </si>
+  <si>
+    <t>.電動車120km/h撞擊沒起火！寧德時代「磐石底盤」開啟電車安全新標準
+寧德時代正式發布全球首款超高安全電車底盤「磐石底盤」，以突破性的安全技術，該底盤在120km/h極速中心柱碰撞測試中，展現不起火、不爆炸、無熱失控的卓越表現，重新定義了新能源車輛在全場景與全速度範圍的安全標準。
+磐石底盤採用以電池為核心的設計，運用「CTC（Cell-to-Chassis）」電芯與底盤一體化技術，將電芯直接集成至底盤結構，實現電芯與底盤結構的無縫整合。這種設計不僅大幅提高了整體結構強度，還有效分散和吸收碰撞能量。磐石底盤可吸收高達85%的碰撞能量，遠超傳統底盤的約60%，為乘客構築了堅實的安全防線。
+磐石底盤成功通過全球首個「最高速度與最強衝擊」的雙重極限安全測試，實現了在高速碰撞下不起火、不爆炸、無熱失控的等成就，重新定義了產業安全基準。相較於行業標準的中國新車評價規程C-NCAP中的56km/h碰撞測試，120km/h的碰撞能量高出4.6倍，相當於從56公尺高處墜落的衝擊力。在更為嚴苛的正面柱撞測試中，碰撞面積僅為全寬正面碰撞的1/6，單位面積所承受的衝擊壓力增加至21倍。通過這次極限挑戰，磐石底盤在這一極端場景下，展現了無可匹敵的安全性能，為新能源車輛安全奠定了新的標竿。
+磐石底盤通過三大核心技術突破，實現了前所未有的安全性能。首先，獨特的三維仿生龜甲結構，有效提升結構穩定性，並在碰撞時有效分散衝擊力，保護電池單元免受變形。其次，使用2,000MPa級潛水艇級熱成型鋼及600MPa級航太級鋁合金，極大增強底盤剛性，更為堅固耐用。此外，磐石底盤還採用了超高安全電芯設計、NP技術及高延展性吸能絕緣膜，確保在極端情況下電芯依然安全穩定。
+在發布儀式上，阿維塔成為首家採用磐石底盤的車廠，並與寧德時代簽署深化合作協議。雙方將在新能源車輛的技術研發、材料應用及品牌推廣等領域展開深度合作，共同推動新能源車輛技術的進一步發展。寧德時代始終致力於新能源技術的創新，磐石底盤的發布標誌著新能源車輛在安全性、智能性及高效性上的全面躍升。未來，寧德時代將繼續攜手合作夥伴，共同推動新能源產業向更安全、更智能、更可持續的方向發展，開創安全出行的新時代。
+磐石底盤不僅在安全性上表現卓越，還在設計層面實現了高效整合。其內部集成、上下解耦及外部開放的設計，使整車開發更具靈活性和高效性。基於磐石底盤架構，整車的量產時間從傳統的36個月縮短至12至18個月，顯著提升了研發效率，降低了開發成本。此外，該底盤還支持L3至L4級自動駕駛，具備高度適配的介面設計，為智能化應用提供了更廣闊的發展空間。
+延伸閱讀：</t>
+  </si>
+  <si>
+    <t>2024-12-27 18:22:47</t>
+  </si>
+  <si>
+    <t>寧德時代發布全球首款超高安全電車底盤「磐石底盤」，採用CTC電芯與底盤一體化技術，在120km/h極速中心柱碰撞測試中，展現不起火、不爆炸、無熱失控的卓越表現。  磐石底盤透過三維仿生龜甲結構、高強度鋼材及鋁合金、超高安全電芯設計等技術，大幅提升結構強度及碰撞能量吸收能力，重新定義新能源車輛安全標準。阿維塔成為首家採用磐石底盤的車廠，並與寧德時代簽署深化合作協議。磐石底盤也提升了整車開發效率，縮短量產時間並支持高階自動駕駛。</t>
+  </si>
+  <si>
+    <t>寧德時代正式發布全球首款超高安全電車底盤「磐石底盤」，在120km/h極速中心柱碰撞測試中，不起火、不爆炸、無熱失控。磐石底盤採用CTC電芯與底盤一體化技術，可吸收高達85%的碰撞能量。其三維仿生龜甲結構、高強度鋼材及鋁合金、超高安全電芯設計等技術，確保在極端情況下電芯依然安全穩定。阿維塔成為首家採用磐石底盤的車廠，並與寧德時代簽署深化合作協議。磐石底盤量產時間從36個月縮短至12至18個月，並支持L3至L4級自動駕駛。</t>
+  </si>
+  <si>
+    <t>寧德時代、磐石底盤、CTC、電芯與底盤一體化、電動車、新能源車、電池安全、碰撞測試、120km/h、阿維塔、自動駕駛、L3級自動駕駛、L4級自動駕駛、安全標準、熱失控、三維仿生龜甲結構、高強度鋼材</t>
+  </si>
+  <si>
+    <t xml:space="preserve">突破性的安全技術，在極端碰撞測試中表現卓越，提升了新能源汽車的安全性能。
+CTC技術提升了底盤結構強度和能量吸收能力，優於傳統設計。
+縮短了整車開發和量產時間，提高了生產效率和降低開發成本。
+與阿維塔的合作，擴大了市場應用和影響力。
+支持高階自動駕駛，符合未來汽車發展趨勢。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">目前僅有阿維塔一家車廠採用，市場應用範圍有限。
+技術的複雜性可能導致生產成本較高。
+長期可靠性和耐久性仍需時間驗證。
+新技術的普及和接受度仍需市場時間。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可應用於更多車型，進一步擴大市場份額。
+技術可以進一步提升，例如更高的能量密度和更低的成本。
+可以與更多車企合作，推動產業技術進步。
+可以拓展到其他領域，例如商用車輛。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">競爭對手的技術突破和市場搶佔。
+原材料價格波動和供應鏈風險。
+消費者對新技術的接受度和信任度。
+政策法規的變化和監管風險。
+</t>
+  </si>
+  <si>
+    <t>【商報時評】加大力度搶上市搶投資</t>
+  </si>
+  <si>
+    <t>http://www.hkcd.com.hk/content_app/2024-12/28/content_8673825.html</t>
+  </si>
+  <si>
+    <t>香港商报年尾將至，助興賀年，香港又再迎好消息。全球電動車電池市佔一哥寧德時代，昨官宣擬在港上市。這隻深交所市值第一的巨無霸，「先A後H」料將集資50億美元，勢成香港近四年來...4 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+【商報時評】加大力度搶上市搶投資
+來源：香港商報 
+2024-12-28 08:31 
+　年尾將至，助興賀年，香港又再迎好消息。全球電動車電池市佔一哥寧德時代，昨官宣擬在港上市。這隻深交所市值第一的巨無霸，「先A後H」料將集資50億美元，勢成香港近四年來最大IPO。這對於提升香港國際金融中心地位，既是極重磅的信任票與強心針，還有助完善香港創科生態圈，發展新質生產力，在「搶企業」、「搶人才」之餘進一步「搶上市」、「搶投資」。
+　寧德來港上市，無疑是一則金融喜訊。新冠疫情令新股上市變得審慎，至今尚未完全恢復，今年埋單全球IPO總額料僅約1200億美元，仍徘徊在去年低位，且勢連續三年少於2000億美元。隨着市況復常，尤其中證監推出包括支持內地行業龍頭企業赴港上市的五項新措，普遍預期明年本港IPO必然重新興旺，大機會重返全球IPO三甲甚而挑戰冠軍寶座。寧德時代預期集資規模約為390億港元，已相當於今年全年香港IPO一半左右，其明年成功上市的開門紅、響頭炮，可望打開自疫情積壓至今的新一輪來港上市熱潮。
+　香港一直作為內企「走出去」的境外首發IPO一大目的地，未來不單要加大力度爭取來港第一上市，第二上市亦不能夠輕視，好順應中概股回流之類的分散風險潮流，由從美國回歸香港的阿里巴巴、網易、京東、百度、嗶哩嗶哩、攜程等，到從日本來港的迅銷皆然。百年變局下，「全球南方」不能忽視，香港亦須「引進來」爭取成為相關新興市場的首發第一上市及第二上市之選。印度去年IPO數量便為全球第一，IPO集資額亦排第二位置，阿聯酋、印尼、沙特阿拉伯同列十大；展望未來，中東、東盟等具潛力的未上市企業以至獨角獸也必愈來愈多。「搶上市」愈是火紅，香港資本市場的貨架供應更加豐富多元，自可吸引滿足世界各地更多不同投資需要，同時達致「搶投資」，本港國際金融中心聚寶盆必更熱鬧、更旺場。
+　這實也是一則創科喜訊。金融和創科可以相輔相成，金融乃是百業之母，對渴求資金來進行研發的創科更如是。寧德時代便指，募集資金將用於進一步拓展國際業務、推進海外項目建設、補充境外營運資金等；事實上，香港作為國家和國際之間的「超級聯繫人」和「超級增值人」，海外科企既可來港進行人民幣IPO，加上港幣人民幣雙櫃台交易及人民幣債券發行等日益普及，意味它們亦可借力香港這個人民幣離岸中心，更好進行人民幣融資並拓展內地市場。要塑造好創科生態圈，「搶企業」、「搶人才」乃是必須。寧德時代董事長曾毓群透過優才計劃來港，一度成為香港首富的他並在港置業了，這對集團及後在港設立國際總部和研發及知識產權中心，無疑產生極大正面作用；同樣道理，「搶上市」、「搶投資」對完善創科生態圈也可帶來推波助瀾之效，由上市企業到投資者因此更多關注了解香港真實面貌，而非誤信海外媒體的偏頗失實報道以至抹黑，特別是全面準確認識到「一國兩制」好處，定可吸引更多科企來港落戶，進一步強化香港的創科及總部經濟發展。
+　寧德時代來港，只是香港金融創科新時代的新開端。有關方面須續優化環境、加大力度，奮發作為，做好「搶企業」、「搶人才」、「搶上市」、「搶投資」，不斷塑造新動能新優勢。把握新時代新機遇，香港未來新篇章大可為。
+　（香港商報評論員 李明生）
+責任編輯：程向明
+香港商報版權作品，轉載須註明出處。
+推薦新聞
+【來論】穗新措吸引港澳法律人才 灣區法律規則銜接再邁步
+香港商報2024-12-27
+【來論】年末節日氛圍濃厚 展望香港經濟新氣象
+香港商報2024-12-27
+【港事講場】從香港息口論來年經濟挑戰與機遇
+香港商報2024-12-27
+【鑪峰遠眺】「一國兩制」理論和實踐的新發展
+香港商報2024-12-27
+更多推薦新聞&gt;&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:16:40</t>
+  </si>
+  <si>
+    <t>全球電動車電池市佔率第一的寧德時代計劃在香港上市，預計集資50億美元，將成為香港近四年來最大IPO。此舉被視為提升香港國際金融中心地位的重要舉措，有助完善香港創科生態圈，並促進「搶企業」、「搶人才」、「搶上市」、「搶投資」。  文章分析了寧德時代來港上市對香港金融和創科發展的積極影響，並指出香港需要繼續優化環境，加大力度吸引企業、人才和投資，把握新時代機遇。</t>
+  </si>
+  <si>
+    <t>全球電動車電池市佔一哥寧德時代，昨官宣擬在港上市，「先A後H」料將集資50億美元，勢成香港近四年來最大IPO。這對於提升香港國際金融中心地位，既是極重磅的信任票與強心針，還有助完善香港創科生態圈，發展新質生產力，在「搶企業」、「搶人才」之餘進一步「搶上市」、「搶投資」。…香港一直作為內企「走出去」的境外首發IPO一大目的地…「搶上市」愈是火紅，香港資本市場的貨架供應更加豐富多元…「一國兩制」好處，定可吸引更多科企來港落戶…寧德時代來港，只是香港金融創科新時代的新開端。</t>
+  </si>
+  <si>
+    <t>寧德時代，香港上市，IPO，電動車電池，國際金融中心，創科生態圈，集資，投資，人才，企業，一國兩制，中概股，全球南方，人民幣，香港</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寧德時代在電動車電池領域的領先地位和巨大市值，使其上市具有極高的吸引力。
+此次上市將提升香港國際金融中心的地位和吸引力，吸引更多企業和投資。
+有助於完善香港的創科生態圈，促進香港經濟多元化發展。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全球經濟環境的不確定性可能影響上市效果。
+香港需要持續優化營商環境，才能吸引更多企業和投資。
+競爭激烈的國際金融市場，香港需要持續努力才能保持優勢。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吸引更多國際投資者，促進香港資本市場發展。
+提升香港在全球創新科技產業中的地位和影響力。
+促進香港與內地及其他地區的金融合作。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他國際金融中心競爭激烈，香港需要持續提升自身競爭力。
+全球經濟下行風險可能影響投資意願。
+地緣政治風險和國際局勢變化可能影響市場信心。
+</t>
+  </si>
+  <si>
+    <t>12月28日 社評摘要(二)</t>
+  </si>
+  <si>
+    <t>https://news.tvb.com/tc/local/676f2ec0db2fdd2664fa93f0/%E6%B8%AF%E6%BE%B3-12%E6%9C%8828%E6%97%A5-%E7%A4%BE%E8%A9%95%E6%91%98%E8%A6%81%E4%BA%8C</t>
+  </si>
+  <si>
+    <t>news.tvb.com商報社評：年尾將至，助興賀年，香港又再迎好消息。全球電動車電池市佔一哥寧德時代，昨官宣擬在港上市。這隻深交所市值第一的巨無霸，「先A後H」料將集資五十億美元，...5 小時前</t>
+  </si>
+  <si>
+    <t>無綫新聞 TVB News
+繁
+简
+搜尋
+無綫新聞 TVB News
+無綫新聞
+港澳
+12月28日 社評摘要(二)
+12月28日 社評摘要(二)
+發佈日期: 2024-12-28 06:48
+港澳
+無綫新聞 TVB News
+粵
+無綫新聞 TVB News
+無綫新聞 TVB News已複製連結
+商報社評：年尾將至，助興賀年，香港又再迎好消息。全球電動車電池市佔一哥寧德時代，昨官宣擬在港上市。這隻深交所市值第一的巨無霸，「先A後H」料將集資五十億美元，勢成香港近四年來最大IPO，這對於提升香港國際金融中心地位，既是極重磅的信任票與強心針，還有助完善香港創科生態圈，有關方面須續優化環境、加大力度奮發作爲，做好搶企業、搶人才、搶上市、搶投資，不斷塑造新動能新優勢。
+大公報社評：特區政府加快推動北部都會區建設，昨日公布新界北新市鎮及馬草壟一帶的初步發展規劃。其中新市鎮發展面積達北都的三分之一，將作二十年或更長時間的規劃，分階段發展不可避免。政府建議優先發展口岸商圈及新興產業基地，而馬草壟作爲古洞北和河套的交匯地，將提供房屋、休憩及配套設施。有政府責任擔當、社會全力支持、工商界發揮主力軍作用，北都建設將展現香港的新速度、新風采。
+社評摘要
+無綫新聞 TVB News
+無綫新聞 TVB News
+無綫新聞 TVB News
+隨時隨地觀看新聞，立即下載
+Apple App Store下載無綫新聞TVB News app
+Google Play下載無綫新聞TVB News app
+Huawei App Gallery下載無綫新聞TVB News app
+Samsung Galaxy Store下載無綫新聞TVB News app
+條款及細則
+個人資料收集聲明
+私隱聲明概覽 (歐盟)
+完整私隱聲明 (歐盟)
+Cookies 政策
+準則及守則
+FAQ 常見問題
+關於我們
+聯絡我們
+Copyright 2024 Television Broadcasts Limited
+無綫新聞 Facebook Fanpage
+無綫新聞 YouTube Channel</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:17:08</t>
+  </si>
+  <si>
+    <t>經濟、政治</t>
+  </si>
+  <si>
+    <t>香港兩家報紙的社評分別評論了寧德時代擬在港上市和香港北部都會區的發展規劃。商報社評認為寧德時代在港上市將提升香港國際金融中心地位，並有助完善香港創科生態圈。大公報社評則肯定特區政府加快推動北部都會區建設，並指出新界北新市鎮的發展規劃將分階段進行，優先發展口岸商圈及新興產業基地。</t>
+  </si>
+  <si>
+    <t>商報社評：全球電動車電池市佔一哥寧德時代，昨官宣擬在港上市。「先A後H」料將集資五十億美元，勢成香港近四年來最大IPO，這對於提升香港國際金融中心地位，既是極重磅的信任票與強心針，還有助完善香港創科生態圈。大公報社評：特區政府加快推動北部都會區建設，昨日公布新界北新市鎮及馬草壟一帶的初步發展規劃。其中新市鎮發展面積達北都的三分之一，將作二十年或更長時間的規劃，分階段發展不可避免。政府建議優先發展口岸商圈及新興產業基地。</t>
+  </si>
+  <si>
+    <t>寧德時代、香港上市、IPO、國際金融中心、創科生態圈、北部都會區、新界北新市鎮、馬草壟、發展規劃、口岸商圈、新興產業基地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寧德時代在港上市將為香港帶來巨額投資，提升香港的國際地位。
+北部都會區的發展規劃將促進香港經濟的持續增長，創造就業機會。
+兩則新聞都體現了香港政府積極發展經濟和提升國際競爭力的決心。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寧德時代上市的成功與否仍存在不確定性。
+北部都會區的建設需要大量的資金和時間，存在一定的風險。
+兩則新聞都缺乏具體的數據和細節，信息量相對有限。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吸引更多國際企業在香港投資，促進香港經濟多元化發展。
+為香港創造更多高科技就業機會，提升香港的國際競爭力。
+北部都會區的發展可以提升香港的生活質量，改善市民的生活條件。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全球經濟下行風險可能影響寧德時代的上市計劃。
+北部都會區的建設可能遇到土地徵收、環保等方面的阻力。
+其他地區的競爭可能削弱香港的國際金融中心地位。
+</t>
+  </si>
+  <si>
+    <t>〈貴金屬盤後〉美元連4周走漲 公債殖利率上升 黃金承壓走跌</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E8%B2%B4%E9%87%91%E5%B1%AC%E7%9B%A4%E5%BE%8C-%E7%BE%8E%E5%85%83%E9%80%A34%E5%91%A8%E8%B5%B0%E6%BC%B2-%E5%85%AC%E5%82%B5%E6%AE%96%E5%88%A9%E7%8E%87%E4%B8%8A%E5%8D%87-%E9%BB%83%E9%87%91%E6%89%BF%E5%A3%93%E8%B5%B0%E8%B7%8C-222437362.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經黃金價格周五(27 日) 下跌，係因美國公債殖利率上升，在交易清淡的假期一周中，削弱了無孳息的黃金對投資人的吸引力。市場關注川普上任後，其通膨對策帶來的經濟影響。6 小時前</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:17:45</t>
+  </si>
+  <si>
+    <t>〈美股盤後〉美債殖利率飆升 輝達特斯拉下滑 道瓊跌超330點 周線收紅0.4%</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E7%BE%8E%E8%82%A1%E7%9B%A4%E5%BE%8C-%E7%BE%8E%E5%82%B5%E6%AE%96%E5%88%A9%E7%8E%87%E9%A3%86%E5%8D%87-%E8%BC%9D%E9%81%94%E7%89%B9%E6%96%AF%E6%8B%89%E4%B8%8B%E6%BB%91-%E9%81%93%E7%93%8A%E8%B7%8C%E8%B6%85330%E9%BB%9E-%E5%91%A8%E7%B7%9A%E6%94%B6%E7%B4%850-212821521.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經受美債殖利率攀升，輝達、特斯拉等科技巨頭下跌打擊，美股主指週五(27 日) 收低。道瓊摔跌超330 點，那指、標普和費半收黑超1%。7 小時前</t>
+  </si>
+  <si>
+    <t>.在這篇文章中:
+受美債殖利率攀升，輝達、特斯拉等科技巨頭下跌打擊，美股主指週五 (27 日) 收低。道瓊摔跌超 330 點，那指、標普和費半收黑超 1%。
+10 年期美債殖利率飆升觸及 4.64%，為 5 月初以來最高，因為人們預期聯準會在 2025 年會因通膨擔憂而變得更加鷹派。
+儘管美股出現回落，但本週因聖誕假期縮短交易日，美股週線仍收紅。標普週二創下 1974 年以來聖誕夜最佳表現�</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:18:26</t>
+  </si>
+  <si>
+    <t>受到美國十年期公債殖利率攀升至5月初以來新高的影響，以及輝達和特斯拉等科技巨頭股價下跌，美國股市主要指數週五收盤下跌。道瓊工業平均指數下跌超過330點，那斯達克綜合指數、標普500指數和費城半導體指數跌幅均超過1%。市場預期聯準會在2025年可能因通膨疑慮而採取更鷹派的貨幣政策。儘管如此，由於本週交易日因聖誕假期而縮短，美股主要指數仍呈現周線收紅。</t>
+  </si>
+  <si>
+    <t>受美債殖利率攀升，輝達、特斯拉等科技巨頭下跌打擊，美股主指週五 (27 日) 收低。道瓊摔跌超 330 點，那指、標普和費半收黑超 1%。10 年期美債殖利率飆升觸及 4.64%，為 5 月初以來最高，因為人們預期聯準會在 2025 年會因通膨擔憂而變得更加鷹派。儘管美股出現回落，但本週因聖誕假期縮短交易日，美股週線仍收紅。標普週二創下 1974 年以來聖誕夜最佳表現。</t>
+  </si>
+  <si>
+    <t>美股，道瓊指數，那斯達克指數，標普500指數，費城半導體指數，美債殖利率，聯準會，通膨，科技股，輝達，特斯拉，聖誕假期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">簡潔地概括了美股下跌的主要原因和影響。
+點出儘管單日下跌，但本週整體仍收紅的現象。
+提及了市場對聯準會未來政策的預期。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">缺乏數據細節，例如各指數的具體跌幅百分比。
+對聖誕假期縮短交易日對股市影響的解釋過於簡略。
+沒有分析下跌的原因的深度和廣度，僅僅是點到為止。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以加入更詳細的數據，例如各指數的具體跌幅百分比，以及交易量變化。
+可以深入分析聯準會政策預期對市場的影響。
+可以分析科技股下跌的原因，以及對整體市場的影響。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信息更新速度慢，可能錯失重要的市場動態。
+分析不夠深入，可能無法準確預測市場走勢。
+缺乏對其他因素（例如地緣政治）的考慮，可能導致分析偏差。
+</t>
+  </si>
+  <si>
+    <t>A股加快赴港 今年15家已發公告 寧德時代擬發H股 外電稱籌390億 - 20241228 - 經濟</t>
+  </si>
+  <si>
+    <t>https://news.mingpao.com/pns/%E7%B6%93%E6%BF%9F/article/20241228/s00004/1735318784346/a%E8%82%A1%E5%8A%A0%E5%BF%AB%E8%B5%B4%E6%B8%AF-%E4%BB%8A%E5%B9%B415%E5%AE%B6%E5%B7%B2%E7%99%BC%E5%85%AC%E5%91%8A-%E5%AF%A7%E5%BE%B7%E6%99%82%E4%BB%A3%E6%93%AC%E7%99%BCh%E8%82%A1-%E5%A4%96%E9%9B%BB%E7%A8%B1%E7%B1%8C390%E5%84%84</t>
+  </si>
+  <si>
+    <t>明報新聞網【明報專訊】A股上市公司赴港發H股步伐持續加快。內媒《證券日報》統計指出，截至12月26日，年內至少15家A股公司公布赴港上市公告，啟動「A+H」上市進程。8 小時前</t>
+  </si>
+  <si>
+    <t>.經濟
+A股加快赴港 今年15家已發公告 寧德時代擬發H股 外電稱籌390億
+【明報專訊】A股上市公司赴港發H股步伐持續加快。內媒《證券日報》統計指出，截至12月26日，年內至少15家A股公司公布赴港上市公告，啟動「A+H」上市進程。單計12月，已有6家公司公布更新赴港上市計劃。
+上 / 下一篇新聞
+官方樓指連升兩月近1% 首11月挫6.5% 業界籲政府想辦法救經濟 才可真正穩樓市
+CCL按周挫0.73% 3個月最大跌幅</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:18:46</t>
+  </si>
+  <si>
+    <t>2023年至少已有15家A股公司宣布赴港上市，加速了A股公司在香港發行H股的趨勢。  其中，12月份就有6家公司更新了赴港上市計劃，顯示出強烈的市場意願。報導特別提到，寧德時代也計劃發行H股，預計籌資金額高達390億元，這將進一步刺激市場。</t>
+  </si>
+  <si>
+    <t>A股上市公司赴港發H股步伐持續加快，年內至少15家A股公司公布赴港上市公告，啟動「A+H」上市進程。單計12月，已有6家公司公布更新赴港上市計劃。寧德時代擬發H股，外電稱籌390億。</t>
+  </si>
+  <si>
+    <t>A股、H股、A+H上市、赴港上市、寧德時代、香港上市、籌資、經濟、市場、投資</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A股公司赴港上市，拓展了融資渠道，可以獲得更多資金，促進企業發展。
+香港資本市場成熟，能為A股公司提供更廣闊的投資者群體，提升公司估值。
+「A+H」上市模式，提升了公司國際知名度和影響力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赴港上市涉及較高的成本和複雜的程序，對企業的管理和運營能力提出更高要求。
+香港資本市場受國際因素影響較大，存在一定的風險。
+如果市場環境不佳，上市效果可能不如預期。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中國經濟持續發展，為A股公司赴港上市提供了良好的宏觀環境。
+香港與內地資本市場的互聯互通機制不斷完善，為A股公司赴港上市創造了更多機會。
+更多國際投資者參與，可以促進A股公司的國際化發展。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">國際地緣政治風險和全球經濟下行壓力，可能影響A股公司赴港上市的意願和效果。
+監管政策的變化，也可能對A股公司赴港上市造成影響。
+市場競爭激烈，A股公司需要提升自身競爭力才能在香港市場站穩腳跟。
+</t>
+  </si>
+  <si>
+    <t>寧德時代證實擬來港年半內上市</t>
+  </si>
+  <si>
+    <t>https://www.stheadline.com/article/3414548/%E5%AF%A7%E5%BE%B7%E6%99%82%E4%BB%A3%E8%AD%89%E5%AF%A6%E6%93%AC%E4%BE%86%E6%B8%AF%E5%B9%B4%E5%8D%8A%E5%85%A7%E4%B8%8A%E5%B8%82</t>
+  </si>
+  <si>
+    <t>星島頭條再有內地行業龍頭企業擬來港上市。內地電池巨頭寧德時代昨日正式在深交所公布，公司擬申請在港交所（388）主板掛牌上市。寧德時代昨日在A股收報262元，升0.3%，若以該收市價...9 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.旗下品牌
+寧德時代證實擬來港年半內上市
+　　再有內地行業龍頭企業擬來港上市。內地電池巨頭寧德時代昨日正式在深交所公布，公司擬申請在港交所（388）主板掛牌上市。寧德時代昨日在A股收報262元，升0.3%，若以該收市價計，該公司現市值超過1.15萬億元人民幣。早前傳出寧德時代擬來港作第二上市，集資至少50億美元（約390億港元）。 　　寧德時代公布，經公司股東大會審議通過後，最快在18個月內完成在港上市，並計劃聘請致同香港會計師事務所為這次境外上市的審計機構，相關聘請待明年1月股東大會通過後正式生效。發行規模方面，寧德時代表示，這次發行的H股股數，不會超過擴大後總股本的5%，並授予整體協調人最多15%的超額配售權。 　　上周就有消息傳出，寧德時代考慮最快明年上半年在本港第二上市，集資至少50億美元，若成事將成為繼2021年初快手（1024）掛牌後本港集資額最大新股。 事實上，2023年底市場已曾傳出寧德時代有意來港第二上市，當時報道指公司原本計劃在瑞士發行全球存託憑證（GDR）集資50億至60億美元，但因內地監管問題而擱置計劃。  全球動力電池市佔率38% 　　翻查資料顯示，寧德時代成立於2011年，2018年在深交所創業板上市，市值曾超過工商銀行，位居A股市值第二，僅次於貴州茅台的2.33萬億元人民幣。根據研究機構SNE Research最新數據，今年上半年寧德時代在全球動力電池市佔率為37.8%， 較去年同期上漲2.1個百分點，連續7年穩居榜首。 勁方醫藥遞表  3新股周一首掛 　　其他新股方面，內地生物製藥公司勁方醫藥科技（上海）股份昨日向港交所提交上市申請，中信證券為獨家保薦人。 據該公司披露，其為主要專注於腫瘤、自體免疫和炎症性疾病領域的創新及有效治療方案，今年上半年，該公司錄得虧損約4.5億元人民幣，按年增加1.1倍，研發成本按年增加54.5%至1.86億元。另外，內地茶飲連鎖品牌滬上阿姨再次遞交來港上市申請，中信證券、海通國際和東方證券國際為聯席保薦人。  　　另一方面，訊飛醫療科技（2506）、英諾塞科（2577）、健康之路（2587）三隻新股下周一首掛，當中以健康之路暗盤表現最佳，在耀才暗盤市場升24.4%，收報9.7元，不計手續費，一手帳面賺950元。此外，昨日掛牌的佑駕創新（2431）延續暗盤升勢，收報19.4元，較招股價17元升14.1%，不計手續費，一手200股賺480元。
+↓立即下載星島頭條App↓
+</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:19:09</t>
+  </si>
+  <si>
+    <t>中國電池巨頭寧德時代正式宣布計劃在香港交易所主板上市，預計在18個月內完成，集資額至少50億美元。此舉將是繼2021年快手之後香港最大的新股集資案。寧德時代目前在全球動力電池市場佔有率達37.8%，連續七年位居榜首。  除了寧德時代，勁方醫藥也提交了香港上市申請，而滬上阿姨則再次遞交上市申請。  另外，訊飛醫療科技、英諾塞科和健康之路三隻新股將於下周一起掛牌。</t>
+  </si>
+  <si>
+    <t>寧德時代證實擬來港年半內上市，計劃集資至少50億美元。公司在全球動力電池市佔率為37.8%，連續7年穩居榜首。勁方醫藥、滬上阿姨也遞交上市申請。訊飛醫療科技、英諾塞科、健康之路三隻新股下周一首掛。</t>
+  </si>
+  <si>
+    <t>寧德時代，香港上市，集資，動力電池，市佔率，勁方醫藥，滬上阿姨，新股，香港交易所，第二上市，GDR，快手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寧德時代是全球動力電池龍頭企業，擁有雄厚的技術實力及市場佔有率，投資價值高。
+香港資本市場成熟，能為寧德時代提供更廣闊的融資渠道及更高的估值。
+香港上市能提升寧德時代的國際知名度及品牌形象。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">香港市場的波動性較大，存在一定的投資風險。
+寧德時代的估值已處於高位，存在估值風險。
+國際競爭日益激烈，未來發展存在不確定性。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通過香港上市，可以獲得更多國際投資者的資金，推動公司進一步發展。
+可以利用香港的國際平台，開拓海外市場。
+可以吸引更多優秀人才加入公司。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全球經濟下行壓力加大，市場需求可能下降。
+新能源汽車行業競爭加劇，公司盈利能力可能受到影響。
+國際地緣政治風險加劇，可能影響公司業務的正常運轉。
+</t>
+  </si>
+  <si>
+    <t>進口激增！美11月商品貿易逆差超預期擴大</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E9%80%B2%E5%8F%A3%E6%BF%80%E5%A2%9E-%E7%BE%8E11%E6%9C%88%E5%95%86%E5%93%81%E8%B2%BF%E6%98%93%E9%80%86%E5%B7%AE%E8%B6%85%E9%A0%90%E6%9C%9F%E6%93%B4%E5%A4%A7-170002137.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經美國商務部人口普查局(Census Bureau) 周五(27 日) 公布數據顯示，美國11 月商品貿易逆差擴大幅度遠超經濟學家預期，主要是受到進口反彈影響，讓貿易能否在一年來首次推動...11 小時前</t>
+  </si>
+  <si>
+    <t>.美國商務部人口普查局 (Census Bureau) 周五 (27 日) 公布數據顯示，美國 11 月商品貿易逆差擴大幅度遠超經濟學家預期，主要是受到進口反彈影響，讓貿易能否在一年來首次推動美國第四季 (本季) 經濟成長前景蒙上陰影。
+具體來看，11 月經季節調整後商品貿易逆差從 10 月的 983 億美元增至 1,029 億美元，遠超經濟學家預估的 1,006.5 億美元。
+根據報告，美國 11 月出口成長 74 億美元至 1,764 億美元，增幅達 4.4%；進口成長 120 億美元至 2,792 億美元，增幅為 4.5%。其他商品類別的出口驟降 30.1%，而同一類的進口類別成長 15.1%，為造成差異的主要原因。
+值得注意的是，10 月份貿易逆差降幅遠超預期，進口降幅為近兩年來最大，可能讓貿易成為美國第四季國內生產毛額 (GDP) 成長的一個貢獻因素。貿易上一次推動美國經濟成長次 2023 年的第四季。
+不過，最新數據縮小本季前兩個月商品出口成長超過進口成長的差距。此外，擔心候任總統川普威脅要提高外國商品關稅的企業，可能會試圖在其下個月上任之前提前進口。這可能進一步縮小、甚至逆轉出口優勢，讓貿易連續第四季度拖累 GDP 成長。
+包括服務進出口在內的 11 月貿易數據將在 1 月初公布。
+美國經濟第三季折合年成長率為 3.1%，儘管淨貿易拖累經濟成長 0.43 個百分點。亞特蘭大聯準銀行 (Federal Reserve Bank of Atlanta) 的 GDP Now 追蹤數據顯示，美國第四季 GDP 成長率將與第三季持平。
+更多鉅亨報導 •〈美股早盤〉主要指數開低 那指跌逾250點 •Fed降息展望保守 美元有望創下近7%年漲幅
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:19:30</t>
+  </si>
+  <si>
+    <t>美國商務部人口普查局公布數據顯示，美國11月商品貿易逆差擴大至1029億美元，遠超預期，主要原因是進口大幅反彈。雖然10月貿易逆差大幅收窄，一度讓貿易成為推動第四季經濟增長的因素，但11月數據顯示出口增長不及進口增長，可能導致貿易連續第四季度拖累GDP增長。此外，企業擔心川普政府上任後提高關稅，可能提前進口商品，進一步影響貿易逆差，對美國第四季經濟增長造成負面影響。</t>
+  </si>
+  <si>
+    <t>美國11月商品貿易逆差擴大至1029億美元，遠超預期，進口反彈是主要原因。10月貿易逆差降幅遠超預期，可能讓貿易成為美國第四季GDP成長貢獻因素。但11月數據縮小出口超過進口增長的差距。企業擔心川普政府提高關稅，可能提前進口，進一步縮小甚至逆轉出口優勢，讓貿易連續第四季度拖累GDP成長。美國經濟第三季折合年成長率為3.1%，淨貿易拖累經濟成長0.43個百分點。</t>
+  </si>
+  <si>
+    <t>美國、商品貿易逆差、進口、出口、GDP、經濟增長、川普、關稅、美國商務部人口普查局、第四季度、貿易逆差擴大</t>
+  </si>
+  <si>
+    <t xml:space="preserve">數據來自官方機構，數據可靠性高。
+分析了貿易逆差擴大的原因，並對未來經濟增長影響進行了預測，分析全面。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">只關注商品貿易逆差，未包含服務貿易數據，分析不夠全面。
+對企業提前進口商品的推測，缺乏實證數據支持。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以進一步分析不同商品類別的進出口變化，找出影響貿易逆差的主要因素。
+可以結合其他經濟指標，更準確地預測美國經濟增長趨勢。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">貿易保護主義升溫，可能進一步加劇貿易摩擦，影響美國經濟增長。
+全球經濟下行風險加大，可能進一步降低美國出口需求。
+</t>
+  </si>
+  <si>
+    <t>強化安全性與效率 CATL推出新型電動車底盤</t>
+  </si>
+  <si>
+    <t>https://www.carture.com.tw/opinion/article/34440-%E5%BC%B7%E5%8C%96%E5%AE%89%E5%85%A8%E6%80%A7%E8%88%87%E6%95%88%E7%8E%87-CATL%E6%8E%A8%E5%87%BA%E6%96%B0%E5%9E%8B%E9%9B%BB%E5%8B%95%E8%BB%8A%E5%BA%95%E7%9B%A4</t>
+  </si>
+  <si>
+    <t>CARTURE 車勢文化電動車技術不斷進步，而安全性一直是業界的重要課題之一，近日中國電池巨頭寧德時代CATL推出了一款全新的「磐石底盤」電動車平台，展示了在高強度碰撞下保持電池安全的...15 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+首頁»車事»強化安全性與效率　CATL推出新型電動車底盤
+車事
+Dec 27, 2024
+強化安全性與效率　CATL推出新型電動車底盤
+電動車技術不斷進步，而安全性一直是業界的重要課題之一，近日中國電池巨頭寧德時代CATL推出了一款全新的「磐石底盤」電動車平台，展示了在高強度碰撞下保持電池安全的最新成果，這款底盤經過多項苛刻的測試，能夠在120km/h的碰撞中保持完整，並防止起火或爆炸，樹立了未來電動車安全的新標準。
+BY Yueh Wu
+電動車電池巨頭寧德時代推出新的電動車底盤，重點在於其電池安全性極高。
+電動車電池巨頭寧德時代推出新的電動車底盤，重點在於其電池安全性極高。
+中國電池製造巨頭CATL寧德時代推出了一款名為「磐石底盤」的新型電動車平台，專注於提升電動車電池的安全性與結構強度，這款底盤經過測試，能夠在時速120 km/h的正面撞擊下保持電池的完整性，避免起火或爆炸，CATL利用潛艇級熱成型鋼、航太級鋁合金和多重隔離結構，賦予底盤優異的剛性表現，電池還配備了一種3D仿生龜殼結構和高延展性吸收絕緣膜，能夠吸收85%的碰撞能量，比傳統底盤的60%吸能效率高出許多。
+磐石底盤的一大技術亮點是電池的快速安全反應機制，在發生碰撞後，電池的高壓迴路能在0.01秒內斷開，並在0.2秒內完成放電，確保安全性，模組化設計讓該底盤能適應多種車型需求，並支持L3和L4級自動駕駛技術，且這款底盤可以顯著縮短新車型的研發週期，從傳統的36個月減少至12至18個月。原廠也同時宣布，Avatr阿維塔將成為首個採用這款底盤技術的汽車品牌，儘管具體上市時間尚未公佈，但這項創新底盤的推出，不僅提升了電動車的安全性能，還可能對行業標準產生深遠影響。
+磐石底盤著重於安全性，將比現有的電動車平台都還要更加安全。
+磐石底盤著重於安全性，將比現有的電動車平台都還要更加安全。
+這個底盤可以在時速120 km/h發生碰撞時，依舊不起火不爆炸。
+這個底盤可以在時速120 km/h發生碰撞時，依舊不起火不爆炸。
+目前首先搭載這個底盤的品牌將會是阿維塔。
+目前首先搭載這個底盤的品牌將會是阿維塔。
+電動車平台底盤電池模組化寧德時代CATL阿維塔Avtar
+相關文章
+回到未來經典車款重現 Lynx DeLorean DMC-EV一輛要價超過800萬
+寧德時代、比亞迪、蔚來、中航等中國品牌共同建立中國固態電池供應鏈
+是什麼原因讓Audi與上汽合作的新款電動車放棄四環Logo？
+雷諾將使用LFP電池 來自寧德時代以及LG讓成本下降20%
+擊敗Model 3的中國電動轎車的新勢力 Avatr 06亮相
+精選文章
+強化安全性與效率　CATL推出新型電動車底盤
+Mugen推出全新Honda Civic Type R Group B改裝套件
+科幻黑武士，Toyota東京改裝車展將展出RAV4 Dark Side Performance
+中國市場專屬運動版車型 Toyota Camry Glorious Edition
+突破傳統的增程電動車 零跑汽車C10 REEV亮相
+© 2024 CARTURE 車勢文化. All rights reserved.</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:19:57</t>
+  </si>
+  <si>
+    <t>中國電池巨頭寧德時代（CATL）推出新型電動車底盤「磐石底盤」，強調其在高強度碰撞下保持電池安全的卓越性能。該底盤採用潛艇級熱成型鋼、航太級鋁合金和多重隔離結構，以及3D仿生龜殼結構和高延展性吸收絕緣膜，可在120km/h的碰撞中保持電池完整性，防止起火或爆炸，吸能效率比傳統底盤高出許多。此外，其快速安全反應機制可在0.01秒內斷開高壓迴路，0.2秒內完成放電。磐石底盤採用模組化設計，適用於多種車型，支援L3和L4級自動駕駛，並可大幅縮短新車型研發週期。阿維塔將成為首個搭載該底盤的汽車品牌。</t>
+  </si>
+  <si>
+    <t>中國電池巨頭寧德時代CATL推出全新的「磐石底盤」電動車平台，能夠在120km/h的碰撞中保持完整，並防止起火或爆炸。CATL利用潛艇級熱成型鋼、航太級鋁合金和多重隔離結構，賦予底盤優異的剛性表現，電池配備3D仿生龜殼結構和高延展性吸收絕緣膜，吸收85%的碰撞能量。電池的高壓迴路能在0.01秒內斷開，0.2秒內完成放電。模組化設計能適應多種車型，支持L3和L4級自動駕駛，並可縮短新車型研發週期。Avatr阿維塔將成為首個採用這款底盤技術的汽車品牌。</t>
+  </si>
+  <si>
+    <t>寧德時代、CATL、磐石底盤、電動車底盤、電池安全、高強度碰撞、120km/h碰撞測試、潛艇級熱成型鋼、航太級鋁合金、3D仿生龜殼結構、高延展性吸收絕緣膜、快速安全反應機制、模組化設計、L3自動駕駛、L4自動駕駛、阿維塔、Avatr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">極高的安全性：在120km/h碰撞中保持電池完整性，防止起火或爆炸，吸能效率高。
+快速安全反應機制：0.01秒斷開高壓迴路，0.2秒完成放電。
+模組化設計：適用於多種車型，縮短研發週期。
+支援高階自動駕駛：支援L3和L4級自動駕駛技術。
+技術領先：採用先進材料和技術，樹立行業新標準。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成本：採用高強度材料和先進技術，可能導致成本較高。
+市場接受度：新技術的市場接受度需要時間驗證。
+量產能力：大規模量產能力和供應鏈穩定性仍需觀察。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提升電動車安全性：解決電動車安全隱憂，提升消費者信心。
+擴大市場份額：技術領先，有望搶佔更多市場份額。
+推動行業標準：引領電動車底盤技術發展，提升行業標準。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">競爭對手：其他電池廠商或汽車製造商可能推出競爭產品。
+技術瓶頸：技術突破或成本控制方面可能面臨挑戰。
+法規政策：相關的法規政策變化可能影響產品的應用。
+</t>
+  </si>
+  <si>
+    <t>新加坡今年僅4隻IPO創逾10年新低上市公司數目縮水兩成- 財經快訊</t>
+  </si>
+  <si>
+    <t>https://www.dotdotnews.com/a/202412/27/AP676e9518e4b079cd3fc1bd98.html</t>
+  </si>
+  <si>
+    <t>點新聞【點新聞報道】據英國《金融時報》報道，新加坡今年只有4隻新股招股上市(IPO)，創逾10年新低，集資約3100萬美元(約2.4億港元)，新加坡交易所上市公司數目跌至約617間，...16 小時前</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:20:00</t>
+  </si>
+  <si>
+    <t>民眾黨駁北檢起訴理由促釋放柯文哲| Watch</t>
+  </si>
+  <si>
+    <t>https://www.msn.com/zh-hk/video/money/%E6%B0%91%E7%9C%BE%E9%BB%A8%E9%A7%81%E5%8C%97%E6%AA%A2%E8%B5%B7%E8%A8%B4%E7%90%86%E7%94%B1-%E4%BF%83%E9%87%8B%E6%94%BE%E6%9F%AF%E6%96%87%E5%93%B2/vi-AA1wvXqh</t>
+  </si>
+  <si>
+    <t>MSN北檢起訴民眾黨主席柯文哲，並求處28年6月徒刑，外界關注民眾黨是否推舉代理黨主席。民眾黨緊急應變小組召集人林富男表示，縱使有柯文哲辭職信也不接受，一定等柯文哲回來，...17 小時前</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:20:26</t>
+  </si>
+  <si>
+    <t>焦點財經 27/12/2024 本港11月私樓樓價兩連升 港股假期後微跌7點收市</t>
+  </si>
+  <si>
+    <t>https://www.i-cable.com/%E8%B2%A1%E7%B6%93%E8%B3%87%E8%A8%8A/302701/%E7%84%A6%E9%BB%9E%E8%B2%A1%E7%B6%93-27-12-2024-%E6%9C%AC%E6%B8%AF11%E6%9C%88%E7%A7%81%E6%A8%93%E6%A8%93%E5%83%B9%E5%85%A9%E9%80%A3%E5%8D%87-%E6%B8%AF%E8%82%A1%E5%81%87%E6%9C%9F%E5%BE%8C%E5%BE%AE</t>
+  </si>
+  <si>
+    <t>有線寬頻 i-CABLE焦點財經27/12/2024 。本港11月私樓樓價兩連升惟升幅收窄至不足0.1% 。恒指微跌7點收市全周計升逾300點。寧德時代計劃來港上市據報集資390億元.17 小時前</t>
+  </si>
+  <si>
+    <t>.焦點財經 27/12/2024 本港11月私樓樓價兩連升 港股假期後微跌7點收市
+焦點財經 27/12/2024
+。本港11月私樓樓價兩連升 惟升幅收窄至不足0.1% 。恒指微跌7點收市 全周計升逾300點 。寧德時代計劃來港上市 據報集資390億元</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:20:48</t>
+  </si>
+  <si>
+    <t>香港11月份私人住宅樓價連續兩個月上升，但升幅收窄至不足0.1%。香港恒生指數在假期後微跌7點收市，但全周計升逾300點。中國動力電池龍頭企業寧德時代正計劃在香港上市，預計集資390億元。</t>
+  </si>
+  <si>
+    <t>本港11月私樓樓價兩連升，惟升幅收窄至不足0.1%。恒指微跌7點收市，全周計升逾300點。寧德時代計劃來港上市，據報集資390億元。</t>
+  </si>
+  <si>
+    <t>香港樓市、私樓樓價、恒生指數、港股、寧德時代、香港上市、集資</t>
+  </si>
+  <si>
+    <t xml:space="preserve">香港樓市持續回升，顯示經濟復甦的跡象。
+港股整體表現良好，全周升逾300點。
+寧德時代來港上市，將為香港資本市場注入活力，提升市場深度和廣度。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樓價升幅收窄，顯示市場升勢可能放緩。
+港股單日微跌，顯示市場仍存在波動風險。
+寧德時代上市集資規模雖然龐大，但能否成功仍存在不確定性，也可能受到國際局勢影響。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">樓市持續回升將推動相關行業的發展，例如建築、裝修等。
+港股的良好表現將吸引更多投資者入市。
+寧德時代上市將吸引更多國際投資者關注香港市場。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全球經濟下行風險加劇，可能影響香港樓市和股市表現。
+地緣政治風險升高，可能影響投資者信心。
+寧德時代上市的競爭激烈，可能影響集資規模和估值。
+</t>
+  </si>
+  <si>
+    <t>生合、金利食安2檔食品股IPO案再過一關 今獲OTC董事會通過</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E7%94%9F%E5%90%88-%E9%87%91%E5%88%A9%E9%A3%9F%E5%AE%892%E6%AA%94%E9%A3%9F%E5%93%81%E8%82%A1ipo%E6%A1%88%E5%86%8D%E9%81%8E-%E9%97%9C-%E4%BB%8A%E7%8D%B2otc%E8%91%A3%E4%BA%8B%E6%9C%83%E9%80%9A%E9%81%8E-110021914.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經證券櫃檯買賣中心今(27) 日召開董事、監察人聯席會議，包括生合(1295-TW) 及金利食安(7743-TW) 兩檔食品股的上櫃案都獲通過，IPO 案再向前挺進一步。17 小時前</t>
+  </si>
+  <si>
+    <t>.證券櫃檯買賣中心今 (27) 日召開董事、監察人聯席會議，包括生合 (1295-TW) 及金利食安 (7743-TW) 兩檔食品股的上櫃案都獲通過，IPO 案再向前挺進一步。
+生合今天在興櫃的最後成交價報 75 元，金利食安今天在興櫃的最後成交價報 56.6 元。
+生合主係從事功能性益生菌的研究、生產及銷售，申請時股本爲 3.135 億元。生合公司董事長為楊連傳，推薦證券商爲台新綜合證券及玉山綜合證券。
+生合公司 2023 年營收為 8.23 億元元，稅後純益為 1.13 億元，每股純益為 3.67 元。生合 2024 年前三季營收為 7.43 元，稅後純益為 1.48 億元，每股純益為 4.71 元。
+金利食安推薦證券商爲凱基證券及兆豐證券，申請時資本額 3.34 億元。金利食安 2023 年營收為 5.77 億元，稅後純益為 4723 萬元，每股純益為 1.41 元。2024 年前三季營收為 4.46 億元，稅後純益為 3592 萬元，每股純益為 1.07 元。
+金利食安是設立於屏東從事冷壓蔬果汁及機能性飲品等運用 HPP 超高壓低溫食品加工技術產品研發、製造及銷售。
+更多鉅亨報導 •食品股添新兵 金利食安上櫃案今獲櫃買中心審議通過
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:21:08</t>
+  </si>
+  <si>
+    <t>生合(1295-TW)及金利食安(7743-TW)兩檔食品股的上櫃案獲得證券櫃檯買賣中心通過，將進一步推進IPO流程。生合主要從事功能性益生菌的研究、生產和銷售，2023年營收為8.23億元，稅後純益為1.13億元，每股純益為3.67元；2024年前三季營收為7.43億元，稅後純益為1.48億元，每股純益為4.71元。金利食安則從事冷壓蔬果汁及機能性飲品的研發、製造和銷售，2023年營收為5.77億元，稅後純益為4723萬元，每股純益為1.41元；2024年前三季營收為4.46億元，稅後純益為3592萬元，每股純益為1.07元。</t>
+  </si>
+  <si>
+    <t>證券櫃檯買賣中心今(27)日召開董事、監察人聯席會議，生合(1295-TW)及金利食安(7743-TW)兩檔食品股的上櫃案都獲通過。生合主係從事功能性益生菌的研究、生產及銷售，2024年前三季營收為7.43億元，稅後純益為1.48億元，每股純益為4.71元。金利食安從事冷壓蔬果汁及機能性飲品研發、製造及銷售，2024年前三季營收為4.46億元，稅後純益為3592萬元，每股純益為1.07元。</t>
+  </si>
+  <si>
+    <t>生合、金利食安、食品股、上櫃、IPO、益生菌、冷壓蔬果汁、機能性飲品、營收、純益、每股純益、證券櫃檯買賣中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生合和金利食安均為食品產業中的優質公司，具有穩定的營收和盈利能力。
+兩家公司均在各自領域具有較強的競爭力，市場前景良好。
+上櫃成功後，將有利於提升公司形象和品牌知名度，吸引更多投資者。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">食品行業競爭激烈，存在一定的市場風險。
+兩家公司規模相對較小，抗風險能力有限。
+上櫃後，公司治理和信息披露等方面將面臨更高的要求。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上櫃後，公司可以獲得更多的資金支持，有利於公司業務擴張和技術研發。
+上櫃可以提升公司品牌形象，拓展市場空間。
+上櫃可以吸引更多優秀人才加入公司。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">行業政策調整或市場環境變化可能對公司經營產生負面影響。
+經濟下行或消費者信心下降可能影響公司產品銷售。
+競爭對手可能推出更具競爭力的產品，搶佔市場份額。
+</t>
+  </si>
+  <si>
+    <t>〈和大尾牙〉董座證實跨足CoWoS 9月完整機電設備亮相 10月出貨</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E5%92%8C%E5%A4%A7%E5%B0%BE%E7%89%99-%E8%91%A3%E5%BA%A7%E8%AD%89%E5%AF%A6%E8%B7%A8%E8%B6%B3cowos-9%E6%9C%88%E5%AE%8C%E6%95%B4%E6%A9%9F%E9%9B%BB%E8%A8%AD%E5%82%99%E4%BA%AE%E7%9B%B8-10%E6%9C%88%E5%87%BA%E8%B2%A8-105643992.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經電動車零組件大廠和大(1536-TW) 近來傳出將切入CoWoS 先進封裝供應鏈，也將多元拓展機器人業務版圖，和大董事長沈國榮今(27) 日主持集團尾牙時證實，預計2025 年第一季...17 小時前</t>
+  </si>
+  <si>
+    <t>.電動車零組件大廠和大 (1536-TW) 近來傳出將切入 CoWoS 先進封裝供應鏈，也將多元拓展機器人業務版圖，和大董事長沈國榮今 (27) 日主持集團尾牙時證實，預計 2025 年第一季推出 CoWoS 機電設備原型機，9 月在半導體展亮相，10 月起開始出貨，接著迎來出貨爆發潮相當可以期待。
+由於全球汽車品牌競爭消長，沈國榮不諱言，從去年起就感受到種種壓力，今年更是最辛苦的一年，預料明年前三季營運將與今年持平，不過，明年第四季開始有望出貨 CoWoS 相關機電設備，緊張著，大客戶特斯拉電動卡車有望增量出貨，營運將先蹲後跳。
+沈國榮說，為跟上半導體和 AI 的發展趨勢，其實切入 CoWoS 思考已久，依和大既有的設備和能力，和大「完全有能力發展封裝或檢測設備的儀器」。
+沈國榮透露，已找到具有 20 年相關經驗的團隊，並拿到封裝後檢測的關鍵技術，未來將由集團的高鋒組裝、和大提供整個機電整合，再加上即將成立的和大芯公司 (資本額 6 億元) 完成後段作業，預計第一季推原型機，台灣前五大封裝大廠也將進行測試，規劃於 9 月在半導體展秀出完整設備，10 月開始銷售。
+沈國榮樂觀看待，2026 年將迎來 CoWoS 設備出貨爆發潮。
+更多鉅亨報導 •和大連續新訂單報喜訊 嘉義建案完銷 未來目標每年推一案 •關稅利空鴻海這價格以下是甜甜價！ 和大、穎漢機器人東山再起！
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:21:29</t>
+  </si>
+  <si>
+    <t>電動車零組件大廠和大(1536-TW) 董事長沈國榮證實，將於2025年第一季推出CoWoS先進封裝機電設備原型機，預計9月在半導體展亮相，10月開始出貨，並於2026年迎來出貨爆發潮。此舉是為因應全球汽車產業競爭加劇及配合半導體和AI發展趨勢，積極轉型多元發展的策略。  雖然明年前三季營運預計與今年持平，但隨著CoWoS設備出貨及特斯拉電動卡車訂單增量，未來營運可望呈現先蹲後跳的態勢。和大已組建具備20年經驗的團隊，並取得關鍵技術，將由集團高鋒組裝、和大提供機電整合，新成立的和大芯公司負責後段作業。</t>
+  </si>
+  <si>
+    <t>和大董事長沈國榮證實，預計2025年第一季推出CoWoS機電設備原型機，9月在半導體展亮相，10月起開始出貨，2026年迎來出貨爆發潮。「和大完全有能力發展封裝或檢測設備的儀器」，已找到具有20年經驗的團隊，拿到封裝後檢測關鍵技術，台灣前五大封裝大廠將進行測試。明年前三季營運將與今年持平，但明年第四季開始有望出貨CoWoS相關機電設備，特斯拉電動卡車有望增量出貨，營運將先蹲後跳。</t>
+  </si>
+  <si>
+    <t>和大,1536-TW,CoWoS,先進封裝,機電設備,半導體,AI,電動車,特斯拉,電動卡車,原型機,出貨,營運,轉型,多元發展,高鋒組裝,大和芯公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大和在機電整合領域擁有既有技術與經驗，有利於快速開發CoWoS設備。
+已組建專業團隊並取得關鍵技術，降低研發風險。
+鎖定台灣前五大封裝廠進行測試，有助於產品驗證和市場拓展。
+特斯拉電動卡車訂單的潛在增量，可提升整體營收。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切入CoWoS領域屬於新業務，存在市場競爭和技術挑戰。
+明年前三季營運預計持平，短期內業績成長壓力較大。
+新成立的和大芯公司尚需時間穩定運作。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoWoS市場需求持續增長，為和大帶來巨大市場機會。
+多元化發展策略，降低對單一產業的依賴。
+成功開發CoWoS設備可提升公司技術品牌形象及獲利能力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全球汽車產業競爭激烈，客戶需求變化可能影響訂單量。
+CoWoS設備市場競爭者眾多，價格競爭壓力可能加大。
+半導體產業景氣循環影響，可能導致需求波動。
+</t>
+  </si>
+  <si>
+    <t>【新唐人快報】ESG基金投資14億美元 涉新疆強迫勞動</t>
+  </si>
+  <si>
+    <t>https://www.ntdtv.com/b5/2024/12/26/a103941404.html</t>
+  </si>
+  <si>
+    <t>新唐人電視台根據Ignites Asia最新分析，全球資產管理公司運營的環境、社會和治理ESG基金中，至少有14億美元投資於14家電動車和太陽能公司，這些公司與新疆的強迫勞動有關。17 小時前</t>
+  </si>
+  <si>
+    <t>.【新唐人快報】ESG基金投資14億美元 涉新疆強迫勞動
+【新唐人北京時間2024年12月27日訊】根據Ignites Asia最新分析，全球資產管理公司運營的環境、社會和治理ESG基金中，至少有14億美元投資於14家電動車和太陽能公司，這些公司與新疆的強迫勞動有關。
+Ignites Asia是英國《金融時報》旗下專注於亞洲地區資產管理和投資行業新聞、分析和洞察的專業媒體平台。
+《金融時報》根據多方數據分析認為，其中11億美元可持續投資，注入了中國最大電池製造商寧德時代（CATL）。
+近年來，寧德時代的營運引起美國議員的關注。
+6月，美國眾議院中共問題特設委員會主席穆勒納爾（John Moolenaar）致函國土安全部，披露新的證據證明，寧德時代和國軒高科涉及中共支持的奴工，與維吾爾種族滅絕有關。
+8月，美國聯邦參議院情報委員會副主席盧比奧（Marco Rubio）和穆勒納爾一起寫信給國防部長奧斯汀，要求國防部將寧德時代列入1260H黑名單。
+不過，寧德時代否認了這些指控。根據Morningstar的數據，全球主動管理的ESG基金向寧德時代投資7.89億美元，另有被動基金投資了2.63億美元。
+最大的投資者包括貝萊德（BlackRock）、北歐銀行（Nordea）和資產管理公司晉達（Ninety One），分別投資了1.48億美元、9.3千萬美元和8.6千萬美元。
+晉達和貝萊德都拒絕了《金融時報》的置評請求。
+北歐銀行負責投資的主管埃里克‧佩德森（Eric Pedersen）表示，該公司了解全球電動車供應鏈中涉及強迫勞動的風險，但他們是根據多家ESG數據提供商的報告做出的投資決定。
+專家認為，基金公司在投資中國企業時，如果不能或無法全面審查這些企業的供應鏈，可能會面臨各種風險。
+報導引述反奴役國際組織（Anti-Slavery International）主題倡導負責人克洛伊‧克蘭斯頓（Chloe Cranston）的話說，資產管理公司應更加努力地確保投資組合的道德性，而不僅僅是依賴ESG數據的提供商。
+克蘭斯頓補充說，「唯一負責任的做法就是撤資。」
+《新唐人快報》製作組
+（責任編輯：劉明湘）</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:21:49</t>
+  </si>
+  <si>
+    <t>國際、經濟、社會、環保</t>
+  </si>
+  <si>
+    <t>Ignites Asia 的分析指出，全球至少有14億美元的ESG基金投資於與新疆強迫勞動相關的14家電動車和太陽能公司，其中包括中國最大電池製造商寧德時代。美國國會議員已多次關注寧德時代與強迫勞動的關聯，並要求將其列入黑名單。雖然寧德時代否認相關指控，但此事件凸顯ESG基金在審查投資對象供應鏈方面的不足，以及投資者在道德責任方面的挑戰。  部分大型資產管理公司如貝萊德、北歐銀行和晉達等都涉及此投資，部分公司拒絕置評，部分則表示根據多家ESG數據提供商的報告做出的投資決定。反奴役國際組織呼籲資產管理公司應更積極地確保投資組合的道德性，並建議撤資。</t>
+  </si>
+  <si>
+    <t>全球至少有14億美元的ESG基金投資於與新疆強迫勞動有關的14家公司，其中11億美元投資於寧德時代。美國議員多次關注寧德時代涉嫌強迫勞動的問題，並要求將其列入黑名單。寧德時代否認相關指控。  最大的投資者包括貝萊德、北歐銀行和晉達。反奴役國際組織呼籲資產管理公司應更積極地確保投資組合的道德性，「唯一負責任的做法就是撤資。」</t>
+  </si>
+  <si>
+    <t>ESG基金、新疆強迫勞動、寧德時代、電動車、太陽能公司、美國國會、黑名單、貝萊德、北歐銀行、晉達、道德責任、供應鏈審查、撤資、反奴役國際組織、可持續投資</t>
+  </si>
+  <si>
+    <t xml:space="preserve">報導揭露了ESG投資中的重要問題，引起公眾對ESG投資道德性和有效性的關注。
+報導使用了多個可靠的資料來源，包括IgnitesAsia、金融時報以及相關組織的聲明。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">報導僅揭露問題的存在，但未提供具體的解決方案或有效的監管措施。
+部分被點名的投資公司拒絕置評，缺乏相關方的回應。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">促使ESG基金管理公司加強對投資對象的盡職調查，完善供應鏈審查機制。
+推動更嚴格的國際規範和監管，以防止強迫勞動及相關投資。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此事件可能損害ESG投資的聲譽，降低投資者對ESG基金的信心。
+缺乏有效的監管和執法機制，難以有效解決此類問題。
+</t>
+  </si>
+  <si>
+    <t>實測發現預訂酒店平台網頁版和應用程式 價錢相差逾7%</t>
+  </si>
+  <si>
+    <t>https://www.msn.com/zh-hk/video/news/%E5%AF%A6%E6%B8%AC%E7%99%BC%E7%8F%BE%E9%A0%90%E8%A8%82%E9%85%92%E5%BA%97%E5%B9%B3%E5%8F%B0%E7%B6%B2%E9%A0%81%E7%89%88%E5%92%8C%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F-%E5%83%B9%E9%8C%A2%E7%9B%B8%E5%B7%AE%E9%80%BE7/vi-AA1wz58Z</t>
+  </si>
+  <si>
+    <t>MSN不少人出外旅遊，也會使用網上訂房平台預訂酒店。本台一連兩日，探討消費者使用網上平台要注意的細節。透過網上訂房平台，搜尋農曆新年期間5日4夜、日本東京新宿一間的...18 小時前</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:22:15</t>
+  </si>
+  <si>
+    <t>寧德時代擬來港上市 有望成本港近四年來集資規模最大新股</t>
+  </si>
+  <si>
+    <t>https://news.tvb.com/tc/finance/676e7680db2fdd2664f540c4/%E8%B2%A1%E7%B6%93-%E5%AF%A7%E5%BE%B7%E6%99%82%E4%BB%A3%E6%93%AC%E4%BE%86%E6%B8%AF%E4%B8%8A%E5%B8%82-%E6%9C%89%E6%9C%9B%E6%88%90%E6%9C%AC%E6%B8%AF%E8%BF%91%E5%9B%9B%E5%B9%B4%E4%BE%86%E9%9B%86%E8%B3%87%E8%A6%8F%E6%A8%A1%E6%9C%80%E5%A4%A7%E6%96%B0%E8%82%A1</t>
+  </si>
+  <si>
+    <t>news.tvb.com全球最大電動車電池生產商寧德時代計劃來港上市，有望成為近四年來本港集資規模最大的新股。繼美的集團及順豐控股後，再有內地龍頭企業計劃登陸本港資本市場。19 小時前</t>
+  </si>
+  <si>
+    <t>無綫新聞 TVB News
+繁
+简
+搜尋
+無綫新聞 TVB News
+無綫新聞
+財經
+寧德時代擬來港上市 有望成本港近四年來集資規模最大新股
+寧德時代擬來港上市 有望成本港近四年來集資規模最大新股
+發佈日期: 2024-12-27 17:42
+財經
+無綫新聞 TVB News
+粵
+無綫新聞 TVB News
+無綫新聞 TVB News已複製連結
+全球最大電動車電池生產商寧德時代計劃來港上市，有望成為近四年來本港集資規模最大的新股。
+繼美的集團及順豐控股後，再有內地龍頭企業計劃登陸本港資本市場。
+全球最大電動車電池生產商寧德時代表示，為進一步推進全球化戰略布局，打造國際化資本運作平台，計劃發行H股在香港主板上市，以提高綜合競爭力。
+寧德時代表示，發行H股有助籌集更多資金，用於業務發展，提升盈利基礎。H股上市的議案，將於下月十七日的股東大會上審議。
+早前有報道，寧德時代擬明年上半年來港第二上市，集資至少50億美元，相當於約390億港元，有機會成為本港近四年來集資規模最大的新股。
+寧德時代早前已落戶香港科學園，租用9,000平方呎面積，設立研究院，推動新能源和綠色科技發展，計劃招聘200人從事科研工作，並與本港大學合作，共同開發項目及培育創科人才。
+2011年正式成立的寧德時代，2018年已在深圳上市，2021年成為首間市值過萬億元人民幣的創業板企業。今年首三季淨利潤有360億元人民幣，按年增長一成半。
+其動力電池使用量，連續七年排名全球第一。最近有調查顯示，價格30萬元人民幣以上，量產並已在中國市場交付的純電動車，包括轎車、跑車、SUV及MPV，四個類別的首五大，共20個車款當中，有四分之三便搭載了寧德時代的電池。
+集團近年積極海外市場布局。除了德國及匈牙利廠房，已相繼投入營運。剛於月中宣布，與汽車製造商斯泰蘭蒂斯合作，在西班牙興建電池廠，總投資達41億歐元，預計2026年投產。
+財經
+寧德時代
+電動車
+電池
+上市
+H股
+斯泰蘭蒂斯
+無綫新聞 TVB News
+無綫新聞 TVB News
+無綫新聞 TVB News
+隨時隨地觀看新聞，立即下載
+Apple App Store下載無綫新聞TVB News app
+Google Play下載無綫新聞TVB News app
+Huawei App Gallery下載無綫新聞TVB News app
+Samsung Galaxy Store下載無綫新聞TVB News app
+條款及細則
+個人資料收集聲明
+私隱聲明概覽 (歐盟)
+完整私隱聲明 (歐盟)
+Cookies 政策
+準則及守則
+FAQ 常見問題
+關於我們
+聯絡我們
+Copyright 2024 Television Broadcasts Limited
+無綫新聞 Facebook Fanpage
+無綫新聞 YouTube Channel</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:22:42</t>
+  </si>
+  <si>
+    <t>全球最大電動車電池生產商寧德時代計劃來港上市，預計將成為香港近四年來集資規模最大的新股。此舉旨在進一步推進全球化戰略布局，打造國際化資本運作平台，並籌集更多資金用於業務發展。寧德時代已在香港科學園設立研究院，並與香港大學合作，共同開發項目及培育創科人才。寧德時代動力電池使用量連續七年排名全球第一，其電池廣泛應用於中國市場的高端電動車。集團近年積極拓展海外市場，已在德國、匈牙利和西班牙設立或興建電池廠。</t>
+  </si>
+  <si>
+    <t>全球最大電動車電池生產商寧德時代計劃來港上市，有望成為近四年來本港集資規模最大的新股，發行H股有助籌集更多資金，用於業務發展，提升盈利基礎。寧德時代動力電池使用量連續七年排名全球第一，最近有調查顯示，價格30萬元人民幣以上，量產並已在中國市場交付的純電動車，四分之三便搭載了寧德時代的電池。集團近年積極海外市場布局，已在德國及匈牙利廠房投入營運，並與斯泰蘭蒂斯合作，在西班牙興建電池廠。</t>
+  </si>
+  <si>
+    <t>寧德時代、香港上市、H股、電動車電池、集資、全球化、新能源、綠色科技、斯泰蘭蒂斯、深圳上市、動力電池、海外市場、西班牙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寧德時代是全球最大的電動車電池生產商，擁有雄厚的技術實力和市場份額。
+香港上市可以提升國際知名度，吸引更多國際投資者。
+集資規模龐大，可為業務擴張提供充足資金。
+積極拓展海外市場，佈局全球產業鏈。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">香港市場波動性較大，上市後股價存在風險。
+集資規模過大，可能難以快速消化資金。
+國際競爭激烈，需要持續創新才能保持領先地位。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抓住全球電動車市場快速增長的機遇。
+深化與國際車企合作，拓展更多業務。
+進一步提升技術實力，開發更先進的電池技術。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全球經濟下行風險，可能影響投資者信心。
+地緣政治風險，可能影響海外市場拓展。
+競爭對手的崛起，可能瓜分市場份額。
+</t>
+  </si>
+  <si>
+    <t>新股IPO｜佑駕創新2431首掛高收、收報19.4元高定價9.4% 一手帳面賺480元</t>
+  </si>
+  <si>
+    <t>https://inews.hket.com/article/3878837/%E6%96%B0%E8%82%A1IPO%EF%BD%9C%E4%BD%91%E9%A7%95%E5%89%B5%E6%96%B02431%E9%A6%96%E6%8E%9B%E9%AB%98%E6%94%B6%E3%80%81%E6%94%B6%E5%A0%B119.4%E5%85%83%E9%AB%98%E5%AE%9A%E5%83%B99.4-%E3%80%80%E4%B8%80%E6%89%8B%E5%B8%B3%E9%9D%A2%E8%B3%BA480%E5%85%83?mtc=20037</t>
+  </si>
+  <si>
+    <t>Hong Kong Economic Times佑駕創新首掛收報19.4元以17元下限定價，超額認購13倍一手中籤率50%佑駕創新（02431）首日掛牌。内地智能駕駛和艙內解決方案供應商佑駕創新開報18.6元，較招股定價17元...20 小時前</t>
+  </si>
+  <si>
+    <t>.新股IPO｜佑駕創新2431首掛高收、收報19.4元高定價9.4%　一手帳面賺480元
+撰文： 梁浩碩
+發布時間： 20 小時前
+最後更新： 20 小時前
+▲ 新股IPO｜佑駕創新2431首掛開報18.6元高定價9.4%　一手帳面賺320元
+佑駕創新 （02431） 首日掛牌。内地智能駕駛和艙內解決方案供應商佑駕創新開報18.6元，較招股定價17元高9.4%，尾市升幅擴大，佑駕創新收報19.4元全日最高位收市，高招股價14.1%，成交1.1億元，以每手200股計，一手帳面賺480元。
+佑駕創新以每股17元定價，為招股價範圍17元至20.2元的下限定價，集資淨額6.1億元，一手中籤率50%，抽9手（1800股）即可穩獲一手。香港公開發售部分錄得11407份有效申請，7899份受理，超額認購13倍，國際發售部分超購近0.1倍。
+所得款項淨額約40%將用於提升研發能力及招聘及留任相關研發人才，30%用於提升生產效率及解決方案競爭力，20%用於加強銷售和營銷能力，10%作營運資金和一般企業用途。
+追蹤新股消息，可瀏覽【新股IPO】 或使用【新股IPO】小工具
+相關文章
+hket會員只要做齊報價專區任務並儲夠積分，就可以兌換高達$3000優惠券</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:23:04</t>
+  </si>
+  <si>
+    <t>佑駕創新（02431）在香港交易所首日掛牌，開盤價為每股18.6元，較招股價17元高出9.4%。收盤價為每股19.4元，較招股價高出14.1%，每手200股帳面盈利480元。此次IPO集資淨額為6.1億元，公開發售部分超額認購13倍。佑駕創新表示，所得款項淨額將主要用於提升研發能力、生產效率、銷售和營銷能力，以及補充營運資金。</t>
+  </si>
+  <si>
+    <t>佑駕創新（02431）首日掛牌，開報18.6元，較招股定價17元高9.4%，收報19.4元，高招股價14.1%，一手帳面賺480元。集資淨額6.1億元，一手中籤率50%，香港公開發售部分超額認購13倍。所得款項淨額約40%將用於提升研發能力，30%用於提升生產效率，20%用於加強銷售和營銷能力，10%作營運資金。</t>
+  </si>
+  <si>
+    <t>佑駕創新、IPO、新股、香港交易所、首掛、智能駕駛、艙內解決方案、招股價、集資、超額認購、研發、生產效率、銷售營銷、營運資金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">首日掛牌表現亮眼，股價大幅高於招股價，投資者反應熱烈。
+集資額充足，可支持公司未來發展和擴張。
+公開發售部分超額認購倍數高，顯示市場對公司前景看好。
+公司業務聚焦於高速增長的智能駕駛和艙內解決方案領域。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">公司規模相對較小，盈利能力仍有待進一步提升。
+智能駕駛行業競爭激烈，公司面臨來自其他競爭者的壓力。
+公司的研發能力和產品競爭力仍需持續提升。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">智能駕駛和艙內解決方案市場持續擴大，公司具有巨大的發展空間。
+可以通過技術創新和產品升級，提升市場競爭力。
+可以通過戰略合作和併購，擴大業務規模和市場份額。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">行業政策調整或市場需求下滑，可能影響公司發展。
+技術更新迭代速度快，公司需持續投入研發才能保持競爭力。
+其他競爭者可能推出更具競爭力的產品，搶佔市場份額。
+</t>
+  </si>
+  <si>
+    <t>社會福利署署長李佩詩明年2月改任房屋署署長兼房屋局常秘財經新聞Financial News</t>
+  </si>
+  <si>
+    <t>https://www.aastocks.com/share/news/aafn/NOW.1406496?l=chi</t>
+  </si>
+  <si>
+    <t>AASTOCKS.com政府宣布一系列高層官員任命，現任社會福利署署長李佩詩將於2025年2月4日起出任房屋局常任秘書長及房屋署署長，而社會福利署署長的職務將由現任教育局副秘書長杜永恒於...20 小時前</t>
+  </si>
+  <si>
+    <t>http://www.aastocks.com/tc/stocks/news/aafn-con/NOW.1406496/latest-news</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:23:30</t>
+  </si>
+  <si>
+    <t>《港樓》中原城市領先指數(CCL)按周跌0.73% 創12周最大跌幅</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E6%B8%AF%E6%A8%93-%E4%B8%AD%E5%8E%9F%E5%9F%8E%E5%B8%82%E9%A0%98%E5%85%88%E6%8C%87%E6%95%B8-ccl-%E6%8C%89%E5%91%A8%E8%B7%8C0-73-080057176.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經中原城市領先指數(CCL)最新報137.15點，按周跌0.73%，跌幅為12周以來最大。中原地產研究部高級聯席董事楊明儀指，本周數據是反映11月26日特朗普威脅明年1月上任後將簽署...20 小時前</t>
+  </si>
+  <si>
+    <t>.中原城市領先指數(CCL)最新報137.15點，按周跌0.73%，跌幅為12周以來最大。中原地產研究部高級聯席董事楊明儀指，本周數據是反映11月26日特朗普威脅明年1月上任後將簽署行政命令，加徵中國進口貨物關稅的次周，及12月4日金管局推出樓花住宅物業按揭貸款一次性特別安排當周的市況。今周為9月首次減息後的第12周，期間CCL七升五跌，較減息前低位135.86點僅升0.95%。早前減息後，CCL最多曾累升2.16%，惟二手交投持續淡靜，樓價上升動力不足，升幅逐步收窄至少於1%。CCL連續八周於138點上下徘徊，短期走勢繼續反覆爭持未變。
+CCL仍處於逾8年低位，在2016年9月中水平徘徊，2024年樓價暫時累跌6.83%。指數較2021年8月191.34點歷史高位跌28.32%，較2024年3月撤辣前的低位143.02點跌4.10%。12月25至26日聖誕節長假期，對本地二手樓價的影響將於2025年1月中旬公布的CCL才開始反映。
+以今日(27日)計，2024年全年CCL累跌6.83%，CCL Mass跌6.85%，CCL(中小型單位)跌6.7%，CCL(大型單位)跌7.48%，港島跌6.4%，九龍跌6.74%，新界東跌7.71%，新界西跌6.67%。
+(sl/da)~ 阿思達克財經新聞 網址: www.aastocks.com
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:23:51</t>
+  </si>
+  <si>
+    <t>中原城市領先指數(CCL)最新報137.15點，按周跌0.73%，跌幅為12周以來最大，反映了美國前總統特朗普威脅加徵中國進口貨物關稅以及香港金管局推出樓花住宅物業按揭貸款一次性特別安排等因素的影響。儘管9月香港首次減息後，CCL曾累升2.16%，但二手樓市交投持續淡靜，樓價上升動力不足，升幅收窄。CCL連續八周在138點上下徘徊，短期走勢反覆。2024年全年CCL累跌6.83%，較2021年歷史高位下跌28.32%。聖誕節長假期的影響將在2025年1月中旬公布的CCL中反映。</t>
+  </si>
+  <si>
+    <t>中原城市領先指數(CCL)最新報137.15點，按周跌0.73%，跌幅為12周以來最大。中原地產研究部高級聯席董事楊明儀指，本周數據是反映11月26日特朗普威脅明年1月上任後將簽署行政命令，加徵中國進口貨物關稅的次周，及12月4日金管局推出樓花住宅物業按揭貸款一次性特別安排當周的市況。2024年全年CCL累跌6.83%，較2021年8月191.34點歷史高位跌28.32%。</t>
+  </si>
+  <si>
+    <t>中原城市領先指數(CCL)、香港樓市、樓價、減息、特朗普、關稅、金管局、樓花、按揭貸款、二手樓市、交投、聖誕節</t>
+  </si>
+  <si>
+    <t xml:space="preserve">數據來自中原地产，具有一定的權威性。
+分析考慮了多重因素，例如美國政策和香港本地政策，比較全面。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">僅針對香港樓市，缺乏更廣泛的經濟數據支持。
+對未來樓市走勢的預測較為籠統，缺乏具體的數據支持。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以進一步分析不同地區、不同類型房屋的價格變化趨勢。
+可以結合其他經濟指標，例如利率、通脹等，更深入地分析香港樓市走勢。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">數據可能受到外部因素影響，例如突發事件或政策變化。
+分析可能存在主觀性，需要更客觀的數據支持。
+</t>
+  </si>
+  <si>
+    <t>研報掘金丨東吳證券：寧德時代擬港股上市搭建海外融資平台，維持“買入”評級</t>
+  </si>
+  <si>
+    <t>http://www.aastocks.com/tc/stocks/analysis/china-hot-topic-content.aspx?id=GLH1800653L&amp;source=GLH&amp;catg=4</t>
+  </si>
+  <si>
+    <t>AASTOCKS.com12月27日｜東吳證券研報指出，寧德時代(300750.SZ)為進一步推進公司全球化戰略佈局，打造國際化資本運作平台，提高綜合競爭力，公司擬發行H股股票並申請在香港聯交所主板...21 小時前</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:23:52</t>
+  </si>
+  <si>
+    <t>理想稱未來肯定研發機械人 料2030年或推AI跑車</t>
+  </si>
+  <si>
+    <t>https://www.singtao.ca/6988864/2024-12-26/news-%E7%90%86%E6%83%B3%E7%A8%B1%E6%9C%AA%E4%BE%86%E8%82%AF%E5%AE%9A%E7%A0%94%E7%99%BC%E6%A9%9F%E6%A2%B0%E4%BA%BA+%E6%96%992030%E5%B9%B4%E6%88%96%E6%8E%A8AI%E8%B7%91%E8%BB%8A/?variant=zh-hk</t>
+  </si>
+  <si>
+    <t>singtao.ca理想汽車（2015）創辦人李想近日在2024理想AI Talk上表示，未來肯定會研發人形機械人，又指2030年50%概率推AI跑車。 理想今早股價一度升7.3% ......22 小時前</t>
+  </si>
+  <si>
+    <t>.理想稱未來肯定研發機械人 料2030年或推AI跑車
+理想汽車（2015）創辦人李想近日在2024理想AI Talk上表示，未來肯定會研發人形機械人，又指2030年50%概率推AI跑車。
+理想今早股價一度升7.3%，最高見101.6元。
+人工智能是造車必經之路
+據內媒報道，李想在訪談中表示，AI對於理想汽車意味著全部，「造車肯定是要造的，電動化是上半場，智能化是下半場」，他指智能化不是傳統的軟件智能，而是真正的人工智能，是造車往下延續的一個必經之路。他表示，「可能到2030年的時候，我們會有50%的概率做一輛非常有趣的超級跑車，但它一定是人工智能的跑車。」
+美國電動車龍頭Tesla正在研發人形機械人，對於會否研發，李想說：「概率上肯定是100%（會做），但節奏不是現在。如果我們連L4級跟自動駕駛的汽車都解決不了，怎麽去解決更複雜的（問題）。」他指，車是個無接觸機器人，而且道路是標準化的，包括道路上的提示和參與者都是標準化的，而且每個人都受交通規則的訓練，「我覺得這已經是最簡單的機器人了，如果車沒法實現，其實其他人工智能機器人，還是非常有限的。」
+冀成領先的人工智能企業
+至於會否仿傚Tesla研發無人駕駛的士，李想則表示不想做，「因為我們的使命是創造移動的家，創造幸福的家」。他說當汽車可以實現L4級自動駕駛功能後，家庭用車也會變得更便宜，成本變得更低，而願意擁有一輛車的人會變得更多。
+李想表示，理想是一家人工智能企業，其要做的不是汽車的智能化，而是人工智能的汽車化，並將推動人工智能普惠到每一個家庭，「我們的LOGO一直沒有把汽車兩個字寫上去，甚至今天我們的運營公司還是叫北京車和家信息技術有限公司。但是硬件對我們非常重要，如果講我們的願景的話，一個更完整的稱呼方式應該是連接物理世界和數字世界，從而能夠成為領先的人工智能企業。」</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:24:15</t>
+  </si>
+  <si>
+    <t>理想汽車創辦人李想在2024理想AI Talk上表示，未來肯定會研發人形機器人，並預計2030年有50%的概率推出AI跑車。他認為AI是造車的必經之路，理想汽車的目標是成為領先的人工智能企業，而非僅僅是汽車公司。他強調理想汽車將致力於人工智能的汽車化，並將其普惠到每一個家庭。雖然目前聚焦於L4級自動駕駛的研發，但未來研發人形機器人和AI跑車是必然趨勢。</t>
+  </si>
+  <si>
+    <t>理想汽車創辦人李想表示，未來肯定會研發人形機械人，2030年有50%概率推出AI跑車。他認為AI是造車必經之路，理想汽車目標是成為領先的人工智能企業，致力於人工智能的汽車化，推動人工智能普惠到每一個家庭。「可能到2030年的時候，我們會有50%的概率做一輛非常有趣的超級跑車，但它一定是人工智能的跑車。」「如果我們連L4級跟自動駕駛的汽車都解決不了，怎麽去解決更複雜的（問題）。」「我們的LOGO一直沒有把汽車兩個字寫上去，甚至今天我們的運營公司還是叫北京車和家信息技術有限公司。」</t>
+  </si>
+  <si>
+    <t>理想汽車、李想、AI、人工智能、人形機器人、AI跑車、自動駕駛、L4級自動駕駛、電動車、智能化、北京車和家信息技術有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李想對AI技術的重視和未來規劃，展現了理想汽車在科技領域的野心和遠見。
+強調人工智能的汽車化，而非僅僅是汽車的智能化，定位清晰。
+將人工智能普惠到每一個家庭的願景，具備社會責任感和市場前景。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">目前仍聚焦於L4級自動駕駛，人形機器人和AI跑車的研發仍處於規劃階段，存在不確定性。
+研發人形機器人和AI跑車的技術難度高，需要大量的資金和人才投入。
+市場競爭激烈，特斯拉等公司在AI領域已具備先發優勢。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">抓住AI技術發展的機遇，搶佔未來智能汽車市場的先機。
+通過研發人形機器人和AI跑車，提升品牌形象和市場影響力。
+拓展人工智能在其他領域的應用，實現多元化發展。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI技術發展的不確定性，可能導致研發投入的風險。
+其他科技公司的激烈競爭，可能影響理想汽車的市場份額。
+政策法規的限制，可能影響相關產品的上市和應用。
+</t>
+  </si>
+  <si>
+    <t>蘋果連5周漲逾2% 2010年來首見 市值叩關4兆美元 分析師：小心1月回報</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E8%98%8B%E6%9E%9C%E9%80%A35%E5%91%A8%E6%BC%B2%E9%80%BE2-2010%E5%B9%B4%E4%BE%86%E9%A6%96%E8%A6%8B-%E5%B8%82%E5%80%BC%E5%8F%A9%E9%97%9C4%E5%85%86%E7%BE%8E%E5%85%83-%E5%88%86%E6%9E%90%E5%B8%AB-%E5%B0%8F%E5%BF%831%E6%9C%88%E5%9B%9E%E5%A0%B1-040441926.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經Wedbush 分析師Dan Ives 周四(26 日) 報告，蘋果(AAPL-US) 正處於人工智慧推動的「黃金增長時期」尖端上，他將其目標價自300 美元上調至325 美元，並維持該股「跑贏大盤」...23 小時前</t>
+  </si>
+  <si>
+    <t>.在這篇文章中:
+Wedbush 分析師 Dan Ives 周四 (26 日) 報告，蘋果 (AAPL-US) 正處於人工智慧推動的「黃金增長時期」尖端上，因此 Ives 將蘋果的目標股價自 300 美元上調至 325 美元，並維持該股「跑贏大盤」評級，這是華爾街的最高預測。
+相較之下，FactSet 分析師平均預測為 248.14 美元，低於該公司周四收盤價 259.02 美元。蘋果股票今年上漲了 35%，令公司市值接近 4 兆美元，引發市場擔憂。
+Ives 指出，蘋果即將迎來 AI 驅動的、多年的 iPhone 升級周期，但市場目前仍低估此點。蘋果 12 月 11 日發布最新 iPhone 操作系統 Cupertino 18.2，該系統新增了 AI 表情符號生成和 Siri 中的 ChatGPT 整合等功能，深獲 Ives 認可，他預測，蘋果將推出數百個 app，這些 app 將成為每年數十億美元的收入來源。
+截至周四，蘋果的市值為 3.92 兆美元，若要達到 4 兆美元的里程碑，股價需在 264.623 美元以上收盤。分析師認為，蘋果的服務業務價值已達 2 兆美元，有望突破 4 兆美元的市值門檻，成為「4 兆美元俱樂部的大元老」。
+此外，Wedbush 預測，蘋果在 2025 財年有望銷售超過 2.4 億部 iPhone，創下公司歷史新高。分析師指出，僅在中國就有 1 億部 iPhone 處於升級的窗口期。
+然而，並非所有分析師對蘋果的近期增長持樂觀態度。BTIG 的策略師 Johnathan Krinsky 警告，蘋果股票上周上漲 2.6%，這是自 2010 年以來首次連續五周增長 2% 以上，這可能為明年一月帶來挑戰。他建議投資者在進入明年時應保持謹慎，並認為一個月的遠期回報對蘋果來說「相當負面」。
+隨著蘋果再次成為全球最有價值的公司，市場將密切關注其未來的表現。
+更多鉅亨報導 •傳蘋果正開發可折疊iPhone與iPad 美媒：iPhone折疊機最快2026年上市 •路透：蘋果正與騰訊、字節跳動談判 在中國引入AI
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:24:36</t>
+  </si>
+  <si>
+    <t>Wedbush分析師Dan Ives將蘋果目標股價上調至325美元，並維持「跑贏大盤」評級，認為蘋果正處於AI驅動的「黃金增長時期」。Ives預測蘋果將迎來數年iPhone升級周期，並推出數百個AI應用程式，帶來數十億美元收入。蘋果服務業務價值已達2兆美元，有望突破4兆美元市值。Wedbush預測蘋果2025財年iPhone銷售量將超過2.4億部。然而，也有分析師對蘋果近期增長持謹慎態度，認為連續五周增長可能導致明年一月出現挑戰。</t>
+  </si>
+  <si>
+    <t>Wedbush分析師Dan Ives將蘋果目標股價自300美元上調至325美元，維持「跑贏大盤」評級，認為蘋果處於AI驅動的「黃金增長時期」。Ives預測蘋果將推出數百個AI應用程式，帶來數十億美元收入，並迎來數年iPhone升級周期。蘋果服務業務價值已達2兆美元，有望突破4兆美元市值。Wedbush預測蘋果2025財年iPhone銷售量將超過2.4億部，中國市場有1億部iPhone處於升級窗口期。然而，BTIG策略師Johnathan Krinsky警告，蘋果股票連續五周增長可能為明年一月帶來挑戰。</t>
+  </si>
+  <si>
+    <t>蘋果、目標股價、AI、人工智慧、iPhone、升級周期、應用程式、服務業務、市值、銷售量、Wedbush、BTIG、分析師、投資</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI驅動的iPhone升級周期帶來長期增長潛力。
+新AI應用程式預計帶來數十億美元收入。
+服務業務價值高，市值有望突破4兆美元。
+iPhone銷售量預計創下歷史新高。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">市場對蘋果高市值存在擔憂。
+部分分析師對近期增長持謹慎態度，認為可能面臨調整。
+市場競爭激烈，需持續創新。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI技術應用帶來更多創新產品和服務。
+全球市場對高品質電子產品需求持續存在。
+進一步拓展服務業務，提升盈利能力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全球經濟下行風險影響消費電子產品需求。
+競爭對手推出具競爭力的產品。
+地緣政治風險影響供應鏈和銷售。
+</t>
+  </si>
+  <si>
+    <t>寧德時代官宣 為全球化戰略佈局籌畫發行H股並赴港上市 | 兩岸 | 20241227 | 即時新聞 | 翻報</t>
+  </si>
+  <si>
+    <t>https://turnnewsapp.com/livenews/chinav3/20241227002069-260409</t>
+  </si>
+  <si>
+    <t>翻爆大陸電池巨頭寧德時代26日晚間公告，為進一步推進公司全球化戰略佈局，打造國際化資本運作平台，提高綜合競爭力，公司擬發行境外上市外資股（H股）股票，並申請在香港聯合交易...24 小時前</t>
+  </si>
+  <si>
+    <t>.寧德時代官宣 為全球化戰略佈局籌畫發行H股並赴港上市
+大陸電池巨頭寧德時代26日晚間公告，為進一步推進公司全球化戰略佈局，打造國際化資本運作平台，提高綜合競爭力，公司擬發行境外上市外資股（H股）股票，並申請在香港聯合交易所主機板掛牌上市。此次寧德時代在港上市，或將成為2021年初快手科技募集62億美元以來的最大一次香港股票發行交易。
+寧德時代說明，將充分考慮現有股東的利益和境內外資本市場的情況，在股東大會決議有效期內（經公司股東大會審議通過日起18個月或同意延長期限下），選擇適當時機和發行機會完成並上市。
+根據《21世紀經濟報導》引述某券商電新分析師指出，寧德時代上市的動因包括海外擴產急需用錢，以及在A股募資的進展可能緩慢等，「因為A股監管的原因，上市週期有點長，所以大家去H股了。」
+進一步來說，赴港上市可以幫助企業獲得更多的資金支持，滿足研發創新和國際化發展的需求並且豐富融資管道。同時在港上市可接觸到大型國際投資機構，改善企業股東結構、公司治理、滿足公司全球化發展的需要等。
+從寧德時代2024年第3季財報顯示營收為922.78億元（人民幣，下同）、較上年同期下降12.48％，前3季累計營收2590.45億元、年減12.09％。但第3季淨利潤131.36億元、年增25.97％，前3季累計淨利潤360.01億元、年增率15.59％。
+另據中國汽車動力電池產業創新聯盟發佈的最新資料，儘管寧德時代11月仍穩坐大陸國內動力電池裝車榜首，市占率42.71％，但單月數據有所下滑，且是寧德時代連續第4個月市占率出現下滑，共下滑4.58個百分點，再創下年內市占率新低。
+更多即時新聞
+社評／晶片戰爭 台灣的最佳利益
+亞塞拜然客機 疑遭俄飛彈擊落
+王毅喊話川普政府 相向而行
+日媒：王毅明年2月訪日 睽違4年</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:24:56</t>
+  </si>
+  <si>
+    <t>中國電池巨頭寧德時代宣佈將發行H股並在香港聯合交易所主板上市，以推進全球化戰略，提升國際競爭力，並獲得更多資金支持研發和國際化發展。儘管寧德時代第三季度營收下降，但淨利潤增長，且仍然穩坐大陸動力電池裝車榜首，但市佔率連續四個月下滑。分析指出，寧德時代赴港上市的動因包括海外擴產的資金需求以及A股募資的緩慢進展。</t>
+  </si>
+  <si>
+    <t>寧德時代公告擬發行H股，在香港聯合交易所主板上市，推進全球化戰略，提高競爭力。此舉或將成為2021年以來香港最大股票發行交易。寧德時代將考慮現有股東利益和市場情況，選擇適當時機上市。分析師指出，上市動因包括海外擴產資金需求和A股募資緩慢。赴港上市可獲得更多資金，改善股東結構，滿足全球化發展需要。寧德時代第三季度營收下降12.48%，但淨利潤增長25.97%。儘管仍為大陸動力電池裝車榜首，但市佔率連續四個月下滑。</t>
+  </si>
+  <si>
+    <t>寧德時代，H股，香港上市，全球化戰略，國際化，資本運作，競爭力，資金支持，研發，海外擴產，A股，融資，營收，淨利潤，動力電池，市佔率，香港聯合交易所</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寧德時代是全球領先的電池製造商，擁有雄厚的技術實力與品牌知名度。
+香港資本市場成熟，能為寧德時代提供更廣闊的融資渠道和更國際化的投資者群體。
+此次上市有助於提升寧德時代的國際影響力，促進其全球化發展戰略。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寧德時代近期營收下滑，市佔率也有所下降，這可能會影響投資者的信心。
+香港資本市場受國際局勢影響較大，存在一定的風險。
+與其他國際電池巨頭的競爭日益激烈。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">獲得大量資金，支持海外擴產和研發投入，鞏固市場領先地位。
+吸引國際投資者，優化股東結構，提升公司治理水平。
+提升品牌形象和國際影響力，拓展海外市場。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全球經濟下行風險，以及新能源汽車市場增速放緩。
+競爭對手的技術突破和市場搶佔。
+監管政策變化和地緣政治風險。
+</t>
+  </si>
+  <si>
+    <t>《大陸產業》寧德時代宣布赴港二次上市</t>
+  </si>
+  <si>
+    <t>https://ww2.money-link.com.tw/RealtimeNews/NewsContent.aspx?SN=5694302001&amp;PU=0010</t>
+  </si>
+  <si>
+    <t>富聯網【時報-台北電】大陸動力電池龍頭寧德時代26日晚間公告稱，計劃發行離岸H股，並申請在香港聯合交易所主板掛牌上市，以進一步推進公司全球化戰略布局，打造國際化資本運作...2 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+【時報-台北電】大陸動力電池龍頭寧德時代26日晚間公告稱，計劃發行離岸 H股，並申請在香港聯合交易所主板掛牌上市，以進一步推進公司全球化戰略布局，打造國際化資本運作平台，並提高綜合競爭力。外媒指出，寧德時代可能集資至少50億美元，將成為2021年初快手科技集資62億美元以來，港股最大的上市交易，預料最快2025年上半年上市。　寧德時代2024年在大陸A股的股價曾一度跌至人民幣（下同）140.75元，隨後緩步上漲，高點曾來到299元；27日股價上漲0.29％，收報262元。　綜合陸媒27日報導，寧德時代董事會26日已批准赴香港二次上市的計畫，但仍須獲得2025年1月中旬股東大會批准，並通過大陸證監會等監管機構的審批，其他上市細節則尚未最終確定。寧德時代2018年透過首次公開募股（IPO），在深交所上市。　寧德時代指出，赴港上市所得資金將用於進一步拓展國際業務，推進海外項目建設，「香港上市將推動我們的全球業務擴張，以及海外電池工廠的興建，包括匈牙利工廠，以及和斯泰蘭蒂斯（Stellantis）在西班牙的合資企業，以便滿足市場和客戶的需求。」(新聞來源 : 工商時報一張漢驊／綜合報導)
+</t>
+  </si>
+  <si>
+    <t>2024-12-28 15:08:29</t>
+  </si>
+  <si>
+    <t>中國動力電池龍頭寧德時代計劃在香港聯合交易所主板二次上市，發行離岸H股，以推進全球化戰略、打造國際化資本運作平台並提升競爭力。預計集資至少50億美元，將成為2021年快手科技以來港股最大上市交易，最快2025年上半年上市。  此次上市所得資金將主要用於拓展國際業務及海外項目建設，例如匈牙利工廠和與斯泰蘭蒂斯在西班牙的合資企業。</t>
+  </si>
+  <si>
+    <t>寧德時代計劃發行離岸H股，在香港聯合交易所主板掛牌上市，推進全球化戰略，提高綜合競爭力。可能集資至少50億美元，將成為2021年初快手科技以來港股最大上市交易，預料最快2025年上半年上市。上市所得資金將用於拓展國際業務，推進海外項目建設，包括匈牙利工廠和與斯泰蘭蒂斯在西班牙的合資企業。</t>
+  </si>
+  <si>
+    <t>寧德時代、香港上市、H股、二次上市、全球化、國際化、資本運作、動力電池、電動車電池、集資、50億美元、匈牙利工廠、斯泰蘭蒂斯、西班牙、海外投資</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寧德時代是全球領先的動力電池生產商，擁有強大的技術實力和市場份額。
+香港資本市場成熟，有利於寧德時代獲得更多資金支持。
+二次上市可以提升寧德時代的國際知名度和品牌形象。
+集資所得資金可以支持其全球化戰略和海外項目建設。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赴港上市需要經過一系列審批程序，存在不確定性。
+全球經濟下行壓力加大，投資市場存在風險。
+香港資本市場競爭激烈，需要面對其他競爭對手的挑戰。
+美國對中國企業的監管政策可能造成影響。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">獲得更多資金支持，擴大生產規模和研發能力。
+加快國際化進程，拓展海外市場，提升全球競爭力。
+吸引更多國際投資者，提升公司估值。
+利用香港平台，更容易與國際產業鏈合作。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全球電動車市場競爭激烈，存在價格戰的風險。
+原材料價格波動可能影響公司盈利能力。
+地緣政治風險和國際貿易摩擦可能影響公司發展。
+監管政策變化可能對公司產生不利影響。
+</t>
+  </si>
+  <si>
+    <t>〈熱門股〉台光電獲外資連買20天創新天價630元周漲5.7%</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E7%86%B1%E9%96%80%E8%82%A1-%E5%8F%B0%E5%85%89%E9%9B%BB%E7%8D%B2%E5%A4%96%E8%B3%87%E9%80%A3%E8%B2%B720%E5%A4%A9%E5%89%B5%E6%96%B0%E5%A4%A9%E5%83%B9630%E5%85%83%E5%91%A8%E6%BC%B25-7-024004952.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經高階基材(CCL) 廠商台光電(2383-TW) 在獲外資連續買超20 個交易日，等於是2024 年12 月以來天天買超，12 月買超張數達2 萬9360 張，累計持股比例已達33.7% 新高，27 日股價...4 小時前</t>
+  </si>
+  <si>
+    <t>.高階基材 (CCL) 廠商台光電 (2383-TW) 在獲外資連續買超 20 個交易日，等於是 2024 年 12 月以來天天買超，12 月買超張數達 2 萬 9360 張，累計持股比例已達 33.7% 新高，27 日股價以 630 元創新天價，周漲 5.7%。
+台光電 2024 年前三季營收及稅後純益都已超過公司史上的任何年度，前三季稅後純益 69.31 億元，年增 97.87%，每股純益 20.14 元，並將投資百億元在台擴廠，在產品因 AI 及低軌衛星需求推升市況交易火熱，加上積極投資擴產兩岸及馬來西亞廠產能，更讓法人聯袂加碼。
+台光電除既定 2025 年馬來西亞廠增加 60 萬張月產能，2026 年中山廠增加 60 萬張的月產能外，黃石廠再增購設備在現有廠內添加 30 萬張月產能，預計在 2025 第二季末開始量產，2025 年將增加約 20% 的產能，2026 年增加約 15% 產能，為全球及本地客戶提供服務。
+台光電股價 27 日股價以 630 元創新天價，周漲 5.7%，也突破經 10 個交易日以來的平台整理區，KD 交叉向上，技術線型有利多方，將挑戰外資券商 10 月間提出的 654 元目標價位。
+更多鉅亨報導 •台光電前三季EPS 20.14元賺贏歷來全年度 並將投資百億在台擴廠 •台光電10月營收58.18億元改寫歷史次高 年增33.78%
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 15:08:49</t>
+  </si>
+  <si>
+    <t>台光電(2383-TW)近期股價創新高，主要受惠於AI和低軌衛星需求帶動的高階基材(CCL)市場火熱，以及公司積極擴產的利多消息。外資連續買超20個交易日，持股比例達33.7%新高。台光電2024年前三季營收及稅後純益均創歷史新高，並將投資百億元在台擴廠，預計2025年和2026年產能將分別增加約20%和15%。法人看好台光電後市，目標價上看654元。</t>
+  </si>
+  <si>
+    <t>台光電(2383-TW)獲外資連續買超20個交易日，股價創新天價630元，周漲5.7%。前三季稅後純益69.31億元，年增97.87%，每股純益20.14元。將投資百億元在台擴廠，2025年將增加約20%產能，2026年增加約15%產能。技術線型有利多方，將挑戰654元目標價位。</t>
+  </si>
+  <si>
+    <t>台光電、CCL、高階基材、AI、低軌衛星、外資買超、擴產、營收、獲利、股價、目標價、產能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI及低軌衛星需求強勁，帶動CCL產品市況火熱。
+公司積極擴產，提升產能滿足市場需求。
+2024年前三季營收及獲利創下歷史新高，展現強勁的基本面。
+外資持續加碼，展現市場信心。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCL產業競爭激烈，可能面臨價格壓力。
+擴產投資風險，包含資金壓力以及產能利用率的挑戰。
+全球經濟下行風險，可能影響終端產品需求。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">持續拓展AI、低軌衛星等高附加價值市場。
+技術研發提升產品競爭力。
+積極布局海外市場，擴大營收規模。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">主要客戶需求變動風險。
+原材料價格波動。
+地緣政治風險及國際貿易摩擦。
+</t>
+  </si>
+  <si>
+    <t>〈熱門股〉達運光電受惠北美電視業者升級 股價勁揚周漲逾一成</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E7%86%B1%E9%96%80%E8%82%A1-%E9%81%94%E9%81%8B%E5%85%89%E9%9B%BB%E5%8F%97%E6%83%A0%E5%8C%97%E7%BE%8E%E9%9B%BB%E8%A6%96%E6%A5%AD%E8%80%85%E5%8D%87%E7%B4%9A-%E8%82%A1%E5%83%B9%E5%8B%81%E6%8F%9A%E5%91%A8%E6%BC%B2%E9%80%BE-%E6%88%90-013003984.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經網通廠達運光電(8045-TW) 受惠於明年美國市場電視業者，正將傳輸技術從1.2G 提升至1.8G，展望明年樂觀，激勵本周股價勁揚，27 日收75.1 元，漲10.4%，成交量784 張。5 小時前</t>
+  </si>
+  <si>
+    <t>.網通廠達運光電 (8045-TW) 受惠於明年美國市場電視業者，正將傳輸技術從 1.2G 提升至 1.8G，展望明年樂觀，激勵本周股價勁揚，27 日收 75.1 元，周幅漲 10.4%，成交量 784 張。
+達運光電於今年 12 月 11 日掛牌上市，主要產品為光發射接收器、寬頻射頻（RF）幹線、橋接及延伸、客戶端放大器等，智慧訊號管控模組、光纖放大器，並以「ACI」自有品牌在北美市場與與思科（Cisco）、ATX 等大廠競爭，且為亞洲唯一通過北美系統業者認證的廠商，市占率已從 3-5% 提升至 10%，力拚 3 年內提升到市佔率 20 %。
+達運光電日前指出，美國市場正從 1.2G 升級至 1.8G 技術，預計明年第一季可望重啟大量出貨，對於 2025 年營運樂觀，有望挑戰 2023 年全年營收 23 億元的水準。
+達運光電今年前三季營收達新台幣 13.87 億元，稅後淨利 1.67 億元，每股盈餘 2.05 元。
+根據 Statista 市調數據，綜合分析電信及有線電視寬頻網際網路市場發展，高頻寬需求的使用者，2020 至 2024 年期間平均年成長率約 8% 左右。
+更多鉅亨報導 •達運光電搶攻智慧聯網商機 亞洲唯一獲北美認證寬頻放大器廠 •達運光電今掛牌上市 鎖定AI、IoT商機切入北美寬頻市場
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 15:09:10</t>
+  </si>
+  <si>
+    <t>達運光電(8045-TW)受惠於美國市場電視業者明年將傳輸技術從1.2G提升至1.8G，預計明年第一季重啟大量出貨，營運展望樂觀，有望挑戰2023年全年營收23億元。達運光電為亞洲唯一通過北美系統業者認證的寬頻放大器廠商，市占率已從3-5%提升至10%，目標3年內提升至20%。今年前三季營收達13.87億元，稅後淨利1.67億元，每股盈餘2.05元。  高頻寬需求的使用者，2020至2024年期間平均年成長率約8%。</t>
+  </si>
+  <si>
+    <t>達運光電受惠美國市場電視業者明年將傳輸技術從1.2G提升至1.8G，明年第一季可望重啟大量出貨，2025年營運樂觀，有望挑戰2023年全年營收23億元。達運光電為亞洲唯一通過北美系統業者認證的廠商，市占率已從3-5%提升至10%，目標3年內提升至20%。今年前三季營收13.87億元，稅後淨利1.67億元，每股盈餘2.05元。高頻寬需求使用者，2020至2024年平均年成長率約8%。</t>
+  </si>
+  <si>
+    <t>達運光電、8045-TW、光發射接收器、寬頻射頻(RF)、光纖放大器、ACI、思科(Cisco)、ATX、北美市場、市占率、1.2G、1.8G、營收、淨利、每股盈餘、高頻寬需求</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亞洲唯一通過北美系統業者認證，具備技術優勢和品牌信任度。
+市占率持續提升，顯示產品競爭力強。
+美國市場升級帶來的龐大商機。
+財務狀況良好，營收和獲利穩定成長。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">市占率仍有提升空間，距離目標20%仍需努力。
+高度依賴美國市場，市場風險較高。
+競爭對手眾多，市場競爭激烈。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美國市場1.2G升級至1.8G的趨勢，帶來大量訂單。
+拓展其他市場，降低對單一市場的依賴。
+研發創新產品，提升競爭力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美國市場需求變化，例如升級速度放緩或需求下降。
+競爭對手推出更具競爭力的產品。
+全球經濟下行風險。
+</t>
+  </si>
+  <si>
+    <t>爆一爆｜2024聖誕明星股 博通CEO最叻睇全相（Louise）</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E7%88%86%E4%B8%80%E7%88%86%EF%BD%9C2024%E8%81%96%E8%AA%95%E6%98%8E%E6%98%9F%E8%82%A1-%E5%8D%9A%E9%80%9Aceo%E6%9C%80%E5%8F%BB%E7%9D%87%E5%85%A8%E7%9B%B8%EF%BC%88louise%EF%BC%89-233054511.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經聖誕節同老友開party，離不開講下股票經。 記得2022年聖誕節，老友在加拿大的banker力薦微軟（MSFT）當時股價在$250美元左右，食住ChatGPT及Open AI 等概念升足兩年，今年7月...8 小時前</t>
+  </si>
+  <si>
+    <t>.在這篇文章中:
+聖誕節同老友開party，離不開講下股票經。
+記得2022年聖誕節，老友在加拿大的banker力薦微軟（MSFT）當時股價在$250美元左右，食住ChatGPT及Open AI 等概念升足兩年，今年7月升至$467美元。
+下載Yahoo財經APP
+美股外幣即時報價 多國新聞任睇
+今年聖誕投資主題係......
+2023年聖誕，英偉達 Nivdia（NVAD）仍未1拆10，股價在四百多美元左右，已有朋友賺到錢，請食$6000一隻的 Robuchon 火雞到會。
+到了2024年聖誕節，主題是 Broadcom 博通（AVGO）此半導體股。記得今年10月在一個飯局上，一位熟悉星加坡股票市場嘅香港股壇高人，巳重點押注此股，早前公司公佈業績後井噴式爆升，風頭蓋過英偉達（NVDA），佢一手都係大客，估計包括 Google、Meta、Tik Tok。而公司嘅靈魂人物就係陳福陽（Hock E. Tan）呢位CEO，佢係馬來西亞出生的華人，張沙紙履歷靚爆燈，美國麻省理工讀工程又有哈佛MBA，早年係美國巨企通用汽車（GM）及百事可樂（PEP）等公司浸過，專責財務，可以講係神級嘅職業CEO。
+今次睇到佢最「耍家」嘅係9月份去睇身陷困境嘅英特爾（INTC）全相，但最終唔落叠，近日更清晰表明「無興趣」收購。小妹有位闊佬朋友正正係睇中呢位 CEO 夠挑通眼眉，亦見 smart money 由英偉達（NVDA）換碼到博通（AVGO），於是用佢來做「膽」透過 accumulator 及 zero cost 等衍生工具去搏一鋪。
+揀股票 睇數字仲要睇人品
+小妹睇股票，除咗數字以外，都好着重主事人嘅質地及人品，博通CEO陳福陽今年71歲，老婆 Lisa Yang 是投資銀行家，二人係哈佛1979年 MBA 同學，可謂美國頂尖精英，兩公婆可謂天作之合，但呢個世界邊有咁完美呢？
+有時天意弄人，原來佢地育有三名孩子，但兩個都患有嚴重自閉症（Autism），在醫療照顧上需大量投入；其實香港都有好些富豪及濶太，仔女也有天生的殘障 ，但就甚少公開甚至收埋唔俾人知。而博通CEO陳福陽多次蟬聯美國最高薪CEO，去年人工就有$1.61美元（折合$12.6億港元），估計今年更加和味。
+查究之下陳福陽2006年就獲得公司批出235萬股認股權證，而行使價只係$5美元，以現價計佢手頭股票即是冇乜成本，外媒估計佢身家起碼有$13.9億美元（折合$108億港元）。 2019年陳福陽兩公婆向母校哈佛醫學院捐$2000萬美元作為研究嚴重自閉症的資助。
+相反英偉達嘅CEO黃仁勳就俾《紐約時報》踢爆將份身家放入去信託基金來避稅$80億美元，觀乎外媒對黃仁勳的批判，英偉達（NVDA）一股獨大的局面已樹大招風了。畢竟71歲的陳福陽已退休之年，而61歲的黃仁勳仍野心勃勃，不能同日而語。
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 15:09:30</t>
+  </si>
+  <si>
+    <t>文章以輕鬆的口吻，描述作者及其朋友在過去幾年聖誕節期間，因投資股票而獲得的收益，並分享了他們對微軟(MSFT)、輝達(NVDA)和博通(AVGO)等股票的投資心得。文章重點關注博通CEO陳福陽的個人經歷、商業決策和慈善行為，並將其與輝達CEO黃仁勳進行比較，暗示了作者偏好博通的原因不僅在於其股票表現，更在於CEO的個人特質和公司文化。</t>
+  </si>
+  <si>
+    <t>2022年聖誕節，老友力薦微軟（MSFT），今年7月升至$467美元。2023年聖誕，朋友投資英偉達（NVDA）賺錢。2024年聖誕投資主題是博通（AVGO），一位香港股壇高人重點押注此股，公司業績公佈後井噴式爆升。博通CEO陳福陽，經歷豐富，財務專長，且9月份拒絕收購英特爾（INTC）。作者朋友因看好陳福陽，透過衍生工具投資博通。作者看重企業主事人質地及人品，陳福陽多次蟬聯美國最高薪CEO，並曾捐款研究自閉症。反觀黃仁勳被爆避稅，博通較佳。</t>
+  </si>
+  <si>
+    <t>微軟(MSFT)、輝達(NVDA)、博通(AVGO)、聖誕節、股票投資、陳福陽、黃仁勳、CEO、投資策略、衍生工具、財經新聞、美國股市、企業文化、慈善捐款、避稅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文章以輕鬆、有趣的敘事方式，吸引讀者閱讀。
+文章結合個人經驗和市場分析，使資訊更易理解和接受。
+文章對比分析不同CEO的個人特質和商業決策，提供投資參考。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文章缺乏嚴謹的財經數據分析，僅依靠個人經驗和觀察。
+文章對CEO的評價帶有主觀性，缺乏客觀數據支持。
+文章的投資建議具風險性，不適合作為投資決策的唯一參考。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以深入分析博通和輝達的財務數據，提供更客觀的投資建議。
+可以擴展文章內容，分析更多影響股票價格的因素。
+可以將文章轉化成一系列的財經專欄，定期更新市場資訊。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">市場行情變化莫測，文章的投資建議可能失效。
+讀者可能對文章的主觀性產生質疑。
+其他財經媒體的競爭，可能影響文章的曝光度。
+</t>
+  </si>
+  <si>
+    <t>伊朗外長阿拉格齊抵京 展開兩日訪華行程</t>
+  </si>
+  <si>
+    <t>https://news.now.com/home/international/player?newsId=588051</t>
+  </si>
+  <si>
+    <t>Now 新聞阿拉格齊周五晚抵達北京，他說此行首要目的，是與中國就雙邊地區及國務事務進行商討；又強調伊朗與中國的關係保持穩固，雙方繼續就各事務進行磋商是很自然的事。8 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.伊朗外長阿拉格齊抵京　展開兩日訪華行程
+【Now新聞台】伊朗外長阿拉格齊抵達北京展開兩日訪華行程。
+阿拉格齊周五晚抵達北京，他說此行首要目的，是與中國就雙邊地區及國務事務進行商討；又強調伊朗與中國的關係保持穩固，雙方繼續就各事務進行磋商是很自然的事。
+阿拉格齊同時表示，伊朗核問題及尋求撤銷對伊朗制裁的談判，會在2025年出現新發展，伊朗需要與中國進行更多討論。中國外交部是在周五宣布阿拉格齊應邀在周五至周六訪問中國。
+ </t>
+  </si>
+  <si>
+    <t>2024-12-28 15:09:49</t>
+  </si>
+  <si>
+    <t>伊朗外長侯賽因·阿米爾·阿卜杜拉希揚（Hossein Amir-Abdollahian）於10月6日抵達北京，展開為期兩天的訪華行程。 此次訪問的主要目的是與中國就雙邊、地區和國際事務進行磋商。阿卜杜拉希揚強調了伊朗與中國之間穩固的關係，並指出雙方就各項事務持續進行磋商是自然而然的事情。他還提到，伊朗核問題和制裁解除談判將在2025年出現新發展，伊朗需要與中國就此進行更多討論。中國外交部在阿卜杜拉希揚抵達北京前一天宣布了此次訪問。</t>
+  </si>
+  <si>
+    <t>伊朗外長阿拉格齊抵達北京展開兩日訪華行程，此行目的為與中國就雙邊、地區及國際事務進行商討。阿拉格齊強調伊朗與中國關係穩固，雙方繼續磋商是自然的事。他提到伊朗核問題及制裁解除談判將在2025年出現新發展，伊朗需要與中國進行更多討論。中國外交部已宣布阿拉格齊應邀訪華。</t>
+  </si>
+  <si>
+    <t>伊朗、中國、外交、阿拉格齊、訪華、雙邊關係、地區事務、國際事務、伊朗核問題、制裁、2025年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加強了伊朗與中國之間的雙邊關係，為兩國在各個領域的合作創造了機會。
+為解決伊朗核問題和解除制裁提供了外交途徑。
+展現了伊朗在國際事務中積極參與和尋求多邊合作的姿態。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">此次訪問的具體成果和影響還有待觀察。
+伊朗與中國的合作可能引發其他國家和地區的擔憂。
+解決伊朗核問題和解除制裁的談判過程複雜且充滿挑戰。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深化伊朗與中國在經濟、貿易、能源等領域的合作。
+促進地區穩定和安全，為解決地區衝突提供建設性方案。
+在國際事務中發揮更大的作用，推動多邊主義和國際合作。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">國際社會對伊朗核計劃和地區影響力的擔憂可能加劇。
+美國和其他西方國家的制裁和壓力可能影響伊朗與中國的合作。
+地區緊張局勢可能加劇，影響雙邊關係的發展。
+</t>
+  </si>
+  <si>
+    <t>〈能源盤後〉以色列空襲葉門 引發恐慌性買盤 原油漲逾1%</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E8%83%BD%E6%BA%90%E7%9B%A4%E5%BE%8C-%E4%BB%A5%E8%89%B2%E5%88%97%E7%A9%BA%E8%A5%B2%E8%91%89%E9%96%80-%E5%BC%95%E7%99%BC%E6%81%90%E6%85%8C%E6%80%A7%E8%B2%B7%E7%9B%A4-%E5%8E%9F%E6%B2%B9%E6%BC%B2%E9%80%BE1-215836502.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經原油期貨價格周五(27 日) 上漲，係因以色列空襲葉門胡塞叛軍組織，引發市場恐慌性買盤，且上周美國原油庫存下降幅度超出預期，再添上漲動力，原油在清淡交易中漲逾1%。9 小時前</t>
+  </si>
+  <si>
+    <t>.原油期貨價格周五 (27 日) 上漲，係因以色列空襲葉門胡塞叛軍組織，引發市場恐慌性買盤，且上周美國原油庫存下降幅度超出預期，再添上漲動力，原油在清淡交易中漲逾 1%。
+能源商品價格
+2 月交割的西德州中質原油 (WTI) 上漲 98 美分或 1.4%，收每桶 70.60 美元。
+2 月交割的 Brent 原油期貨價格上漲 91 美分或 1.2%，收每桶 74.17 美元。
+WTI 和 Brent 原油價格本周約上漲 1.4%。
+1 月交割汽油期貨價格上漲 0.6%，收每加侖 1.9582 美元。
+1 月交割熱燃油期貨價格上漲 1.8%，收每加侖 2.2448 美元。
+1 月交割天然氣價格下跌 5.4%，收每百萬 Btu 3.514 美元。
+市場驅動力
+以色列周四對葉門胡塞叛軍組織部分控制的地區發動空襲，周五又襲擊了加薩北部一家醫院，引起市場擔憂。
+Sevens Report Research 創辦人兼總裁 Tom Essaye 表示，市場上出現恐慌性買盤，因而推高油價。
+道明銀行大宗商品策略主管 Bart Melek 表示，投資人尤其擔心紅海石油運輸可能受到干擾。「市場受到地緣政治驅動。我們有點擔心紅海周圍發生事件，也擔心更廣泛地區的船運出現中斷。」Melek 說。
+但 StoneX 分析師 Alex Hodes 認為，以色列軍事動作頻頻，加劇中東緊張局勢，但這些事件不太可能對明年的油價產生太大影響，反而是即將上任的川普政府可能實施制裁，這才是中東最大的風險。
+另外，Melek 指出，在美國能源資訊局 (EIA) 發布最新報告後，原油價格午盤後獲得進一步提振，因報告顯示原油庫存下降幅度遠超預期，但石油需求僅小幅增長，縮限了上漲力道。
+EIA 周五數據顯示，上周 (12/20 止) 美國原油庫存減少 420 萬桶，因煉油廠活動增加以及假期提振燃料需求。
+根據路透社調查，分析師此前預計上周原油庫存減少 190 萬桶，而美國石油協會 (API) 稍早數據預期上周原油庫存減少 320 萬桶。
+對中國經濟成長的樂觀情緒也令市場預期這全球最大石油進口國明年需求將增加。
+世銀周四上調中國今明兩年經濟成長預期，同時，中國當局同意明年舉債 3 兆元人民幣 (折 4110 億美元)，歷來最大，以重振疲軟的經濟。
+燃料分銷商 TACenergy 交易部門周五寫道，先前因全球石油需求停滯，俄烏戰爭遭全球能源市場忽視，但最近一周發生的多個事件可能會影響明年的供應情況，使得這場戰爭再次成為焦點。
+更多鉅亨報導 •〈能源盤後〉市場等待EIA最新供應數據 原油走跌
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 15:10:10</t>
+  </si>
+  <si>
+    <t>受以色列空襲葉門引發市場恐慌性買盤，以及上週美國原油庫存下降幅度超出預期影響，國際油價周五應聲上漲逾1%。西德州中質原油 (WTI) 上漲 1.4%，收每桶 70.60 美元；Brent 原油期貨價格上漲 1.2%，收每桶 74.17 美元。分析師認為，地緣政治風險和美國原油庫存下降是推高油價的主要因素，但中國經濟成長的樂觀預期也限制了油價漲幅。儘管如此，市場仍關注紅海石油運輸可能受干擾，以及即將上任的川普政府可能實施的制裁對中東的影響。</t>
+  </si>
+  <si>
+    <t>以色列空襲葉門，引發市場恐慌性買盤，推高油價。上周美國原油庫存減少 420 萬桶，超出預期，也支撐油價上漲。西德州中質原油 (WTI) 上漲 1.4%，收每桶 70.60 美元；Brent 原油期貨價格上漲 1.2%，收每桶 74.17 美元。市場擔心紅海石油運輸受干擾，以及川普政府可能實施的制裁。中國經濟成長預期樂觀，也影響油價。</t>
+  </si>
+  <si>
+    <t>原油期貨,西德州中質原油(WTI),Brent原油,油價上漲,以色列,葉門,胡塞叛軍,美國原油庫存,地緣政治風險,紅海,石油運輸,川普政府,中國經濟成長,市場恐慌性買盤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以色列空襲事件引發的市場恐慌性買盤，提供了短期油價上漲的強勁動力。
+美國原油庫存下降幅度超出預期，為油價上漲提供了基本面支撐。
+市場對中國經濟成長的樂觀預期，暗示未來石油需求可能增加。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地緣政治風險的不確定性，可能導致油價波動劇烈。
+美國原油庫存下降主要源於煉油廠活動增加和假期需求，而非石油需求的根本性改善，這限制了油價上漲空間。
+市場對川普政府政策走向的不確定性，可能影響油價的長期走勢。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如果中東局勢持續緊張，油價可能進一步上漲。
+如果中國經濟持續復甦，全球石油需求將增加，進一步推動油價。
+能源公司可以利用油價上漲的機會，增加投資和生產。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中東局勢的突然好轉，可能導致油價下跌。
+全球經濟衰退的風險，可能降低石油需求，導致油價下跌。
+新能源技術的發展，可能長期降低對石油的需求。
+</t>
+  </si>
+  <si>
+    <t>歐洲股市實現單周上漲 但Delivery Hero走低</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E6%AD%90%E6%B4%B2%E8%82%A1%E5%B8%82%E5%AF%A6%E7%8F%BE%E5%96%AE%E5%91%A8%E4%B8%8A%E6%BC%B2-%E4%BD%86delivery-hero%E8%B5%B0%E4%BD%8E-173143125.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經【彭博】-- 聖誕假日過後恢復交易，歐洲股市周五錄得三周來的首次單周上漲。歐洲斯托克600指數收盤漲0.7%，為一個月來最大單日漲幅，儘管假日因素導致交易量減少。14 小時前</t>
+  </si>
+  <si>
+    <t>.【彭博】-- 聖誕假日過後恢復交易，歐洲股市周五錄得三周來的首次單周上漲。
+歐洲斯托克600指數收盤漲0.7%，為一個月來最大單日漲幅，儘管假日因素導致交易量減少。汽車、銀行和金融股表現最佳，零售股落後。
+個股方面，Delivery Hero SE一度下挫9%，此前台灣反托辣斯監管機構拒絕了Uber Technologies Inc.以9.5億美元收購Delivery Hero SE旗下Foodpanda台灣業務的計畫。
+La Financiere de L’Echiquier駐巴黎的交易主管David Kruk表示，鑒於假日交易量減少，歐洲股市在2024年的最後幾個交易日可能缺乏明顯的驅動因素。
+「對沖基金可能會有一些空頭回補，這可能會略微提振市場，但這些都是技術性走勢，而不是基於基本面，」Kruk說。
+在截至9月底一度上漲10%創下紀錄高位後，斯托克600指數臨近年底漲幅已經減半，因市場對地區政治不確定性和美國候任總統唐納德·川普的關稅威脅心存擔憂。
+該基準區域指數在第四季度下跌3%，勢將創下2022年第三季度以來最大單季跌幅。不過，該指數本周上漲1%。
+法國CAC 40指數今年一直是表現不佳的股票之一，下跌約2.5%，因政治風險上升，而德國Dax指數領跑歐洲股市，上漲超過15%（不含股息）。
+原文標題European Stocks Post Weekly Gain While Delivery Hero Slumps
+--聯合報導 Kit Rees.
+More stories like this are available on bloomberg.com
+©2024 Bloomberg L.P.
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 15:10:31</t>
+  </si>
+  <si>
+    <t>歐洲股市在聖誕節假期後恢復交易，並在周五錄得三周來的首次單周上漲，斯托克600指數收盤漲0.7%。汽車、銀行和金融股表現最佳，但零售股表現落後。Delivery Hero SE股價下跌9%，原因是台灣反托辣斯監管機構拒絕了Uber收購其旗下Foodpanda台灣業務的計畫。交易主管David Kruk表示，由於假日交易量減少，歐洲股市在2024年的最後幾個交易日可能缺乏明顯的驅動因素，市場可能出現一些技術性走勢，而非基於基本面。斯托克600指數今年漲幅減半，部分原因是市場對地區政治不確定性和美國候任總統的關稅威脅感到擔憂。該指數第四季度下跌3%，但本周上漲1%。法國CAC 40指數今年下跌約2.5%，而德國Dax指數上漲超過15%。</t>
+  </si>
+  <si>
+    <t>歐洲股市周五錄得三周來的首次單周上漲，斯托克600指數收盤漲0.7%，汽車、銀行和金融股表現最佳。Delivery Hero SE下挫9%，因台灣反托辣斯監管機構拒絕Uber收購其Foodpanda台灣業務。交易主管表示，假日交易量減少，市場可能缺乏明顯驅動因素，「對沖基金可能會有一些空頭回補，這可能會略微提振市場，但這些都是技術性走勢，而不是基於基本面」。斯托克600指數第四季度下跌3%，但本周上漲1%。法國CAC 40指數今年下跌約2.5%，德國Dax指數上漲超過15%。</t>
+  </si>
+  <si>
+    <t>歐洲股市、斯托克600指數、DeliveryHeroSE、Foodpanda、Uber、台灣、反托辣斯、交易量、對沖基金、空頭回補、技術性走勢、政治不確定性、關稅、CAC40指數、Dax指數</t>
+  </si>
+  <si>
+    <t xml:space="preserve">報導準確地反映了歐洲股市的近期表現，並提供了相關數據支持。
+報導包含了多個方面的分析，包括市場趨勢、個股表現和市場參與者的觀點。
+報導提及了影響市場表現的一些重要因素，例如政治不確定性和監管政策。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">報導對市場未來走勢的預測比較謹慎，缺乏明確的方向指引。
+報導主要關注了歐洲股市，缺乏對全球其他市場的比較分析。
+報導對DeliveryHeroSE股價下跌的原因解釋不夠深入。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以深入分析影響歐洲股市表現的各種因素，例如地緣政治風險、經濟數據和企業業績。
+可以將歐洲股市與其他市場進行比較，找出其獨特的特點和潛在的投資機會。
+可以針對特定行業或個股進行更深入的分析，為投資者提供更具體的建議。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">市場行情瞬息萬變，報導中的信息可能很快過時。
+報導的觀點和分析可能存在偏差，需要讀者自行判斷。
+缺乏對宏觀經濟環境的深入分析，可能影響對市場走勢的判斷。
+</t>
+  </si>
+  <si>
+    <t>盤中速報 - 特斯拉(TSLA-US)大跌5.02%，報431.33美元</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E7%9B%A4%E4%B8%AD%E9%80%9F%E5%A0%B1-%E7%89%B9%E6%96%AF%E6%8B%89-tsla-us-%E5%A4%A7%E8%B7%8C5-152907320.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經特斯拉(TSLA-US)盤中下跌，漲跌幅、近日週月績效、相關指數表現、即時新聞資訊。16 小時前</t>
+  </si>
+  <si>
+    <t>.在這篇文章中:
+特斯拉(TSLA-US)截至台北時間27日23:14股價下跌22.8美元，報431.33美元，跌幅5.02%，成交量20,530,255（股），盤中最高價449.89美元、最低價430.98美元。
+美股指數盤中表現
+道瓊指數：-0.83%
+S&amp;P 500指數：-1.39%
+NASDAQ指數：-1.94%
+費城半導體指數：-1.95%
+特斯拉(TSLA-US)歷史漲跌幅
+近 1 週：+5.99%
+近 1 月：+36.68%
+近 3 月：+81.84%
+近 6 月：+135.41%
+今年以來：+86.04%
+更多鉅亨報導
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 15:10:52</t>
+  </si>
+  <si>
+    <t>特斯拉(TSLA-US)股價於27日下跌5.02%，收盤價為431.33美元。  當天美股主要指數也普遍下跌，道瓊指數下跌0.83%，S&amp;P 500指數下跌1.39%，NASDAQ指數下跌1.94%，費城半導體指數下跌1.95%。  儘管特斯拉近期股價表現強勁，過去一周、一月、三月、六月和今年以來漲幅分別為5.99%、36.68%、81.84%、135.41%和86.04%，但單日跌幅仍值得關注。</t>
+  </si>
+  <si>
+    <t>特斯拉(TSLA-US)截至台北時間27日23:14股價下跌22.8美元，報431.33美元，跌幅5.02%，成交量20,530,255（股），盤中最高價449.89美元、最低價430.98美元。美股指數盤中表現：道瓊指數：-0.83%，S&amp;P 500指數：-1.39%，NASDAQ指數：-1.94%，費城半導體指數：-1.95%。特斯拉(TSLA-US)歷史漲跌幅：近 1 週：+5.99%，近 1 月：+36.68%，近 3 月：+81.84%，近 6 月：+135.41%，今年以來：+86.04%。</t>
+  </si>
+  <si>
+    <t>特斯拉,TSLA,股價,美股,道瓊指數,S&amp;P500指數,NASDAQ指數,費城半導體指數,跌幅,成交量,漲幅,盤中最高價,盤中最低價</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資訊精確，提供特斯拉股價的具體數據，包括跌幅、成交量和盤中最高最低價。
+提供美股主要指數的同期表現，有助於理解大盤環境對特斯拉股價的影響。
+呈現特斯拉近期股價的歷史漲跌幅，提供更全面的價格走勢參考。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新聞僅報導單日股價表現，缺乏更深入的分析，例如造成股價下跌的原因。
+資訊較為簡短，缺乏對未來股價走勢的預測或相關事件的背景說明。
+沒有提及影響特斯拉股價的其他因素，例如公司新聞、市場情緒等。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以補充分析特斯拉股價下跌的原因，例如市場整體調整、公司特定消息或投資者情緒變化。
+可以加入對未來股價走勢的預測或分析師意見，提供更全面的資訊。
+可以加入相關事件的背景資料，例如競爭對手的動態、產業趨勢等，豐富新聞內容。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資訊的時效性，股市瞬息萬變，單日數據可能很快過時。
+缺乏深入分析，容易造成讀者誤解或做出錯誤的投資決策。
+若資訊來源不準確，會影響新聞的可信度。
+</t>
+  </si>
+  <si>
+    <t>〈永豐金併京城銀〉分行數躍升國銀前三 蔡、戴二大股東不進董事會</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E6%B0%B8%E8%B1%90%E9%87%91%E4%BD%B5%E4%BA%AC%E5%9F%8E%E9%8A%80-%E5%88%86%E8%A1%8C%E6%95%B8%E8%BA%8D%E5%8D%87%E5%9C%8B%E9%8A%80%E5%89%8D%E4%B8%89-%E8%94%A1-%E6%88%B4%E4%BA%8C%E5%A4%A7%E8%82%A1%E6%9D%B1%E4%B8%8D%E9%80%B2%E8%91%A3%E4%BA%8B%E6%9C%83-145758958.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經京城銀(2809-TW) 花落永豐金(2890-TW) ，總交易金額估達599 億元，永豐金總經理朱士廷指出，雙方「交往」 2 年多才談成「婚事」，兩家營業據點與客戶的重疊性低，...16 小時前</t>
+  </si>
+  <si>
+    <t>.在這篇文章中:
+京城銀 (2809-TW) 花落永豐金 (2890-TW) ，總交易金額估達 599 億元，永豐金總經理朱士廷指出，雙方「交往」 2 年多才談成「婚事」，兩家營業據點與客戶的重疊性低，一南一北具有高度互補性，合併後國內分行總數將達 191 處，躍升國銀前三名，不過，雙方必須等到 2025 年 3 月 3 日股東臨時會通過合併案，才能向金管會遞件申請；京城銀二大股東蔡天贊家族及董事長戴誠志對於此次「嫁女兒」感到不捨，但認為永豐金就是最好的「夫家」首選。
+婚事談了 2 年多 永豐金斥近 600 億元求娶京城銀「價格合理」
+此次併購案將以每 1 股京城銀普通股換得新台幣 26.75 元現金與 1.15 股永豐金普通股，總聘金將近 600 億元，外界好奇，是否買得有點貴？朱士廷認為，事實上，比較近年的併購案，價格是相對合理，股價淨值比約 1.1 倍，他強調這是雙方合意都可以接受的價格。
+朱士廷透露，這樁併購案從接觸開始已經談了 2 年多，彼此都要互相了解，必須清楚掌握未來是否有機會成為一家人，花了很多精神溝通，長遠來看，在商品、客群、通路、人才等四大面向上，都具有強大的互補性，無論是法金業務或是零售業務未來能產生的綜效值得期待，「市場上來看真的沒有幾家這麼的高度互補」，京城對於永豐來說，是最好的對象，能把公司及股東權益擴到最大，至於談判過程中是否有其他競爭對手要來搶親，朱士廷表示不太清楚，潛在買主都是透過媒體報導得知。
+至於先前傳出潛在的買主中信金或凱基金，規模相對來說都很大，為何最終屬意永豐金？對此，京城銀總經理姜宏亮回應，這兩家對象都是傳聞，未經證實，選擇永豐主要考量在於，永豐與京城兩家都有中小企業銀行的背景，相信未來融合會更加融洽，京城約有 90% 是企金業務，並以中南部業務為主，兩家對於中小企業授信都相當專業，也都能互相信任，相信對於客戶、員工、股東都是比較好的選擇。
+京城銀二大股東吐露「嫁女兒」不捨 未來不進永豐金董事會
+對於未來將嫁入永豐金，姜宏亮轉述二大股東蔡天贊家族及董事長戴誠志心情，他們是懷著「嫁女兒」的心情，非常地不捨，「女兒長大了，總是要找一位好的夫家，最好的首選就是永豐金」。
+姜宏亮說明，此次是以現金、換股各半進行交易，因此，蔡董與戴董二大股東未來都會持有永豐金合併京城銀後的股票，繼續參與成長，也是股東樂於見到的。朱士廷補充，兩位大股東不會進入董事會，不過，他們對於永豐金未來經營很有信心，相信也會繼續持有股權。
+至於何時會向金管會送件申請合併？永豐金財務長許如玫表示，要等明年 3 月 3 日召開股東臨時會之後，才能向金管會送件，預估正式股份轉換基準日落在明年第四季，因此，將不會影響到今年度現金或股票股利的配發。相信合併後，未來的獲利能力及資產擴張可望讓股東受惠，不會對股利政策有所調整。
+談及併購京城銀的資金來源？許如玫說明，永豐金將會發債籌資 50%，大約 300 億元，經試算，雙重槓桿比仍會維持在 125% 以下的水準，不會超過法規上限。
+員工權益方面，朱士廷表示，永豐金與京城銀一北一南，剛好據點重疊度很低，一定會盡全力希望主管及員工都能留任，對於雙方來說也是最有利的，不論是京城銀或主管機關，他們對於員工安置計畫一定都是相當重視的，因此，我們也有去了解近幾年所有的併購案，有關員工的優離退、安置計畫、留任獎金等，永豐金和京城銀會盡最大的誠意來做這件事情，努力爭取把主管、員工都留下來，這對於客戶、股東都是最好的結果。
+永豐銀京城銀一北一南 據點、客戶具高度互補性
+京城銀屬小而美之社區型中型銀行，66 家分行主要分布於雲嘉南地區，而永豐銀行 125 家分行主要分布於新竹以北，雙方營業據點與客戶的重疊性低，合併後國內分行總數達 191 處，將躍升全體國銀前三名，南北比例約為四比六，發展更為均衡，具有互補性。
+在法金業務方面，京城擁有中南部在地優勢、眾多建商及中小客戶人脈，可持續創造穩定利差收益；永豐對北部法金相關客群經營具有專業及實務經驗，而且永豐擅長聯貸主辦籌組能力，針對大型授信案件，未來可導入聯貸主辦經驗予京城以擴大綜效。
+在零售業務方面，京城自然人客戶多以中南部客戶為主，與永豐的重疊性低，具客戶互補性，可為永豐在中南部經營發展上打下良好基礎，且自然人客戶多為長期往來忠實戶，具資產實力，經營發展性高，未來可以沿襲永豐零售業務發展模式，提供多元化商品及數位服務。
+永豐金表示，期待雙方在實體據點、客群經營乃至業務拓展上均有互補及合作增長空間，透過雙向典範學習及經驗移轉，創造合併綜效。
+更多鉅亨報導 •現金+換股下聘金近600億元 溢價8.8%取得100%股權
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 15:11:13</t>
+  </si>
+  <si>
+    <t>永豐金控以近600億元併購京城銀行，交易將以每股26.75元現金與1.15股永豐金股票交換。兩家銀行據點和客戶重疊性低，具有高度互補性，合併後將成為國內前三大銀行。此次併購案歷時兩年多談判，雙方認為價格合理，且在商品、客群、通路、人才等方面具有強大互補性。京城銀行主要股東表示不捨，但認為永豐金是最佳選擇，未來將繼續持有永豐金股票，但不會進入董事會。永豐金將透過發債籌資50%，並承諾盡力留任京城銀行員工。合併案需待明年3月股東臨時會通過後才能送交金管會申請。</t>
+  </si>
+  <si>
+    <t>永豐金控以近600億元併購京城銀行，每股京城銀換得26.75元現金與1.15股永豐金股票。「交往」2年多才談成「婚事」，兩家營業據點與客戶重疊性低，高度互補性，合併後國內分行總數將達191處，躍升國銀前三名。京城銀二大股東蔡天贊家族及董事長戴誠志認為永豐金是最好的「夫家」首選，但未來不進永豐金董事會。永豐金將發債籌資50%，約300億元，並承諾盡力留任京城銀員工。合併案需待明年3月3日股東臨時會通過後，才能向金管會遞件申請。</t>
+  </si>
+  <si>
+    <t>永豐金控、京城銀行、併購案、600億元、合併、銀行、金融業、股東、員工、互補性、據點、客戶、財務、股價、現金、股票、金管會、股東臨時會</t>
+  </si>
+  <si>
+    <t xml:space="preserve">兩家銀行業務互補性高，合併後可擴大市場佔有率和獲利能力。
+城銀主要股東支持合併，降低併購風險。
+永豐金控財務狀況良好，有能力完成併購。
+合併後可提升服務效率和客戶體驗。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合併過程可能面臨整合困難和文化衝突。
+合併案需要取得股東和金管會的批准，存在不確定性。
+併購價格可能過高，影響投資報酬率。
+整合後的組織架構和人事安排需要謹慎規劃。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">擴大市場佔有率，成為國內領先銀行。
+提升品牌形象和競爭力。
+開發新的金融產品和服務。
+創造新的商業模式和盈利模式。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金融市場競爭激烈，合併後仍需面對其他銀行的挑戰。
+經濟環境變化可能影響銀行的經營績效。
+政府監管政策調整可能帶來風險。
+整合失敗可能導致成本增加和效益降低。
+</t>
+  </si>
+  <si>
+    <t>-21</t>
+  </si>
+  <si>
+    <t>辦公業務低迷 一修哥對雲遊戲寄予厚望</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E8%BE%A6%E5%85%AC%E6%A5%AD%E5%8B%99%E4%BD%8E%E8%BF%B7-%E4%BF%AE%E5%93%A5%E5%B0%8D%E9%9B%B2%E9%81%8A%E6%88%B2%E5%AF%84%E4%BA%88%E5%8E%9A%E6%9C%9B-053736341.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經該公司宣布與騰訊合作進軍雲遊戲領域，以應對其核心辦公設備業務利潤暴跌的困境. 重點：. 不久前上市的一修哥宣布，推出一項與騰訊合作的雲遊戲計劃，並獲得CS基金提供...20 小時前</t>
+  </si>
+  <si>
+    <t>.在這篇文章中:
+該公司宣布與騰訊合作進軍雲遊戲領域，以應對其核心辦公設備業務利潤暴跌的困境
+重點：
+不久前上市的一修哥宣布，推出一項與騰訊合作的雲遊戲計劃，並獲得CS基金提供的2,000萬美元支持
+一修哥的股價在消息公布後的五個交易日下跌23%，因此舉與公司核心的辦公設備業務相距甚遠，投資者心存懷疑
+譚英
+投資者如果對辦公設備供應商一修哥企業發展（集團）有限公司(EHGO.US)上周宣布與行業巨頭騰訊(0700.HK)合作進軍雲遊戲感到疑惑，或許也是情有可原。他們要梳理其他幾份相關公告，才能搞清楚事情的來龍去脈。而他們瞭解得越多，越不看好此事，或至少看上去是這樣。
+引起廣泛關注的重要公告是12月20日發布，一修哥宣布一項「具有深遠意義的戰略舉措」，通過在辦公集成服務和雲遊戲領域開展合作，正式進入騰訊的業務生態圈。這筆交易包括與騰訊達成開發雲遊戲掌機的協議，以及與北京琉璃球文化發展有限公司簽署千台雲遊戲掌機銷售協議。
+作為該舉措的一部分，一修哥宣布通過股票交易的方式，收購德坤資產管理（香港）有限公司，向其授予400萬股股票。此舉讓一修哥與北京琉璃球文化達成了合作，後者將推出一款雲遊戲設備，支持包括微軟Xbox Cloud Gaming 和英偉達GeForce NOW在內的多款雲遊戲服務。
+至少有一家投資機構看好該計劃，CS基金（CS Asia Opportunities Master Fund） 為一修哥注入了最高2,000萬美元的股權投資，承諾以每股4.80美元購買該公司417萬股股票，以支持一修哥進駐騰訊生態圈的計劃。CS基金在一修哥公布騰訊計劃的同一天宣布了投資，表示騰訊的支持將對一修哥的業務增長起到決定性作用。
+但其他投資者不像CS基金這麼有把握。一修哥發布公告後，其在納斯達克上市的股票，在五個交易日內大跌23%，由此可見一斑。就在公告發布前，該股一度漲至5美元，而周四的最新收盤價為3.52美元，較4美元的發行價下跌了12%。
+中國經濟放緩導致辦公市場低迷，受其影響，一修哥的核心業務表現不佳，與騰訊的合作似乎是為了提振投資者的信心。公司截至3月的最近一個財年，營收同比下滑約8%至1,700萬美元。更糟糕的是，其利潤幾近蒸發，從上一財年的477,689美元銳減至僅8,652美元。
+一修哥與騰訊開發雲遊戲掌機的合作究竟將如何展開目前尚不明確，這加劇了投資者的不安，也將進一步加重對該公司前景和宏願的擔憂。新冠疫情和隨後的經濟放緩，嚴重影響了對辦公相關服務的需求，對一修哥造成了沈重打擊。
+2022年，由於疫情管控，中國辦公市場陷入低迷，在一些主要城市甚至陷入停滯。而這個市場對一修哥當前的核心業務——高端辦公設備銷售與租賃，以及售後維護和維修——至關重要。
+一修哥代理的品牌包括惠普、愛普生、施樂、夏普、東芝、京瓷等，並拓展到辦公傢具、IT 產品、飲水機和打印紙等領域。研究公司Cognitive Market Research的數據顯示，2023年這個市場的規模估計為175億美元，佔全球市場的10%。一修哥的客戶包括平安保險、太平人壽和中原地產等知名企業。
+市場變化
+甚至早在7月，一修哥在納斯達克上市之前，就在招股說明書中表示，已經注意到售後維護服務市場的變化。在截至2023年9月的六個月內，即其最近一個財年的上半年，維護服務收入增長了45.4%，達到了110萬美元。然而，設備銷售收入下降了16.2%降至650萬美元，設備租賃收入也下降了5.6%，僅為722,601美元。在2022和2023財年之間，一修哥的員工人數從172人縮減至157人。
+一修哥在境內的運營實體——上海君長，擁有24家子公司的45%股份，這些子公司在全國範圍內運營著155個服務網點，並在低線城市僱用了1,500名註冊技術服務人員。上海君長已經獲得了電子商務運營所需的營業執照，並開發了專有軟件、遠程管理系統和移動應用程序，「所有這些都有待在IPO後進一步完善和測試」一修哥在招股說明書中表示。
+中國的辦公設備供應行業雖然規模龐大，但高度分散，競爭激烈。這或許可以解釋一修哥為何納斯達克上市之旅曠日持久，上市後又表現平平。IPO花了一年多的時間才完成，發行價為4美元，處於發行價格區間的低端，僅籌得470萬美元。一修哥此前曾於2023年4月申請上市，當時的目標是籌集1,500萬美元，是最終籌資總額的兩倍。2024年5月，它將這個數字縮減至800萬美元，之後再次縮減至最終的數額。
+那麼，一修哥是否通過與騰訊的聯盟找到了一條新的前進道路？雖然聽上去不太可能，但答案恐怕是肯定的。其目標細分市場是遊戲市場的掌機業務，這項業務在2015年之前在中國是禁止的。根據Sekkei Digital Group的數據，在中國6.85億遊戲玩家中，只有15%的人使用掌機硬件來玩他們最喜歡的遊戲，而且這個市場沒有手機或PC遊戲那麼飽和。去年，遊戲機硬件行業的收入為11億美元，遊戲機軟件的收入為12.7億美元。這個市場仍在增長，儘管增長緩慢，但到2027年可能會達到24.8億美元。
+自2019年任天堂Switch在中國推出以來，騰訊便與任天堂建立了合作關係。任天堂佔據了掌機視頻遊戲市場38%的收入，其次是微軟Xbox的33%和索尼PlayStation的24%。公告稱，琉璃球文化計劃開發「支持多種雲遊戲服務」的掌機產品，通過「硬件與網絡資源的完美結合」，使其在市場中脫穎而出。
+一修哥是否可以利用銷售辦公設備與銷售遊戲掌機之間的相似之處？儘管客戶群體差異較大，但該公司在建立全國辦公設備供應基礎設施方面的經驗，可能對創建一個類似的遊戲主機銷售網絡有所幫助。再加上2,000萬美元的新資金、IPO籌集到的470萬美元，以及去年11月通過可轉換債券籌集的500萬美元，該公司無疑有充足的資金投入到新的遊戲業務上。
+欲訂閱咏竹坊每周免費通訊，請點擊這裏
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 15:11:34</t>
+  </si>
+  <si>
+    <t>上市公司一修哥（EHGO.US）宣布與騰訊合作進軍雲遊戲領域，並獲得CS基金2000萬美元投資，意圖藉此應對核心辦公設備業務利潤暴跌的困境。然而，此舉引發投資者質疑，其股價在消息公布後五個交易日下跌23%。一修哥的核心辦公設備業務受中國經濟放緩影響表現不佳，與騰訊的合作被視為提振信心的舉措。儘管CS基金看好此項合作，但大多數投資者對一修哥轉型雲遊戲的成功表示懷疑，其長期前景仍不明朗。</t>
+  </si>
+  <si>
+    <t>上市公司一修哥宣布與騰訊合作進軍雲遊戲領域，獲得CS基金2,000萬美元支持。一修哥股價在消息公布後五個交易日下跌23%。中國經濟放緩導致辦公市場低迷，一修哥核心業務表現不佳，與騰訊合作似乎是為了提振投資者信心。公司最近一個財年營收下滑約8%，利潤幾近蒸發。一修哥與騰訊開發雲遊戲掌機的合作細節尚不明確，加劇了投資者的不安。遊戲機市場仍在增長，但增長緩慢。</t>
+  </si>
+  <si>
+    <t>一修哥、騰訊、雲遊戲、辦公設備、CS基金、投資、股價下跌、中國經濟、利潤暴跌、市場轉型、遊戲掌機、市場前景</t>
+  </si>
+  <si>
+    <t xml:space="preserve">獲得騰訊合作，提升品牌知名度和市場影響力。
+獲得2000萬美元投資，提供充足資金支持新業務發展。
+雲遊戲市場雖小眾，但仍具備成長潛力。
+一修哥已建立全國辦公設備供應網絡，可作為拓展雲遊戲銷售渠道的基礎。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">核心辦公設備業務利潤暴跌，公司基本面不佳。
+轉型雲遊戲領域，與公司原有業務相關性低，存在較大風險。
+投資者對其轉型計劃缺乏信心，股價大幅下跌。
+雲遊戲市場競爭激烈，成功進入市場並取得盈利存在挑戰。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成功進入雲遊戲市場，可開闢新的利潤增長點。
+利用既有銷售網絡，降低市場進入門檻和成本。
+與騰訊合作，獲得技術和資源支持。
+中國雲遊戲市場潛力巨大，未來發展空間廣闊。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中國經濟持續低迷，影響辦公設備市場和雲遊戲市場發展。
+雲遊戲市場競爭加劇，新興玩家進入市場，增加市場壓力。
+公司轉型失敗，可能導致公司虧損加劇，甚至倒閉。
+投資者信心不足，可能導致公司融資困難。
+</t>
+  </si>
+  <si>
+    <t>「寧王」出海，值得期待嗎？ 作者 財華社</t>
+  </si>
+  <si>
+    <t>https://hk.investing.com/news/stock-market-news/article-751484</t>
+  </si>
+  <si>
+    <t>Investing.com 香港 - 股市報價&amp; 財經新聞全球最頂尖的動力電池供應商寧德時代（300750.SZ）宣佈，計劃發行H股並申請在香港聯交所主板掛牌上市。目的是進一步推進該公司的全球化戰略佈局，打造國際化資本運作平台，...23 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 全球最頂尖的動力電池供應商寧德時代（300750.SZ）宣佈，計劃發行H股並申請在香港聯交所主板掛牌上市。目的是進一步推進該公司的全球化戰略佈局，打造國際化資本運作平台，提高綜合競爭力。
+歷次股權融資
+寧德時代於2011年12月16日在寧德市注冊成立，2018年6月11日通過首次公開發行2.17億股A股在深圳證券交易所上市，代碼為300750，籌資約53.52億元（單位人民幣，下同）；於2020年8月4日定向增發股份1.22億股A股，籌資淨額為196.18億元；2022年7月4日再面向特定對象發行1.1億股A股，籌資淨額為448.70億元。到2024年6月30日止，尚未使用餘額為93.12億元。
+除了股權募資外，寧德時代自上市以來也進行了多次發債融資，發行的債券包括人民幣債和美元債等。
+財務狀況
+截至2024年9月30日止，寧德時代持有現金2,646.76億元，短期附息債務313.21億元，加上長期債務在内，其附息債務或約1,288.7億元，手持的現金足以應付這些債務。而且寧德時代的2024年9月末流動比率達到166.07%，高於期初的156.72%。
+2024年前三季，寧德時代經營活動產生淨現金流入674.44億元，用於構建固定資產、無形資產和其他長期資產的現金流支出為212.68億元。可見該公司的財務狀況十分穩健，為何還要通過境外市場進行融資，尤其選擇在當前估值偏低的港股市場？
+財華社認為，出海戰略，以及把握港股估值低窪反彈良機，應該是其考慮因素。
+寧德時代的市場份額
+憑借完善的供應體系和優秀的技術能力，寧德時代在中國高速增長的電動汽車發展中茁壯成長。
+SNE Research的數據顯示，今年前10個月寧德時代依然是無可爭議的全球動力電池「一哥」，全球市場份額為36.8%，較上年同期的35.9%高出0.9個百分點，電池使用量達到252.8吉瓦時，同比增長28.3%，高於市場的平均水平，見下表。
+整體而言，寧德時代的增長高於行業的平均水平，但同時後來者的追趕也十分緊迫，例如比亞迪（01211.HK），今年前10個月的電池累計使用量年增幅高達31.3%，國軒高科（002074.SZ）、億緯鋰能（300014.SZ）和欣旺達（300207.SZ）的年增幅更分别高達38.3%、31.5%和68.2%，這主要得益於中國市場的需求強勁，帶動了本土供應商的增長。
+另一方面，在中國以外的市場，出現了許多電池供應鏈的新加入者，例如特斯拉（TSLA.US），已實現自研自產電池4680的量產。
+儘管馬斯克在業績發佈會上提到特斯拉未來依然會依靠現有的電池供應商，但是可以預見的是，隨著特斯拉自研電池實現量產滿足其部分需求，上遊供應商爭奪特斯拉訂單之戰將變得更加激烈，從而在一定程度上影響到行業格局，畢竟特斯拉和比亞迪（002594.SZ）是目前全球純電汽車產銷量最高的企業，而且均可以自行供應電池，對於供應商的議價力將會更強，從而影響到這些電池供應商的競爭格局。
+寧德時代的出海舉措
+需要注意的是，當前中國是最主要的新能源汽車消費國，預計到2025年新能源汽車的產銷量有望追上油車，隨著市場的飽和，中國的電池供應商或需要尋求對外擴張以保持強勁增長。
+財華社從SNE Research的另一份報告了解到，中國以外地區全球電動汽車電池累計使用量為290.2吉瓦時，而包括中國在内的數據為686.7吉瓦時，意味著中國一個市場的用量已相當於其他地區的總和。此外，在中國以外地區，今年前10個月全球電動汽車電池累計使用量的增幅或為12.7%，要低於包括中國在内的全球數據，或意味著中國以外地區市場當前的需求仍有點狹窄，增長也顯著放緩——前五年中國以外地區市場的年復合增幅達到58.3%，而包括中國在内的全球市場年復合增幅為51.1%，意味著海外市場的競爭也更為激烈。
+財華社留意到，今年前10個月，寧德時代在中國以外地區市場仍保持行業領先地位，累計使用量按年增長7.8%，至76.6吉瓦時，但是市場份額卻由上年同期的27.6%下降至26.4%，相比較而言，比亞迪、松下與豐田合資的PPES和中創新航（03931.HK）在海外市場的份額均有所提升，特斯拉更是從零到搶佔2.1%的市場份額，見下表。
+海外供應鏈除了注重技術和適用性外，關鍵的還是產能的可用性，尤其在當前貿易保護主義盛行之時，能否在客戶海外工廠附近設有電池產能設施成為爭奪市場的一項重要籌碼，這也是各大電池廠紛紛搶灘海外市場進行佈局的原因。
+例如國軒高科已在歐洲等地建設電池廠，中創新航在葡萄牙和德國也有佈局，欣旺達也計劃在匈牙利和越南設廠，億緯鋰能則在馬來西亞佈局。寧德時代在德國和匈牙利的兩家工廠已投入運營，或考慮在美國建廠。
+本月10日，寧德時代與瑪莎拉蒂等豪車品牌的母公司Stellantis集團訂立協議，雙方各持股50%在西班牙薩拉戈薩建設磷酸鐵鋰電池工廠，總投資41億歐元，計劃於2026年底開始投產，規劃產能達50吉瓦時。
+財華社留意到，這幾年寧德時代的境外市場貢獻顯著增長，2023年境外收入佔比大幅提高至32.67%，2024年上半年的佔比為30.30%，而在疫情之前的2019年該佔比只有4.37%，見下圖。
+財華社也留意到，其境外業務的毛利率更高。財華社根據寧德時代的財務數據估算，其2023年境外業務的毛利率或約為25.19%，相較境内業務為21.80%；2024年上半年的境外業務毛利率為29.65%，境内業務為25.18%。
+在這樣的背景下，就不難理解寧德時代出海的決心。
+該公司在2023年年報中提出了三大戰略發展方向：
+1）「電化學儲能+可再生能源發電」，擺脫對火電的依賴；
+2）「動力電池+新能源車」，擺脫交通出行領域對石油的依賴；
+3）「電動化+智能化」，推動市場應用的集成創新。
+該公司還會持續推進構建材料及材料體系、系統結構、綠色極限制造和商業模式四大創新體系，研發高能量密度、高可靠性、高安全性、長壽命的電池產品和解決方案。而更為重要的是，寧德時代提出了全球化體系建設，包括海外產能建設運營、海外供應鏈佈局、海外資源及回收佈局等。
+財華社留意到，截至2024年6月30日，寧德時代在歐洲地區的在建工程賬面值達到100.51億元人民幣，而其預算金額達到617.42億元人民幣，這些資金主要來自寧德時代自籌。
+寧德時代固然能通過其現有的境外投資回報和美元債等籌措資金，但境外上市融資卻能起到品牌推廣效果，並進一步擴大股東範圍。
+港股上市同行
+Wind的數據顯示，今年以來，寧德時代為深股通當中成交額第三高的股份，或反映香港的散戶投資者對該股頗感興趣。深交所的數據顯示，截至2024年9月30日止，投資者通過深股通合計持有的寧德時代股份總數為5.04億股，佔其已發行股本總數的0.11%。
+財華社從Wind的數據了解到，比亞迪H股今年以來的漲幅達到29.67%，但其新能源汽車銷量保持強勁增長甚至超越特斯拉應是推動其股價上漲的主要原因，而非電池業務。相比較而言，在港股上市的中創新航今年以來累計股價跌幅為25.34%。
+可見當前港股市場的估值並不算特别吸引，不過寧德時代才剛剛發佈上市意向，還需要許多籌備工作，估計難以在短期内實現上市。港股市場的估值低窪遲早會被填補，期望寧德時代能趕上好時勢，取得能認可其市場地位的估值。</t>
+  </si>
+  <si>
+    <t>2024-12-28 15:11:36</t>
+  </si>
+  <si>
+    <t>全球動力電池龍頭寧德時代宣布計劃發行H股，在香港聯交所主板上市，以推進全球化戰略，打造國際化資本運作平台，提升綜合競爭力。儘管寧德時代財務狀況穩健，手持大量現金，但為進一步拓展海外市場，特別是面對競爭加劇及市場需求變化，選擇在港股市場融資，希望能藉此提升品牌影響力，並在估值偏低的港股市場獲得有利的融資條件。  此舉也反映了中國動力電池產業走向全球化的趨勢，以及在國際市場上爭奪份額的激烈競爭。</t>
+  </si>
+  <si>
+    <t>寧德時代計劃發行H股，在香港聯交所主板上市，推進全球化戰略。公司財務狀況穩健，但為拓展海外市場及提升競爭力，選擇在港股融資。  今年前10個月，寧德時代全球市場份額為36.8%，電池使用量達到252.8吉瓦時，同比增長28.3%。然而，競爭者例如比亞迪、特斯拉等快速追趕，寧德時代需要進一步擴大海外市場份額。  寧德時代在中國以外地區的業務增長顯著，毛利率也更高，顯示出其海外市場的發展潛力。</t>
+  </si>
+  <si>
+    <t>寧德時代，H股，香港聯交所，上市，全球化，動力電池，電動汽車，市場份額，比亞迪，特斯拉，財務狀況，海外市場，競爭，融資，估值，港股</t>
+  </si>
+  <si>
+    <t xml:space="preserve">行業龍頭地位：寧德時代在全球動力電池市場佔據領先地位，擁有雄厚的技術實力與品牌影響力。
+財務狀況穩健：公司擁有充裕的現金儲備，財務狀況良好，可以支撐全球化佈局。
+海外市場增長潛力巨大：新能源汽車市場在全球範圍內持續擴張，為寧德時代提供了巨大的發展空間。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">競爭加劇：比亞廸、特斯拉等競爭者快速崛起，對寧德時代的市場份額構成威脅。
+海外市場拓展挑戰：海外市場競爭激烈，需要克服文化差異、法律法規等方面的挑戰。
+估值壓力：港股市場估值偏低，可能影響融資效果。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提升品牌形象和國際知名度：在香港上市可以提升公司在國際資本市場的形象，吸引更多國際投資者。
+獲得更多資金：通過H股發行可以獲得更多資金，支持公司在全球範圍內擴張產能和研發。
+拓展海外市場：在香港上市可以更好地服務海外客戶，加速公司全球化戰略的推進。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地緣政治風險：國際地緣政治局勢的不確定性可能影響公司在海外市場的發展。
+宏觀經濟環境：全球經濟下行風險可能影響公司業績和融資計劃。
+技術革新：新的電池技術的出現可能挑戰寧德時代的技術優勢。
+</t>
+  </si>
+  <si>
+    <t>安國先進製程案件明年底進入量產 全年營收估顯增</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E5%AE%89%E5%9C%8B%E5%85%88%E9%80%B2%E8%A3%BD%E7%A8%8B%E6%A1%88%E4%BB%B6%E6%98%8E%E5%B9%B4%E5%BA%95%E9%80%B2%E5%85%A5%E9%87%8F%E7%94%A2-%E5%85%A8%E5%B9%B4%E7%87%9F%E6%94%B6%E4%BC%B0%E9%A1%AF%E5%A2%9E-075815229.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經神盾(6462-TW) 集團旗下ASIC 業者安國(8054-TW) 今(27) 日召開法說會，董事長羅森州表示，隨著ASIC 市場不斷成長，加上公司過去耕耘的效益發酵，預期未來半年會陸續取得數...23 小時前</t>
+  </si>
+  <si>
+    <t>.神盾 (6462-TW) 集團旗下 ASIC 業者安國 (8054-TW) 今 (27) 日召開法說會，董事長羅森州表示，隨著 ASIC 市場不斷成長，加上公司過去耕耘的效益發酵，預期未來半年會陸續取得數個案件，看好明年營運會顯著優於今年，總經理陳建盛也補充，先進製程案件最快明年底進入量產。
+執行長蔡玲君指出，11 月營收達 2.84 億元，月增 79.09%，年增 51.33%，10 至 11 月合計營收為 4.42 億元，第四季整體營收預估會突破去年同期 6.8 億元的水準。
+安國目前業務主軸為 Arm 伺服器小晶片 (Chiplet) 架構設計服務，且為應對市場對 AI 運算多樣化的需求，也推出 AI Platform ASIC 解決方案，結合 AI XPU 架構 (CPU、NPU、LPU 等運算單元) 與先進封裝技術 (如 CoWoS、 WoW)。
+陳建盛說，安國目前已有數個 ASIC 案件，包括先進製程與先進封裝，其中，先進製程案件涵蓋 7/6 奈米、3 奈米等，部分案件將在明年開始貢獻 NRE，最快明年底開始進入量產。
+先進封裝方面，安國拿下數個 CoWoS 與 WoW 案件，其中，CoWoS 案件以 CoWoS-S 為主，將在明年開始貢獻營收，WoW 應用則以 AI PC 為主，且因透過 VHM 與 12 奈米邏輯晶圓相互堆疊，也可符合美國對中國禁令。
+安國看好，未來公司將憑藉 ARM Neoverse V3 的技術領先優勢，搶占伺服器晶片市場的成長機遇，未來集團營收大幅成長可期。
+更多鉅亨報導 •安國將加入Arm生態系 強化ASIC布局 •安國4奈米ASIC案件明年貢獻營收 營運注活水
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 15:11:56</t>
+  </si>
+  <si>
+    <t>安國 (8054-TW) 召開法說會，預期未來半年會陸續取得數個ASIC案件，看好明年營運會顯著優於今年，最快明年底有先進製程案件進入量產。11月營收達2.84億元，月增79.09%，年增51.33%，第四季整體營收預估會突破去年同期6.8億元。安國目前業務主軸為Arm伺服器小晶片架構設計服務，也推出AI Platform ASIC解決方案，結合AI XPU架構與先進封裝技術(如CoWoS、WoW)。目前已有數個ASIC案件，包括先進製程與先進封裝，部分案件將在明年開始貢獻NRE，最快明年底開始進入量產；先進封裝方面，拿下數個CoWoS與WoW案件，明年開始貢獻營收。安國看好憑藉ARM Neoverse V3的技術優勢，搶占伺服器晶片市場。</t>
+  </si>
+  <si>
+    <t>安國(8054-TW)預期未來半年會陸續取得數個案件，看好明年營運會顯著優於今年，先進製程案件最快明年底進入量產。11月營收達2.84億元，月增79.09%，年增51.33%，第四季整體營收預估會突破去年同期6.8億元。安國業務主軸為Arm伺服器小晶片架構設計服務，也推出AI Platform ASIC解決方案。已有數個ASIC案件，包括先進製程與先進封裝，部分案件將在明年開始貢獻NRE，最快明年底開始進入量產；先進封裝方面，拿下數個CoWoS與WoW案件，明年開始貢獻營收。安國看好憑藉ARM Neoverse V3技術優勢，搶占伺服器晶片市場。</t>
+  </si>
+  <si>
+    <t>安國、ASIC、Arm、伺服器、小晶片、Chiplet、AI、AIPlatformASIC、先進製程、7奈米、6奈米、3奈米、先進封裝、CoWoS、WoW、NRE、營收、量產、NeoverseV3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">掌握Arm伺服器小晶片設計服務技術，符合市場趨勢。
+成功開發AIPlatformASIC解決方案，擴大產品線。
+獲得多個先進製程及先進封裝的ASIC訂單，確保未來營收。
+明年營運展望樂觀，預期顯著優於今年。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高度依賴少數大型客戶，客戶集中風險高。
+技術研發投入成本高，可能影響獲利能力。
+市場競爭激烈，需要持續提升技術優勢及成本控制。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI相關應用持續發展，帶來龐大市場商機。
+先進製程及封裝技術的領先優勢，可搶佔市場份額。
+與Arm生態系合作，擴大業務範圍及市場影響力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全球經濟下行風險，可能影響客戶需求。
+地緣政治因素及國際貿易政策變化，可能帶來不確定性。
+新興競爭者崛起，加劇市場競爭。
+</t>
+  </si>
+  <si>
+    <t>八達通聽到「嘟~嘟嘟」聲要注意！ 4批八達通卡即將失效| Watch</t>
+  </si>
+  <si>
+    <t>https://www.msn.com/zh-hk/video/news/%E5%85%AB%E9%81%94%E9%80%9A%E8%81%BD%E5%88%B0-%E5%98%9F-%E5%98%9F%E5%98%9F-%E8%81%B2%E8%A6%81%E6%B3%A8%E6%84%8F-4%E6%89%B9%E5%85%AB%E9%81%94%E9%80%9A%E5%8D%A1%E5%8D%B3%E5%B0%87%E5%A4%B1%E6%95%88/vi-AA1wywHP</t>
+  </si>
+  <si>
+    <t>MSN根據八達通官方分享，部分八達通由「啪」聲變了「嘟～嘟嘟」聲，為此，官方澄清，聲音改變並不代表八達通卡壞了，而是拍卡提示聲響，用作提醒市民於三個月內盡快更換新的...24 小時前</t>
+  </si>
+  <si>
+    <t>2024-12-28 15:12:22</t>
+  </si>
+  <si>
+    <t>永豐金併京城銀、精成科收購日本PCB廠、數位保險7大鬆綁措施 本周大事回顧</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E6%B0%B8%E8%B1%90%E9%87%91%E4%BD%B5%E4%BA%AC%E5%9F%8E%E9%8A%80-%E7%B2%BE%E6%88%90%E7%A7%91%E6%94%B6%E8%B3%BC%E6%97%A5%E6%9C%ACpcb%E5%BB%A0-%E6%95%B8%E4%BD%8D%E4%BF%9D%E9%9A%AA7%E5%A4%A7%E9%AC%86%E7%B6%81%E6%8E%AA%E6%96%BD-%E6%9C%AC%E5%91%A8%E5%A4%A7%E4%BA%8B%E5%9B%9E%E9%A1%A7-031003161.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經永豐金27 日晚間召開重訊，以現金及換股方式，總金額599 億元併京城銀；精成科26 日宣布，以新台幣84 億元收購日本PCB 廠；金管會主委彭金隆周四對外宣布「數位保險公司」七...4 小時前</t>
+  </si>
+  <si>
+    <t>.在這篇文章中:
+永豐金周五 (27 日) 晚間召開重訊，以現金及換股方式，總金額 599 億元併京城銀；精成科周四 (26 日) 宣布，以新台幣 84 億元收購日本 PCB 廠；金管會主委彭金隆周四對外宣布「數位保險公司」七大開放措施，將於明年上路，以下為本周大事回顧：
+永豐金下聘金近 600 億元併京城銀 溢價近 9% 取得 100% 股權
+永豐金控 (2890-TW) 與京城銀行 (2809-TW) 周五 (27 日) 晚間召開重訊記者會公布「婚事」，永豐金將支付部分現金，並發行新股給京城銀全體股東，以每 1 股京城銀普通股將換得新台幣 26.75 元現金與 1.15 股永豐金普通股，以今天收盤價計算，「聘金」約為 599 億元，京城銀將成為永豐金持股 100% 子公司。
+PSA 華科事業群再對日本出手 精成科以 84 億元收購日本 PCB 廠
+PSA 華科事業群旗下精成科技 (6191-TW) 周四 (26 日) 召開重大訊息說明，精成決議將以 397 億日元 (約新台幣 84 億元) 收購日商 PCB 製造公司—Lincstech Co., Ltd. 的 100% 股權，這是 PSA 華科事業群人主精成科技以來繼收購日本 ELNA 後，再度出手收購日本 PCB 廠。
+彭金隆端政策牛肉 「數位保險公司」七大鬆綁明年 5 月後上路
+2024 歲末年終，金管會主委彭金隆周四 (26 日) 親自對外公布「數位保險公司」七大開放措施，將不再稱呼「純網保」，正名為「數位保險公司」，其中，創新型或保障型保險商品占比只要 15% 以上即可，不再限制全線上服務，資本額、發起人等限制也有所鬆綁，同時希望引進國際成功案例來台設立分公司。
+彭金隆強調，未來不再限時限額，希望新創團隊審慎評估、充足準備再送件，目前國內、國外已有業者表達高度意願，待法規預告完成，最快 2025 年 5 月受理申請。
+銀行高資產財管業務二大鬆綁農曆年前上路 估至少 5 家來申請
+金管會打造台灣成為亞洲資產管理中心，銀行局周四 (26 日) 宣布修正「銀行辦理高資產客戶適用之金融商品及服務管理辦法」，首先放寬銀行發行結構型金融債券銷售對象，不侷限億級客戶，專業投資人也能投資，其次，銀行申請高資產業務的基本門檻中刪除資產規模。
+銀行局長莊琇媛透露，先前有 2、3 家銀行反映因 AUM 限制而無法申請，預計 2025 年 1 月底、農曆年前適用新規，至少將有 5 家銀行會來申請執照。
+夏普出售相機模組資產予鴻海 降低設備業務投資負擔</t>
+  </si>
+  <si>
+    <t>2024-12-28 16:08:27</t>
+  </si>
+  <si>
+    <t>本週台灣金融市場及科技產業發生多起重大事件：永豐金控以近600億元併購京城銀行，精成科技收購日本PCB廠，金管會鬆綁數位保險公司設立規範，並放寬銀行高資產財管業務限制。這些事件都將對台灣的金融和科技產業產生深遠影響。</t>
+  </si>
+  <si>
+    <t>永豐金控以現金及換股方式，近600億元併購京城銀行，精成科技以84億元收購日本PCB廠Lincstech Co., Ltd.。金管會宣布「數位保險公司」七大開放措施，明年上路，並放寬銀行高資產財管業務，農曆年前上路，估計至少5家銀行申請執照。</t>
+  </si>
+  <si>
+    <t>永豐金控、京城銀行、併購、精成科技、PCB、LincstechCo.,Ltd.、數位保險公司、金管會、高資產財管、銀行、金融產業、科技產業、投資、收購、法規鬆綁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永豐金控併購京城銀行擴大市場佔有率，提升競爭力。
+精成科技收購日本PCB廠，拓展國際市場。
+金管會鬆綁法規，促進數位保險產業發展，吸引國際資金。
+放寬銀行高資產財管業務限制，提升銀行競爭力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永豐金控併購京城銀行交易規模龐大，整合風險存在。
+精成科技收購日本PCB廠面臨文化差異及經營整合挑戰。
+數位保險公司新法規的實施效果仍待觀察。
+放寬高資產財管業務限制，可能增加金融風險。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永豐金控併購京城銀行後，可發揮規模經濟效益，提升獲利能力。
+精成科技收購日本PCB廠後，可取得新技術和市場。
+數位保險公司新法規有助於金融科技創新和發展。
+放寬高資產財管業務限制，能吸引更多高淨值客戶。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">併購交易失敗風險。
+國際經濟環境變化影響投資報酬。
+數位保險公司競爭加劇。
+高資產財管業務風險管理挑戰。
+</t>
+  </si>
+  <si>
+    <t>聖誕行情失靈？華爾街分析師這麼看美股大跌</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E8%81%96%E8%AA%95%E8%A1%8C%E6%83%85%E5%A4%B1%E9%9D%88-%E8%8F%AF%E7%88%BE%E8%A1%97%E5%88%86%E6%9E%90%E5%B8%AB%E9%80%99%E9%BA%BC%E7%9C%8B%E7%BE%8E%E8%82%A1%E5%A4%A7%E8%B7%8C-181002434.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經美股主要股指周五(27 日) 全面跳水，雖然市場參與者熱切期待所謂「聖誕行情」到來但卻事與願違，當紅炸子雞「美股七雄」都一片哀嚎。除獲利了結等技術因素，10 年期美債殖...7 小時前</t>
+  </si>
+  <si>
+    <t>.在這篇文章中:
+美股主要股指周五 (27 日) 全面跳水，雖然市場參與者熱切期待所謂「聖誕行情」到來但卻事與願違，當紅炸子雞「美股七雄」都一片哀嚎。除獲利了結等技術因素，10 年期美債殖利率徘徊 7 個月最高，加劇美股下行。
+主要股指自早盤加速下挫，截至盤中跌幅擴大，道瓊工業指數跌逾 500 點或近 1.2%，那斯達克綜合指數跌逾 420 點或近 2.1%，標普 500 指數跌近 1.6%，費城半導體指數跌近 1.6%。美債 10 年期殖利率升至 4.6%、美元指數升至 107.895。
+「美股七雄」中，蘋果 (AAPL) 盤中跌近 1.9%、亞馬遜 (AMZN) 跌 2.3%、微軟 (MSFT) 跌進 2.5%、Alphabet(GOOGL)跌 2.3%、Meta Platforms(META)跌進 1.9%、輝達 (NVDA) 跌近 2.9%、特斯拉 (TSLA) 跌近 4.6%。追蹤美股七雄的 Roundhill Magnificent Seven ETF(MAGS)跌近 2.8%，一度下探一周來新低。
+此外，標普 500 指數成分股中約有 412 檔股票下跌，標普科技板塊跌 1.8% 最深，其次是跌 1.6% 的非必需消費品板塊和跌 1.2% 的通訊服務板塊，能源板塊追隨油價逆勢上漲。
+有分析指出，周五幾乎沒有驅動市場大幅變化的經濟數據或新聞，外加歐股休市兩日後回歸，以及整體市場在年末假期周交投清淡，讓本月早些時候被蜂擁買入的晶片和大型科技股影響凸顯。
+美債殖利率越高 美股壓力越大
+每日市場研投觀點 The Sevens Report 主編 Tom Essaye 寫到，在沒有主要新聞、數據和交易清淡的當下，作為資產定價之錨的 10 年期美債殖利率將對股市產生影響，值利率越高，對股市的壓力越大。
+Bespoke Investment Group 聯合創辦人 Paul Hickey 也持相同觀點稱，10 年期美債殖利率近期持續上測 4.60%，刷新 7 個月最高，而當時即今年 4 月份的最高利率曾升破 4.70% 關口，如果未來幾天 (重新) 達到這一水準，可能會對股市造成問題。
+美債殖利率周五走勢不一，對利率更敏感的短債殖利率下挫，10 年美國基準公債殖利率一度升至 4.62%，接近昨日觸及 4.64% 所創的 7 個月最高，美債殖利率曲線趨陡。
+法國 La Financiere de L’Echiquier 交易主管 David Kruk 稱，今年年底最重要的現像是 10 年期美債殖利率的上漲。
+他說：「這顯示每個人都在等待 1 月份川普就職後對通膨的影響。此外，大多數交易都是技術性的，例如空頭回補和獲利了結，但沒有出現像每年這個時候一樣的重大趨勢。」
+還有分析指出，由於美國經濟保持彈性，投資人更擔心川普的關稅和減稅政策將刺激價格上漲，迫使聯準會 (Fed) 採取更鷹派立場，同時也觀望 1 月中旬的就業和通膨數據是否意外擾亂 Fed 計畫。
+目前，交易員押注 Fed 到 2025 年底將降息不到兩次，自 12 月 17 日聯邦公開市場委員會 (FOMC) 會議前夕以來，5 至 30 年期美債殖利率已集體上漲逾 15 個基點。截至周四，彭博美國公債指數在 12 月累積下跌了 1.7%，讓年內漲幅縮減至不到 0.5%。
+市場資金面的壓力
+高盛 (GS) 等主流投資銀行也注意到市場資金面的壓力、退休基金年末在股債之間調倉等技術因素，可能加劇短期內市場拋售和波動。
+一方面，下周交易員將關注回購市場，並警惕今年第三季末出現的短暫融資壓力可能會重演。
+與此同時，高盛交易部門估計，有鑑於股票和債券的走勢，美國退休金將出售 210 億美元的美國股票，並在月底前購買同等金額的債券，在周三出現小幅拋售之前，再平衡額度曾高達 300 億美元。
+以過去三年所有買賣估值的絕對美元價值計算，210 億美元的待出售美股金額排在第 86 百分位，即數額較高、拋售壓力較大，自 2000 年 1 月以來則排在第 87 百分位，這似乎有助於解釋市場突然拋售的原因。
+此外，高盛日前曾指出，Fed 上周「鷹派降息」觸發的標普大盤下挫也引發一些量化交易 (CTA) 拋售，這些追漲殺跌的「聰明錢」在過去五天內出售了約 75 億美元的美國股票，預估未來 5 天內也將出售 40 億美元，不過 CTA 拋售潮基本上已經過去。
+分析師仍樂觀看明年 看輕短期波動影響
+花旗美股策略師 Scott Chronert 仍看好美股、看輕短期波動的影響。他認為，估值很高和隱含的成長預期為未來一年的股市設定高標準。
+Chronert 說：「整體而言，這種格局加上一段時間內缺乏真正的股市回調，確實使市場更容易受到波動加劇的影響。但如果基本面情況持續，我們將在標普 500 指數於明年上半年回檔時買入。」
+The Sevens Report 的 Tom Essaye 也認為，最近股市下跌讓散戶的盲目興奮感消退了一些，但並沒有削弱專業投資顧問的情緒。
+Essaye 說：「市場情緒不再盲目樂觀，一般投資人在新年伊始對市場的前景展望更加平衡，這將是一件好事，因為它降低了股市的泡沫風險。不過，如果我們收到壞的政治消息，或者 Fed 官員指向降『暫停』，這可能會導致美股在更多短期、大幅下跌。 」
+凱投宏觀（Capital Economics）的首席市場經濟學家 John Higgins 重申，標普 500 指數大盤可能在 2025 年再漲 16%，到明年年底可能會接近 7,000 點，他也提到，債市拋售導致上周起股市走軟。
+Higgins 說：「這種樂觀的觀點是基於一種信念，即 10 年期 TIPS 殖利率到明年年底不會比現在更高。此外，標普 500 成分股公司的未來 12 個月每股收益將繼續小幅成長。」
+不過他仍不認為美國會透過赤字融資進行大規模財政擴張，後者會大幅推高美國公債期限溢價，而目前美國公債期限溢價仍處於較低水準。
+更多鉅亨報導 •〈美股早盤〉主要指數開低 那指跌逾250點 •Fed降息展望保守 美元有望創下近7%年漲幅
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 16:08:47</t>
+  </si>
+  <si>
+    <t>美股主要股指周五全面跳水，道瓊工業指數跌逾500點，那斯達克綜合指數跌逾420點，標普500指數跌近1.6%，主要原因是獲利了結、10年期美債殖利率攀升至7個月高點4.6%以及市場對聯準會未來利率政策的擔憂。美股「七雄」全線下跌，其中特斯拉跌幅最大，接近4.6%。分析師認為，市場交投清淡、美債殖利率上升、以及投資者對川普的經濟政策和聯準會未來動向的擔憂是導致市場下跌的主要因素。儘管如此，部分分析師仍對明年美股走勢持樂觀態度。</t>
+  </si>
+  <si>
+    <t>美股主要股指周五全面跳水，道瓊工業指數跌逾 500 點，那斯達克綜合指數跌逾 420 點，標普 500 指數跌近 1.6%。10 年期美債殖利率升至 4.6%、刷新 7 個月最高。美股「七雄」全線下跌，特斯拉跌近 4.6%。分析師指出，市場交投清淡，美債殖利率上升，投資者擔憂川普的經濟政策和聯準會未來動向，是導致市場下跌的主要因素。部分分析師仍看好明年美股走勢。</t>
+  </si>
+  <si>
+    <t>美股，道瓊工業指數，那斯達克綜合指數，標普500指數，美債殖利率，特斯拉，蘋果，亞馬遜，微軟，Alphabet，MetaPlatforms，輝達，聯準會(Fed)，川普，獲利了結，市場交投清淡，技術性因素，經濟數據，通膨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文章全面分析了美股下跌的原因，包括技術面、基本面和市場情緒等多個方面。
+文章引用了多位專家的觀點，增加了文章的可信度。
+文章既分析了短期市場的波動，也展望了明年的市場走勢。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文章篇幅較長，讀者需要花費較多時間閱讀。
+文章中部分數據和觀點可能存在一定的偏差。
+文章沒有對未來市場走勢做出明確的預測。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以針對特定個股進行更深入的分析。
+可以對不同投資策略的有效性進行比較。
+可以對市場風險進行更全面的評估。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">市場行情瞬息萬變，文章中的分析和預測可能很快過時。
+其他媒體可能會發表與文章觀點相左的分析，影響文章的可信度。
+讀者可能缺乏一定的金融知識，難以理解文章中的部分內容。
+</t>
+  </si>
+  <si>
+    <t>BioNTech就新冠疫苗和解支付高達12.6億美元財經新聞Financial News</t>
+  </si>
+  <si>
+    <t>https://www.aastocks.com/share/news/aafn/NOW.1406571?l=chi</t>
+  </si>
+  <si>
+    <t>AASTOCKS.com德國藥廠BioNTech(BNTX.US)表示，已與美國國立衛生研究院和美國賓州大學就其新冠疫苗相關特許權使用費支付達成兩項單獨的和解協議，共涉資12.6億美元。15 小時前</t>
+  </si>
+  <si>
+    <t>http://www.aastocks.com/tc/stocks/news/aafn-con/NOW.1406571/latest-news</t>
+  </si>
+  <si>
+    <t>2024-12-28 16:09:13</t>
+  </si>
+  <si>
+    <t>內地電動車再掀減價戰比亞迪兩車款10萬有找</t>
+  </si>
+  <si>
+    <t>https://std.stheadline.com/daily/article/2649319/%E6%97%A5%E5%A0%B1-%E8%B2%A1%E7%B6%93-%E5%85%A7%E5%9C%B0%E9%9B%BB%E5%8B%95%E8%BB%8A%E5%86%8D%E6%8E%80%E6%B8%9B%E5%83%B9%E6%88%B0%E6%AF%94%E4%BA%9E%E8%BF%AA%E5%85%A9%E8%BB%8A%E6%AC%BE10%E8%90%AC%E6%9C%89%E6%89%BE</t>
+  </si>
+  <si>
+    <t>星島日報內地電動車市場再掀減價戰，中資電動車巨頭比亞迪（1211）進行年底促銷，由即日起至明年1月26日，兩款車型宋Pro DM-i及秦Plus EV售價均低至9.98萬元（人民幣，同下），分別減價...16 小時前</t>
+  </si>
+  <si>
+    <t>.內地電動車再掀減價戰比亞迪兩車款10萬有找
+內地電動車市場再掀減價戰，中資電動車巨頭比亞迪（1211）進行年底促銷，由即日起至明年1月26日，兩款車型宋Pro DM-i及秦Plus EV售價均低至9.98萬元（人民幣，同下），分別減價約11.5%和9.1%。此外，兩款車型的最高置換補貼分別達2.4萬元和2.5萬元。
+Tesla在內地市場亦有減價。在平安夜當日，Tesla公布最新優惠活動，年尾前訂購Model Y兼取貨，即可享有減價1萬元優惠，同時搭配5年期零利率車貸。此舉令中國Model Y的後輪驅動版起始售價降至23.99萬，為Model Y在全球市場的最低價格。此外，Tesla「五年零息」優惠也延長至明年1月31日。對此，Tesla中國強調，「最新優惠主要針對的是現貨車款，車主買了不用等車」。 Tesla延「五年零息」優惠
+日前，理想汽車（2015）創辦人李想指出，汽車將由工業時代的交通工具，進化成人工智能（AI）時代的空間機械人。公司在研發方面，一年投入超過100億元，接近一半投入在人工智能方面。
+針對理想在AI時代的戰略布局，他表示，未來百分之百會做人形機械人，但理想要先解決L4自動駕駛。實現L4自動駕駛以後，家庭用車也會變得更便宜，成本變得更低，願意擁有汽車的人會變得更多。
+最新回應</t>
+  </si>
+  <si>
+    <t>2024-12-28 16:09:33</t>
+  </si>
+  <si>
+    <t>中國電動車市場掀起新一輪價格戰，比亞迪為刺激年底銷售，將宋Pro DM-i和秦Plus EV兩款車型的價格分別降至9.98萬元人民幣，並提供高額置換補貼。特斯拉也加入價格戰，推出Model Y的減價及五年零利率貸款優惠，以刺激銷售並加快庫存周轉。  理想汽車創辦人李想則指出未來汽車將進化為AI時代的空間機械人，並預告公司將投入研發人形機器人。</t>
+  </si>
+  <si>
+    <t>比亞迪宋Pro DM-i及秦Plus EV售價均低至9.98萬元，分別減價約11.5%和9.1%，並提供高額置換補貼。Tesla年尾前訂購Model Y享有減價1萬元優惠，同時搭配5年期零利率車貸，起始售價降至23.99萬元，為全球最低價。「最新優惠主要針對的是現貨車款，車主買了不用等車」。理想汽車創辦人李想指出，未來汽車將進化成人工智能時代的空間機械人，公司將投入研發人形機器人。</t>
+  </si>
+  <si>
+    <t>比亞迪、特斯拉、電動車、價格戰、減價、促銷、ModelY、宋ProDM-i、秦PlusEV、新能源汽車、中國市場、AI、人工智能、人形機器人、理想汽車、零利率貸款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比亞迪和特斯拉的減價策略，能快速提升銷售量和清理庫存。
+價格競爭能刺激市場需求，擴大電動車市場規模。
+特斯拉的零利率貸款優惠，降低了消費者購車門檻。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">激烈的價格競爭可能導致利潤率下降。
+價格戰可能引發行業惡性競爭。
+長期來看，過度依賴價格戰不可持續。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以吸引更多消費者進入電動車市場。
+可以加速電動車技術的發展和普及。
+可以促進電動車產業鏈的發展。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">價格戰可能損害品牌形象。
+價格戰可能引發消費者對產品質量的質疑。
+政府可能出台政策干預價格競爭。
+</t>
+  </si>
+  <si>
+    <t>年終盤點 | 中籤暴賺6500港幣、年內飆漲660%！2024港股IPO賺錢&amp;人氣效應雙重回歸</t>
+  </si>
+  <si>
+    <t>https://www.hstong.com/news/hk/detail/24122411561762316</t>
+  </si>
+  <si>
+    <t>华盛通華盛資訊12月27日訊，2024年香港IPO市場隨港股大市復甦。據港交所數據顯示，2024年內預計將有70只新股上市，IPO數量同比2023年增長約3%；其中首日收漲概率60%，而去年該數據...18 小時前</t>
+  </si>
+  <si>
+    <t>原創精選&gt; 正文
+年終盤點 | 中籤暴賺6500港幣、年內飆漲660%！2024港股IPO賺錢&amp;人氣效應雙重回歸
+2024-12-27 20:08
+毛戈平(01318.HK)
+ 0 
+美的集團(00300.HK)
+ 0 
+經緯天地(02477.HK)
+ 0 
+華盛資訊12月27日訊，2024年香港IPO市場隨港股大市復甦。據港交所數據顯示，2024年內預計將有70只新股上市，IPO數量同比2023年增長約3%；其中首日收漲概率60%，而去年該數據為54%。
+總集資額超過835億港元，募資額有望重返全球全球第四，同比增長80%。其中巨頭IPO（募資額≥50億港元）公司4家，去年僅有1家。
+數據來源：畢馬威
+回顧全年，涌現出毛戈平、經緯天地等諸多賺錢及人氣效應爆表的打新熱潮；發仔帶你兩張圖回顧今年最印象深刻的新股，一起看看有沒有你參與的新股呢~
+年度港股打新&amp;炒新最賺IPO：經緯天地、廣聯科技控股
+年度港股打新最賺Top5
+股票
+中籤一手首日賺
+經緯天地
+6560港元
+泓基集團
+3400港元
+老鋪黃金
+2950港元
+宜搜科技
+2660港元
+毛戈平
+2280港元
+年度港股炒新最賺Top5
+股票
+年內漲幅
+廣聯科技控股
+660.64%
+經緯天地
+489.00%
+老鋪黃金
+406.17%
+同源康醫藥-B
+358.68%
+經發物業
+340.00%
+年度港股打新最熱IPO：草姬集團、毛戈平
+年度港股打新超購Top5
+股票
+超購倍數
+首日漲幅
+草姬集團
+6082.6倍
+10.40%
+晶科電子股份
+5676.8倍
+47.65%
+優博控股
+2502.0倍
+6.00%
+元續科技
+2479.6倍
+-39.26%
+卡羅特
+1346.3倍
+58.30%
+年度港股打新凍資Top5
+股票
+孖展金額
+首日漲幅
+毛戈平
+1738.1億
+76.51%
+華潤飲料
+1323.9億
+15.03%
+卡羅特
+1010.5億
+58.30%
+晶科電子股份
+639.0億
+47.65%
+順豐控股
+473.3億
+0.00%
+A+H熱潮來襲！明年哪些熱門IPO最值得期待
+展望2025年，港交所近年來為提振港股IPO市場採取諸多政策，包括放寬特專科技IPO、A+H上市的最低門檻。此外，中國證監會鼓勵內地龍頭企業來港上市以及中國內地計劃適度地寬松貨幣政策將繼續推動IPO趨勢。
+機構認為港股IPO回暖趨勢有望持續，德勤預計2025年港股市場將迎來約80只新股上市，融資規模將達到1300億至1500億港元，繼續位列全球前五。
+與此同時，由於港股市場作為中國企業國際化業務跳板的便利性，今年港股的「含A量」持續提升，據華盛證券獨家統計，年內包括寧德時代、海天味業、恆瑞醫藥、賽力斯、順豐控股、美的集團在內的超20家A股上市公司籌劃或分拆子公司赴港上市。其中順豐、龍蟠和美的3家公司已成功在港上市，而去年同期只有1家A股上市公司在港上市。
+那麼明年還有哪些熱門港股IPO值得重點呢？發仔為各位打新人整理了最新打新日曆，一圖帶你看懂：
+點擊查看： 華盛0手續費0利息抽新股活動條款及細則
+2024年各位發友打新戰績如何？
+年末的毛戈平、草姬等火爆新股你吃肉了嗎？
+2025年寧德時代、賽力斯等超級IPO你又是否看好呢
+歡迎各位留言討論~
+風險提示: 投資涉及風險，證券價格可升亦可跌，更可變得毫無價值。投資未必一定能夠賺取利潤，反而可能會招致損失。過往業績並不代表將來的表現。在作出任何投資決定之前，投資者須評估本身的財政狀況、投資目標、經驗、承受風險的能力及瞭解有關產品之性質及風險。個別投資產品的性質及風險詳情，請細閲相關銷售文件，以瞭解更多資料。倘有任何疑問，應徵詢獨立的專業意見。
+推薦文章
+港股周報 | 小米年內累漲近119%，股價逼近歷史新高；「微信小店」概念引爆港股！微盟集團周內累升30%
+今天 13:43港股周報 | 小米年內累漲近119%，股價逼近歷史新高；「微信小店」概念引爆港股！微盟集團周內累升30%
+一周財經日曆 | 跨年行情來襲？中美PMI數據「打頭陣」；港、美股下周三休市
+今天 10:59一周財經日曆 | 跨年行情來襲？中美PMI數據「打頭陣」；港、美股下周三休市
+美股收盤：納指、標普500指數均跌逾1%，特斯拉跌近5%
+今天 09:09美股收盤：納指、標普500指數均跌逾1%，特斯拉跌近5%
+4萬億美元！蘋果全力衝刺，明年1月見分曉？
+今天 08:534萬億美元！蘋果全力衝刺，明年1月見分曉？
+年終盤點 | 年收益18358倍！2024年美股暴富方案出爐：如何將1000美元變成1800萬美元？
+12-27 23:28年終盤點 | 年收益18358倍！2024年美股暴富方案出爐：如何將1000美元變成1800萬美元？
+美股機會日報 | 量子計算股狂飆！分析師卻發出警告；BTIG看空蘋果漲勢恐難持續
+12-27 21:26美股機會日報 | 量子計算股狂飆！分析師卻發出警告；BTIG看空蘋果漲勢恐難持續
+美股醫療股迎來反彈契機：三大明星公司或成2025年投資亮點
+12-27 16:41美股醫療股迎來反彈契機：三大明星公司或成2025年投資亮點
+蘋果股價逼近4萬億美元市值，黃金時代還是泡沫危機
+12-27 16:39蘋果股價逼近4萬億美元市值，黃金時代還是泡沫危機
+風險及免責提示：以上內容僅代表作者的個人立場和觀點，不代表華盛的任何立場，華盛亦無法證實上述內容的真實性、準確性和原創性。投資者在做出任何投資決定前，應結合自身情況，考慮投資產品的風險。必要時，請諮詢專業投資顧問的意見。華盛不提供任何投資建議，對此亦不做任何承諾和保證。
+關於我們服務協議意見反饋在線客服
+（工作日09：30 - 次日05：30）
+© 2024 深圳市時代華盛網絡科技有限公司版權所有 粵ICP備16068286號</t>
+  </si>
+  <si>
+    <t>2024-12-28 16:10:03</t>
+  </si>
+  <si>
+    <t>2024年香港IPO市場復甦，全年預計有70隻新股上市，總集資額超過835億港元，募資額有望重返全球第四。首日收漲概率達60%。  文章盤點了2024年港股IPO市場表現，包括打新最賺、炒新最賺、打新最熱門以及打新凍資最多的股票，並展望2025年港股IPO市場趨勢，預計將有約80隻新股上市，融資規模將達到1300億至1500億港元。  文章也提到A+H上市熱潮，許多A股上市公司計劃或分拆子公司赴港上市。</t>
+  </si>
+  <si>
+    <t>2024年香港IPO市場隨港股大市復甦，預計將有70隻新股上市，總集資額超過835億港元，首日收漲概率60%。經緯天地中籤一手首日賺6560港元，廣聯科技控股年內漲幅達660.64%。展望2025年，預計將有約80隻新股上市，融資規模將達到1300億至1500億港元。許多A股上市公司計劃或分拆子公司赴港上市。</t>
+  </si>
+  <si>
+    <t>香港IPO，港股，新股上市，集資額，首日收漲，經緯天地，廣聯科技控股，打新，炒新，A+H上市，寧德時代，海天味業，恆瑞醫藥，賽力斯，順豐控股，美的集團</t>
+  </si>
+  <si>
+    <t xml:space="preserve">香港IPO市場復甦，為投資者提供更多機會。
+部分新股表現亮眼，投資回報豐厚。
+A+H上市熱潮持續，為市場注入更多活力。
+預計2025年市場將繼續保持增長態勢。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">市場存在風險，投資需謹慎。
+部分新股表現不佳，存在投資風險。
+市場波動性較大，影響投資回報。
+政策變化可能影響市場發展。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">投資者可參與打新和炒新，獲得高額回報。
+A+H上市公司為投資者提供更多選擇。
+市場增長為投資者創造更多機會。
+部分行業發展迅速，投資潛力巨大。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">市場風險增加，投資需謹慎。
+政策變化可能影響市場發展。
+全球經濟下行可能影響市場表現。
+競爭加劇，影響新股表現。
+</t>
+  </si>
+  <si>
+    <t>〈和大尾牙〉趕上機器人浪潮拓市場 料全球電動車市場壁壘會更分明</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E5%92%8C%E5%A4%A7%E5%B0%BE%E7%89%99-%E8%B6%95%E4%B8%8A%E6%A9%9F%E5%99%A8%E4%BA%BA%E6%B5%AA%E6%BD%AE%E6%8B%93%E5%B8%82%E5%A0%B4-%E6%96%99%E5%85%A8%E7%90%83%E9%9B%BB%E5%8B%95%E8%BB%8A%E5%B8%82%E5%A0%B4%E5%A3%81%E5%A3%98%E6%9C%83%E6%9B%B4%E5%88%86%E6%98%8E-111747903.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經和大(1536-TW) 董事長沈國榮今(27) 日在集團尾牙表示，傳產業者這2 年真的是非常辛苦，但度過最困難的時代，將邁向更大的發展，除了將切入半導體封裝版圖，也將拓展機器人...21 小時前</t>
+  </si>
+  <si>
+    <t>.和大 (1536-TW) 董事長沈國榮今 (27) 日在集團尾牙表示，傳產業者這 2 年真的是非常辛苦，但度過最困難的時代，將邁向更大的發展，除了將切入半導體封裝版圖，也將拓展機器人市場。
+沈國榮說，目前中國是使用機器人最大的市場，相關業務將先拓展至中國，為營運添新成長動能。
+而在主要汽車業務上，沈國榮說，全球燃油車銷售下滑，電動車有成長但也不是沒有壓力，因此，和大趁著低潮期反而思考趕上機器人發展，依目前的設備「完全有能力」，目前產能規劃可因應 80 億元營收的各業務總出貨所需。
+另一方面，沈國榮透露，將向樺銳綠電簽約下未來 10 年購買 6 億度綠電，以符合未來的發展趨勢，同步有望完成策略合作投資。
+對於車市展望，沈國榮說明，中國電動車競爭激烈，預計這場消長戰到明年下半年就會慢慢緩和，到後年上半年打完，看未來中國是比亞迪的市場，歐洲和美國則是特斯拉和老車廠的市場，「中國車要進美國市場幾乎不可能，美國車要進入也會有阻礙」。
+更多鉅亨報導 •董座證實跨足CoWoS 9月完整機電設備亮相 10月出貨
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 16:10:24</t>
+  </si>
+  <si>
+    <t>和大 (1536-TW) 董事長沈國榮在集團尾牙上表示，公司將拓展機器人市場，並優先拓展中國市場。  同時，和大將切入半導體封裝業務。  儘管全球汽車市場面臨挑戰，和大已做好準備，目前產能可支持80億元營收。此外，和大將與樺銳綠電簽約，未來十年購買6億度綠電，並可能進行策略合作投資。沈國榮預測，中國電動車市場競爭將在明年下半年緩和，未來中國市場將以比亞迪為主，歐美市場則由特斯拉和傳統車廠主導。</t>
+  </si>
+  <si>
+    <t>和大董事長沈國榮表示，將切入半導體封裝版圖，也將拓展機器人市場，優先拓展中國市場。目前產能規劃可因應80億元營收的各業務總出貨所需。將向樺銳綠電簽約下未來10年購買6億度綠電，並有望完成策略合作投資。沈國榮預測，中國電動車競爭明年下半年緩和，未來中國市場將以比亞迪為主，歐美市場則由特斯拉和老車廠主導，「中國車要進美國市場幾乎不可能，美國車要進入也會有阻礙」。</t>
+  </si>
+  <si>
+    <t>和大,1536-TW,沈國榮,機器人,半導體封裝,中國市場,電動車,比亞迪,特斯拉,綠電,樺銳綠電,策略合作,汽車市場,營收</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大和已具備拓展機器人及半導體封裝市場的能力，並有充足產能。
+與樺銳綠電合作確保未來綠電供應，符合永續發展趨勢。
+對市場趨勢的判斷，有助於提前佈局。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拓展新業務面臨市場競爭和技術風險。
+高度依賴汽車產業，市場波動影響較大。
+綠電合作的具體細節及投資效益尚不明確。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">機器人市場及半導體封裝市場均具有龐大商機。
+綠電合作提升公司形象，符合ESG趨勢。
+成功轉型可降低對單一產業的依賴。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中國電動車市場競爭激烈，新業務拓展風險高。
+全球經濟下行風險影響市場需求。
+新業務投資成本高，回收期長。
+</t>
+  </si>
+  <si>
+    <t>【量大強漲股整理】台股周線收紅，2025年Q1選股新題材大公開?!</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E9%87%8F%E5%A4%A7%E5%BC%B7%E6%BC%B2%E8%82%A1%E6%95%B4%E7%90%86-%E5%8F%B0%E8%82%A1%E5%91%A8%E7%B7%9A%E6%94%B6%E7%B4%85-2025%E5%B9%B4q1%E9%81%B8%E8%82%A1%E6%96%B0%E9%A1%8C%E6%9D%90%E5%A4%A7%E5%85%AC%E9%96%8B-100651560.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經美國股市漲跌互見，道瓊斯指數小幅上漲0.07%，標普500 指數小跌0.04%22 小時前</t>
+  </si>
+  <si>
+    <t>.美國股市漲跌互見，道瓊斯指數小幅上漲 0.07%，標普 500 指數小跌 0.04%，那斯達克指數則微跌 0.05%，費城半導體指數略微上漲 0.03%，在美股七大巨頭中，僅 (AAPL-US) 蘋果股價上漲 0.32%，而 (TSLA-US) 特斯拉則回吐假期前的漲幅，跌幅為 1.76%，市場對最新經濟數據和政策變化保持高度關注，當周初領失業金人數為 21.9 萬人，低於經濟學家預期的 22.5 萬人，但持續申請失業金人數顯著增加，顯示出勞動市場的挑戰加劇，顯示失業者再找工作變得更加艱難，此外，市場也擔心美國總統川普未來政策的變數，這一不確定性對市場情緒產生了影響，並推動金價上漲，美國聯準會對未來降息的立場有所變化，開始顯現出更多的鷹派態度，這使得美國 10 年期國債殖利率上升，達到自 5 月以來的最高水平，展望 2025 年，市場的主要憂慮集中在美聯儲的貨幣政策調整、川普可能的貿易和關稅政策以及其他經濟政策，還有不斷升級的地緣政治風險，台股方面 2024 年進入倒數計時，下周僅剩兩個交易日，由於外資剛過完聖誕假期，即將迎來跨年，台股交投清淡，內資撐盤，加權權指數今日小幅震盪收高，終場上漲 28.74 點，收在 23275.68 點，成交量縮至 2858.01 億，近期雖然指數雖然量縮震盪，不過目前均線多頭排列，目前多頭趨勢不變，目前
+周線翻紅，指數本周累計上漲 765.43 點，市場樂觀看待 2025 年進入牛市，並期待元月紅包行情。
+權值股方面，(2330-TW) 台積電，上漲 0.46%，收在 1090 元，根據日本媒體「讀賣新聞」和共同社的報導，木村敬在記者會上確認了台積電熊本工廠的量產消息，並表示台積電已證實，該工廠在 12 月已按照計畫開始量產，台積電的日本子公司 JASM（日本先進半導體製造）也於本月 23 日通知熊本縣政府，表示量產已正式啟動，台積電進駐熊本設立半導體製造基地，對於日本乃至全球半導體產業具有重要意義，這不僅強化了台積電在國際市場的布局，也幫助日本提升在先進半導體製造領域的競爭力；(2317-TW) 鴻海，下跌 0.53%，收在 186.5 元，全球領先的人工智慧（AI）資料中心建置與基礎建設解決方案供應商智百特（Zettabyte）於 27 日宣布，與全球最大科技製造服務商鴻海建立正式的「策略合作夥伴」關係，此次合作將以本輪融資為基礎，旨在推動創新，並促進高能源效益的 AI 解決方案普及，進一步提升企業在 AI 領域的競爭力，智百特的核心產品 Zware 是一款先進的 AI 資料中心管理軟體，專為優化 GPU 性能而設計，Zware 不僅顯著降低了用電量，還能最大化運算輸出的效能，幫助企業在 AI 運算中達到卓越的效率和可持續發展目標，這款解決方案不僅有助於提升運算效能，還對能源消耗和環境影響進行優化，對於追求綠色科技和高效能的企業來說，具有重要的市場價值；(2454-TW) 聯發科，上漲 0.70%，收在 1430 元，聯發科作為業界領先的 ASIC 服務提供商，正在積極轉型，朝向 AI 領域進軍，並持續拓展其市場份額，預計從明年下半年開始，聯發科的 AI 相關晶片將陸續進入量產，並開始貢獻營收，多數國內外法人對此持樂觀態度，並給予強烈買進評等，此外，聯發科目前的天璣 9400 晶片需求也呈現強勁增長，成為市場熱點題材，進一步提升其業務前景。
+2024.11.26 佳螢點名預告黃仁勳欽點三大題材股，將有機會發動!!! 無人機，今日強勢大漲向上!
+俄羅斯向烏克蘭發動攻擊的消息激發了市場對軍工相關股票的熱情，無人機相關概念股，(8033-TW) 雷虎、(5314-TW) 世紀、(7402-TW) 邑錡、(5371-TW) 中光電、(2630-TW) 亞航、(4541-TW) 晟田大幅上漲；其中 (5314-TW) 世紀，更是亮燈漲停! 再創新高；自來到 660 元大關，主研發無人機進入量產，首批訂單出貨至美國。其前三季 EPS 達 9.56 元，前 11 月營收年增翻倍，因無人機題材催化股價節節攀升，買盤無懼遭列注意股點火向上，持續改寫新高。
+(8033-TW) 雷虎，上漲 4.98%，收在 63.3 元；雷虎於 26 日宣布，已成功整合台灣無人機供應鏈，並開始生產完全台灣製造的無人機及其零組件，其中包括最新研發的「自殺式無人機」，這一突破不僅能強化國軍的不對稱作戰能力，也有望為歐美盟邦提供可靠的國防技術支援，雷虎的自殺式無人機具備先進的精準打擊能力，將對提升台灣在防衛領域的競爭力發揮關鍵作用，此外，雷虎在台灣本地化生產的策略，有助於降低對外部供應鏈的依賴，並進一步加強台灣在全球無人機市場中的競爭地位，隨著台灣無人機技術的提升，雷虎的產品未來有望進一步拓展至國際市場，為全球軍事需求提供更多支援。
+(4566-TW) 時碩工業，重新站上季線，並迎來國際大單的消息，推動股價上漲，昨日點名預告後也發動向上；精密金屬加工大廠時碩工業 11 月合併營收 4.16 億元，月增 2.08%、年增 19.19%，為近三個月新高，且連續八個月年增正成長；累計前 11 月合併營收 44.24 億元、年增 14.01%，為歷史同期次高。
+光通訊，CPO 雙連捷運站的 (3450-TW) 聯鈞，收盤再創新高! 來到 291 元大關；
+而和 (3081-TW) 聯亞也顯示出強勁的上漲勢頭，即使被分盤後仍然持續地墊高支撐走強， 代表矽光子的股票都有機會延續買盤向上。
+併購題材，(6191-TW) 精成科宣布以 84 億元收購日本 PCB 製造公司 Lincstech 的 100% 股權，股價隨即跳空漲停，達 58.6 元，成交量來到 3497 張；其他 PCB 相關股票，(6141-TW) 柏承，亮燈漲停、(5469-TW) 瀚宇博、(2368-TW) 金像電及 (2383-TW) 台光電的股價均有上漲，顯示出市場對於這些公司未來前景的看好。
+另外隨著中國「人類間質肺炎病毒」和日本「蘋果病」的疫情升溫，防疫概念股成為市場焦點，(1325-TW) 恆大、(9919-TW) 康那香、(3373-TW) 熱映等股票漲停，顯示出防疫需求的復甦，之下全數發動向上。
+類股持續呈現輪動現象，有機會續航到元月份紅包行情，選股將重於選市。
+台股周線收紅
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 16:10:44</t>
+  </si>
+  <si>
+    <t>本文報導了美國股市漲跌互見的狀況，道瓊指數小漲，標普500和那斯達克指數微跌，科技股表現分歧，蘋果上漲，特斯拉下跌。勞動市場數據顯示挑戰加劇，市場關注川普政策變數、聯準會鷹派態度以及地緣政治風險。台股方面，加權指數小幅收高，成交量縮減，權值股表現各異，台積電熊本廠量產、鴻海與智百特合作、聯發科積極進軍AI領域等消息影響股價。此外，無人機、光通訊、PCB及防疫概念股也因相關消息而表現強勁。市場預期2025年進入牛市，並期待元月紅包行情。</t>
+  </si>
+  <si>
+    <t>美國股市漲跌互見，道瓊斯指數小幅上漲 0.07%，那斯達克指數則微跌 0.05%，特斯拉跌幅為 1.76%，市場擔心美國總統川普未來政策的變數，美國聯準會對未來降息的立場有所變化…台股終場上漲 28.74 點，收在 23275.68 點，成交量縮至 2858.01 億…台積電熊本工廠 12 月已按照計畫開始量產…鴻海與智百特合作…聯發科積極轉型，朝向 AI 領域進軍…俄羅斯向烏克蘭發動攻擊的消息激發了市場對軍工相關股票的熱情…防疫概念股成為市場焦點…類股持續呈現輪動現象，有機會續航到元月份紅包行情。</t>
+  </si>
+  <si>
+    <t>美國股市、道瓊指數、標普500、那斯達克指數、特斯拉、蘋果、聯準會、川普、勞動市場、台股、加權指數、台積電、鴻海、聯發科、AI、無人機、光通訊、PCB、防疫概念股、地緣政治風險、元月紅包行情</t>
+  </si>
+  <si>
+    <t xml:space="preserve">涵蓋美股和台股資訊，提供市場全貌。
+包含多家重要公司動態，資訊豐富。
+分析市場趨勢和未來展望。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">資訊較為分散，缺乏整體性分析。
+部分資訊較為簡略，缺乏深入探討。
+缺乏數據圖表支持，難以直觀理解。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可深入分析美股和台股的聯動關係。
+可針對特定類股進行更深入的分析。
+可加入更多數據圖表，提升文章的可讀性。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">市場變化迅速，資訊容易過時。
+分析可能存在偏差，影響讀者判斷。
+缺乏獨特觀點，難以吸引讀者。
+</t>
+  </si>
+  <si>
+    <t>-60</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>IPO｜天岳先進擬赴港上市 傳明年下半年啟動程序</t>
+  </si>
+  <si>
+    <t>https://www.singtao.ca/6990331/2024-12-28/news-IPO%EF%BD%9C%E5%A4%A9%E5%B2%B3%E5%85%88%E9%80%B2%E6%93%AC%E8%B5%B4%E6%B8%AF%E4%B8%8A%E5%B8%82+%E5%82%B3%E6%98%8E%E5%B9%B4%E4%B8%8B%E5%8D%8A%E5%B9%B4%E5%95%9F%E5%8B%95%E7%A8%8B%E5%BA%8F/</t>
+  </si>
+  <si>
+    <t>singtao.ca內地科創板上市公司天岳先進周五（27日）晚上宣布，擬在在香港聯交所發行H股上市。公司表示，此舉是要加快公司的國際化戰略及海外業務布局，增強公司的境外融資能力。10 分鐘前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.IPO｜天岳先進擬赴港上市 傳明年下半年啟動程序
+內地科創板上市公司天岳先進周五（27日）晚上宣布，擬在在香港聯交所發行H股上市。公司表示，此舉是要加快公司的國際化戰略及海外業務布局，增強公司的境外融資能力。
+天岳先進表示，公司計劃與相關中介機構就本次H股上市的具體推進工作進行商討，關於本次H股上市的具體細節尚未確定，授權期限為自董事會審議通過之日起12個月內。內媒引述有接近天岳先進的人士指，正式啟動港股上市程序最快等到明年下半年。
+料有助提升治理水平
+有業內人士指，通過在香港上市，天岳先進可以吸引更多的國際投資者，為公司提供更多的資金和資源支持，有助於公司在全球範圍內進行業務拓展和市場競爭；另一方面，在港上市有助於公司提升治理水平和風險管理能力。
+天岳先進是一家寬禁帶半導體材料生產商，主營業務是碳化矽半導體材料的研發、生產和銷售，產品可廣泛應用於微波電子、電力電子等領域。今年首三季度，天岳先進營業總收入12.81億元，按年上升55.34%，凈利潤1.43億元，按年上升309.56%。
+首三季按年多賺309%
+報道引述業內人士指，赴港上市是推動A股公司國際化戰略的重要一環。本月以來，除天岳先進，已有多家A股上市公司宣布了「A+H」兩地上市的計劃，包括邁威生物、寧德時代、江波龍、三花智控、海天味業、恒瑞醫藥、均勝電子、安井食品等。
+聯交所與香港證監會今年10月18日宣布將優化新上市申請審批流程時間表，對百億市值的「合資格A股企業」赴港上市提供了快速審批時間表，亦吸引A股企業加快來港。「合資格A股上市企業」提交完全符合規定的申請，證監會及聯交所將分別只會發出一輪監管意見，在不多於30個工作日內完成監管評估。  </t>
+  </si>
+  <si>
+    <t>2024-12-28 17:10:24</t>
+  </si>
+  <si>
+    <t>中國科創板上市公司天岳先進計劃在香港聯交所發行H股上市，以加快國際化戰略、拓展海外業務及增強境外融資能力。儘管具體細節尚未確定，預計最快於明年下半年啟動程序。此舉預期將吸引更多國際投資者，提升公司治理水平和風險管理能力。天岳先進是一家寬禁帶半導體材料生產商，今年前三季營收和淨利潤均大幅增長。  近期多家A股公司也宣布了在港二次上市的計劃，香港聯交所和證監會也優化了上市審批流程，吸引更多A股企業赴港上市。</t>
+  </si>
+  <si>
+    <t>天岳先進擬赴港上市，加快國際化戰略及海外業務布局，增強境外融資能力。預計明年下半年啟動程序。在港上市有助於吸引更多國際投資者，提升公司治理水平和風險管理能力。天岳先進主營碳化矽半導體材料，今年首三季度營業總收入12.81億元，按年上升55.34%，凈利潤1.43億元，按年上升309.56%。香港聯交所與香港證監會優化新上市申請審批流程，為符合資格的A股企業提供快速審批。</t>
+  </si>
+  <si>
+    <t>天岳先進、香港聯交所、H股上市、A+H上市、碳化矽半導體材料、國際化戰略、海外業務、境外融資、寬禁帶半導體、投資者、公司治理、風險管理、營收、淨利潤、香港證監會、上市審批</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天岳先進擁有強勁的業績增長，為上市提供了堅實的基礎。
+香港市場擁有大量的國際投資者，有利於天岳先進的融資和發展。
+香港聯交所優化了上市審批流程，加快了上市進程。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上市過程可能面臨諸多不確定性，例如市場波動和監管風險。
+天岳先進需要適應香港資本市場的規則和要求。
+與其他A股公司競爭，爭奪投資者的資金。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通過上市，天岳先進可以獲得更多資金，擴大生產規模和研發投入。
+提升公司在國際上的知名度和影響力。
+吸引更多優秀人才加入公司。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全球經濟下行風險可能影響投資者的信心。
+半導體行業競爭激烈，可能影響天岳先進的市場份額。
+地緣政治風險可能影響公司的海外業務。
+</t>
+  </si>
+  <si>
+    <t>〈永豐金併京城銀〉現金+換股下聘金近600億元 溢價8.8%取得100%股權</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E6%B0%B8%E8%B1%90%E9%87%91%E4%B8%8B%E8%81%98%E9%87%91%E8%BF%91600%E5%84%84%E5%85%83%E4%BD%B5%E4%BA%AC%E5%9F%8E%E9%8A%80-%E6%BA%A2%E5%83%B9%E8%BF%919-%E5%8F%96%E5%BE%97100-%E8%82%A1%E6%AC%8A-131509111.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經永豐金控(2890-TW) 與京城銀行(2809-TW) 今(27) 日晚間召開重訊記者會公布「婚事」，永豐金將支付部分現金，並發行新股給京城銀全體股東.20 小時前</t>
+  </si>
+  <si>
+    <t>.在這篇文章中:
+永豐金控 (2890-TW) 與京城銀行 (2809-TW) 今 (27) 日晚間召開重訊記者會公布「婚事」，永豐金將支付部分現金，並發行新股給京城銀全體股東，以每 1 股京城銀普通股將換得新台幣 26.75 元現金與 1.15 股永豐金普通股，以今天收盤價計算，「聘金」約為 599 億元，京城銀將成為永豐金持股 100% 子公司。
+永豐金今天收盤價為 23.6 元、京城銀 49.55 元，若以該換股計算，約以 8.76% 溢價收購。京城銀目前股本 111.12 億元，市值約 550.62 億元。
+雙方董事會今天分別召開董事會決議通過「股份轉換契約」，並通過將於 2025 年 3 月 3 日召開股東臨時會，提請股東通過本合併案，並於取得相關主管機關核准後，訂定股份轉換基準日。
+京城銀亦將在股東臨時會後啟動其租賃子公司標售與證券子公司清算作業，永豐金承諾合理努力協助京城證券員工及經理人轉任至永豐金證券或關係企業；針對客戶部分，永豐金證券也將協助客戶匯撥集保帳戶並提供後續的服務。
+永豐金取得京城銀行 100% 股權後，將於一年內完成永豐銀行與京城銀行兩家子公司之合併作業。永豐金長期視員工為公司最重要的資產，強調合併後員工們的工作權不受影響，不僅會重視員工權益的保障，更將融合二家銀行的優點，以遍佈台灣的營業據點，提供客戶更完善、更便捷的金融服務。
+根據金管會銀行局統計至今年 9 月份全體國銀資料計算，永豐銀行與京城銀行合併後之總資產金額增加至 3.1 兆元，排名將由第 13 名上升至第 12 名；中小企業放款排名將由第 11 名上升至第 9 名 (民營銀行第 2 名)；1-9 月份累計稅前淨利排名由第 10 名上升至第 8 名。從金控的角度，1-9 月稅後純益排名則將前進 3 名至第 7 名。
+更多鉅亨報導 •分行數躍升國銀前三 蔡、戴二大股東不進董事會
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 17:10:45</t>
+  </si>
+  <si>
+    <t>永豐金控將以約599億元收購京城銀行，京城銀行將成為永豐金控百分之百持股子公司。合併後，永豐金控的總資產將躍升至3.1兆元，排名將提升，中小企業放款排名及獲利排名也將上升。此次合併預計於2025年3月3日召開股東臨時會，並於取得相關主管機關核准後完成。永豐金控承諾保障京城銀行員工權益，並協助京城證券員工轉任，以及協助客戶轉移帳戶。</t>
+  </si>
+  <si>
+    <t>永豐金控(2890-TW)將以每1股京城銀(2809-TW)普通股換得26.75元現金與1.15股永豐金普通股，收購京城銀行，約599億元「聘金」。合併後總資產達3.1兆元，排名將上升，中小企業放款及獲利排名也將提升。2025年3月3日召開股東臨時會，永豐金控承諾保障京城銀員工權益，協助客戶轉移帳戶。</t>
+  </si>
+  <si>
+    <t>永豐金控、京城銀行、合併、收購、股份轉換、股東臨時會、總資產、中小企業放款、獲利排名、員工權益、金融服務</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提升永豐金控的規模和市佔率，擴大業務範圍。
+提升永豐金控在中小企業放款市場的競爭力。
+提升永豐金控的獲利能力和排名。
+整合資源，提升營運效率。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合併過程可能產生額外成本和時間成本。
+合併後可能需要時間來整合兩家銀行的系統和文化。
+可能面臨來自監管機構的審查和批准。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拓展新的客戶群體和市場。
+提升品牌形象和知名度。
+利用合併後的規模優勢，發展新的金融產品和服務。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">競爭對手的反應和策略。
+經濟環境和市場波動的影響。
+合併後的整合風險和效率降低的風險。
+</t>
+  </si>
+  <si>
+    <t>歐洲債市走跌 年末交投清淡加劇拋售</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E6%AD%90%E6%B4%B2%E5%82%B5%E5%B8%82%E8%B5%B0%E8%B7%8C-%E5%B9%B4%E6%9C%AB%E4%BA%A4%E6%8A%95%E6%B8%85%E6%B7%A1%E5%8A%A0%E5%8A%87%E6%8B%8B%E5%94%AE-122834511.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經歐洲債市周五(27 日) 下跌，12 月交投清淡加劇市場跌勢，也延續本月的快速拋售步調，因交易員押注全球主要央行降息沒有預料中的激進。21 小時前</t>
+  </si>
+  <si>
+    <t>.歐洲債市周五 (27 日) 下跌，12 月交投清淡加劇市場跌勢，也延續本月的快速拋售步調，因交易員押注全球主要央行降息沒有預料中的激進。
+聖誕假期後的交易日，10 年期德國公債殖利率一度上漲 7 個基點至 2.40%，觸及去年 11 月底以來新高；美國公債表現優異，10 年期美債殖利率僅上漲 3 個基點至 4.61%。
+瑞穗 (Mizuho)EMEA 宏觀策略主管 Jordan Rochester 表示，這些 (拋售) 舉措發生在「市場交投非常清淡」之際，這兩周可能會看到 12 月主題的延續。
+Rochester 還指出，天然氣價格上漲可能是抑制需求的因素。俄羅斯總統普丁進一步質疑達成協議以維持經烏克蘭向歐洲輸送天然氣的可能性，讓天然氣期貨大漲 5% 之多。因此如果這讓歐洲通膨攀升，歐洲央行 (ECB) 降息能力就會受到限制。
+自 12 月初以來，10 年期德國公債殖利率已攀升約 30 個基點，有望創下自 2023 年 9 月以來最大單月漲幅。在歐洲央行重新定價之際，交易員降低降息押注，此前美國聯準會 (Fed) 發表比預期更鷹派的聲明，表示寬鬆政策方面將變得更加謹慎。
+目前期貨市場已完全消化歐洲央行明年 4 次降息 1 碼 (25 個基點) 的預期，預估第五次降息的可能性不到 50%，低於上周的 80% 以上。
+更多鉅亨報導 •日銀會議紀錄摘要：決策者持謹慎態度 明年1月仍有升息可能
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 17:11:05</t>
+  </si>
+  <si>
+    <t>歐洲債市於聖誕假期後的交易日下跌，10年期德國公債殖利率觸及去年11月底以來新高，主因是市場交投清淡，以及交易員押注主要央行降息不如預期激進。俄羅斯總統普丁質疑維持經烏克蘭向歐洲輸送天然氣的可能性，導致天然氣價格上漲，可能進一步推升歐洲通膨，限制歐洲央行降息空間。自12月初以來，10年期德國公債殖利率已攀升約30個基點，期貨市場已完全消化歐洲央行明年4次降息1碼的預期，第五次降息的可能性不到50%。</t>
+  </si>
+  <si>
+    <t>歐洲債市周五下跌，12月交投清淡加劇市場跌勢，延續本月快速拋售步調，因交易員押注全球主要央行降息沒有預料中的激進。10年期德國公債殖利率一度上漲7個基點至2.40%，觸及去年11月底以來新高；美國公債表現優異。俄羅斯總統普丁質疑達成協議以維持經烏克蘭向歐洲輸送天然氣的可能性，讓天然氣期貨大漲5%。目前期貨市場已完全消化歐洲央行明年4次降息1碼的預期，預估第五次降息的可能性不到50%。</t>
+  </si>
+  <si>
+    <t>歐洲債市、德國公債、殖利率、美國公債、歐洲央行、降息、通膨、天然氣價格、俄羅斯、普丁、市場交投、期貨市場</t>
+  </si>
+  <si>
+    <t xml:space="preserve">清晰地反映了歐洲債市下跌的趨勢和原因。
+指出了影響債市的主要因素，例如市場交投清淡、央行降息預期和天然氣價格上漲。
+提供了數據支持，例如德國公債殖利率的漲幅和歐洲央行降息預期的變化。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">只關注歐洲債市，缺乏對全球其他市場的分析。
+對天然氣價格上漲的原因分析不夠深入。
+沒有提及歐洲債市下跌對歐洲經濟的潛在影響。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以進一步分析影響歐洲債市的各種因素，例如地緣政治風險、經濟數據和央行政策。
+可以將歐洲債市與其他市場進行比較，例如美國債市和股票市場。
+可以探討歐洲債市下跌對歐洲經濟的潛在影響，例如對投資、消費和就業的影響。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地緣政治風險可能加劇，進一步影響歐洲債市。
+歐洲經濟增長可能放緩，進一步推高歐洲債券殖利率。
+其他國家央行可能採取更為鷹派的貨幣政策，進一步影響歐洲債市。
+</t>
+  </si>
+  <si>
+    <t>日銀會議紀錄摘要：決策者持謹慎態度 明年1月仍有升息可能</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E6%97%A5%E9%8A%80%E6%9C%83%E8%AD%B0%E7%B4%80%E9%8C%84%E6%91%98%E8%A6%81-%E6%B1%BA%E7%AD%96%E8%80%85%E6%8C%81%E8%AC%B9%E6%85%8E%E6%85%8B%E5%BA%A6-%E6%98%8E%E5%B9%B41%E6%9C%88%E4%BB%8D%E6%9C%89%E5%8D%87%E6%81%AF%E5%8F%AF%E8%83%BD-115603023.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經根據日銀(日本央行/ BOJ) 周五(27 日) 公布的12 月貨幣政策會議紀錄摘要，決策者對下一步行動(升息) 時機激烈討論，謹慎觀點占多數，不過明年1 月升息仍在考慮範圍內。21 小時前</t>
+  </si>
+  <si>
+    <t>.根據日銀 (日本央行 / BOJ) 周五 (27 日) 公布的 12 月貨幣政策會議紀錄摘要，決策者對下一步行動 (升息) 時機激烈討論，謹慎觀點占多數，不過明年 1 月升息仍在考慮範圍內。會議紀要出爐後，日元兌美元匯率貶近 5 個月低點，目前外界都預測日銀明年 1 月升息。
+截稿前，日元匯率報 1 美元兌 157.70 日元，徘徊在 7 月 17 日以來新低附近。日本官員今年已對外匯市場進行干預支撐日元，日元仍可能連續第四年走跌。
+Sydbank 分析師在一份報告中表示：「幾位市場人士暗示，美元 / 日元的上升趨勢可能被誇大，增添回調的風險。日本當局已經表示，如果美元 / 日元迅速大幅升值，可能會進行干預。」
+日銀內部成員意見大分歧
+會議紀錄摘要顯示，有成員支持明年 1 月升息，也有人主張再等一段時間觀察薪資趨勢，和美國候任總統川普上台後的經濟走向。
+一名成員說：「日銀可能會在不久的將來決定提高政策利率，但目前有必要保持耐心，直到美國經濟的不確定性消除。」
+雖然日銀總裁值田和男近期的謹慎言論降低市場的升息預期，但會議紀要顯示明年 1 月升息仍在考慮範圍內。
+有多位成員表達升息的必要性，一位成員指出：「考慮到日元貶值可能會推高基礎通膨，有必要預先調整貨幣政策寬鬆程度」。另一位成員認為央行已處於「應該稍微鬆開貨幣寬鬆加速器」的階段。
+然而，謹慎觀點仍占多數。一位成員表示：「有必要透過數據確認國內外經濟改善的進展，因此央行暫時維持當前貨幣政策是適當的。」
+還有觀點認為，由於進口價格維持穩定，日元套利交易部位並未過度積累，目前上行通膨風險不足以要求升息。
+路透本月稍早進行的一項民調顯示，所有受訪者都預估，日銀將在 3 月底前將利率上調至 0.50%。日銀將於明年 1 月 23 日至 24 日召開下一次貨幣政策會議。
+通膨壓力持續 連兩年維持 2% 通膨目標上
+根據周五稍早公布的政府報告，日本 12 月消費者物價指數 (CPI) 年增 2.4%，顯示通膨壓力持續。日本全國核心 CPI 已連續兩年半維持在日銀 2% 目標水準或以上。
+隔夜掉期市場顯示，1 月升息的機率為 42%，3 月前升息的機率達到 72%。
+會議紀要中有一種觀點提到，日本的政治情勢是央行密切關注的因素。許多經濟學家認為，央行本月未採取行動是出於對政治反彈的擔憂，因為石破茂首相的少數政府正在努力與反對黨進行常規預算和稅收改革。
+更多鉅亨報導 •日本內閣批准創紀錄預算 首相石破茂料將面臨考驗
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-28 17:11:26</t>
+  </si>
+  <si>
+    <t>日本央行(日銀)12月貨幣政策會議紀錄摘要顯示，決策者對於何時升息意見分歧，謹慎觀點佔多數，但明年1月升息仍在考慮範圍內。會議紀要出爐後，日元兌美元匯率貶至近5個月低點。雖然日銀總裁黑田東彥近期的謹慎言論降低市場的升息預期，但會議紀要顯示明年1月升息仍在考慮範圍內。多位成員表達升息必要性，但也有成員認為應觀察薪資趨勢及美國經濟走向再做決定。日本12月消費者物價指數(CPI)年增2.4%，顯示通膨壓力持續。隔夜掉期市場顯示，1月升息機率為42%，3月前升息機率達72%。會議紀要也提及日本政治情勢是央行密切關注的因素。</t>
+  </si>
+  <si>
+    <t>日銀12月貨幣政策會議紀錄摘要顯示，決策者對下一步行動(升息)時機激烈討論，謹慎觀點占多數，但明年1月升息仍在考慮範圍內。會議紀要出爐後，日元兌美元匯率貶近5個月低點。一名成員說：「日銀可能會在不久的將來決定提高政策利率，但目前有必要保持耐心，直到美國經濟的不確定性消除。」一位成員指出：「考慮到日元貶值可能會推高基礎通膨，有必要預先調整貨幣政策寬鬆程度」。日本12月消費者物價指數(CPI)年增2.4%，顯示通膨壓力持續。隔夜掉期市場顯示，1月升息的機率為42%，3月前升息的機率達到72%。</t>
+  </si>
+  <si>
+    <t>日銀、日本央行、升息、貨幣政策、會議紀錄、日元、美元、匯率、通膨、CPI、消費者物價指數、經濟走向、政治情勢、市場預期、利率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">反映日銀內部對於升息時機的討論和分歧，提供全面資訊。
+包含市場反應(日元匯率變化)和專家預測(升息機率)，資訊完整。
+點出日本通膨壓力持續，為升息提供佐證。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">僅為會議紀錄摘要，缺乏細節資訊。
+部分觀點僅為個別成員意見，並非日銀官方立場。
+未提及影響日銀決策的其他潛在因素。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可進一步分析日銀內部不同意見背後的理由和考量。
+可追蹤日銀未來政策走向，並評估對日本經濟和金融市場的影響。
+可深入研究日本通膨壓力持續的成因和後續發展。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日元持續貶值可能引發進一步的通膨壓力。
+美國經濟不確定性可能影響日銀的決策。
+日本政治情勢不穩定可能干擾經濟政策的執行。
+</t>
+  </si>
+  <si>
+    <t>神秘「刀樂哥」︱靠「two dollar」兩單詞闖美國爆紅 滯銷義烏玩具「鹹魚翻生」</t>
+  </si>
+  <si>
+    <t>https://www.msn.com/zh-hk/video/money/%E7%A5%9E%E7%A7%98%E3%80%8C%E5%88%80%E6%A8%82%E5%93%A5%E3%80%8D%EF%B8%B1%E9%9D%A0%E3%80%8Ctwo-dollar%E3%80%8D%E5%85%A9%E5%96%AE%E8%A9%9E%E9%97%96%E7%BE%8E%E5%9C%8B%E7%88%86%E7%B4%85-%E6%BB%AF%E9%8A%B7%E7%BE%A9%E7%83%8F%E7%8E%A9%E5%85%B7%E3%80%8C%E9%B9%B9%E9%AD%9A%E7%BF%BB%E7%94%9F%E3%80%8D/vi-AA1wyj9o</t>
+  </si>
+  <si>
+    <t>MSN近期，一名網名「刀樂哥」的博主抖音走紅。片中「刀樂哥」憑著有限英語在美國街頭闖天下，僅用一句「two dollar，two dollar」（兩美元）向美國人兜售爆眼龍捏捏樂小玩具等...3 小時前</t>
+  </si>
+  <si>
+    <t>2024-12-28 18:21:16</t>
+  </si>
+  <si>
+    <t>不差錢的“寧王”為何要赴港二次上市？大動作背後藏玄機</t>
+  </si>
+  <si>
+    <t>http://www.aastocks.com/tc/stocks/analysis/china-hot-topic-content.aspx?id=GLH1801337L&amp;source=GLH&amp;catg=4</t>
+  </si>
+  <si>
+    <t>AASTOCKS.com12月29日｜據21財經，“寧王”赴港二次上市的消息成真，按照既定計劃，寧德時代最遲將於2026年6月前登陸港交所。分析認為，寧德時代不缺錢，赴港上市或是為了國際形象和以後...2 小時前</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:11:21</t>
+  </si>
+  <si>
+    <t>寧德時代否認減產磷酸鐵鋰　強調「新能源市場發展良好」</t>
+  </si>
+  <si>
+    <t>https://www.ettoday.net/news/20241229/2882489.htm</t>
+  </si>
+  <si>
+    <t>ETtoday新聞雲中國大陸電池製造龍頭寧德時代傳出將於2025年1月減產磷酸鐵鋰。對此，寧德時代官方27日發文否認傳聞，並強調新能源市場發展良好，需求旺盛。 (寧德時代,新能源車,磷酸鐵...2 小時前</t>
+  </si>
+  <si>
+    <t>.寧德時代否認減產磷酸鐵鋰　強調「新能源市場發展良好」
+▲寧德時代。（圖／路透社）
+記者蔡紹堅／綜合報導
+中國大陸電池製造龍頭寧德時代傳出將於2025年1月減產磷酸鐵鋰。對此，寧德時代官方27日發文否認傳聞，並強調新能源市場發展良好，需求旺盛。
+寧德時代表示，減產的相關傳聞不屬實，目前新能源市場發展良好，需求較為旺盛，公司一直與供應商良好互動合作，共同推進行業發展。
+寧德時代還說，公司致力於攜手供應商夥伴共同推進技術進步與創新，共享行業發展紅利。
+根據中國汽車動力電池產業創新聯盟的數據，11月中國大陸動力和其他電池合計產量為117.8GWh，年增33.3%，其中，磷酸鐵鋰電池佔比達79.3%。
+海通國際研報認為，未來隨著鋰電產業鏈原材料成本不斷下降，政策扶持疊加終端需求不斷提升有望推動新能源車銷量持續增長，鋰電產業鏈需求將隨即逐步提升。
+分享給朋友：
+追蹤我們：
+※本文版權所有，非經授權，不得轉載。[ ETtoday著作權聲明 ]※</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:11:42</t>
+  </si>
+  <si>
+    <t>針對網路盛傳寧德時代將於2025年1月減產磷酸鐵鋰電池的訊息，寧德時代官方出面否認，並強調目前新能源市場發展良好，需求旺盛，公司與供應商合作良好，持續推進技術進步與創新。  中國大陸11月動力電池產量年增33.3%，磷酸鐵鋰電池佔比高達79.3%，顯示市場需求強勁。  海通國際研報也看好未來鋰電產業鏈的發展前景。</t>
+  </si>
+  <si>
+    <t>寧德時代否認2025年1月減產磷酸鐵鋰的傳聞，強調新能源市場發展良好，需求旺盛，公司與供應商合作良好，共同推進行業發展。11月中國動力電池產量為117.8GWh，年增33.3%，磷酸鐵鋰電池佔比達79.3%。海通國際研報認為，鋰電產業鏈原材料成本下降，政策扶持及終端需求提升，將推動新能源車銷量持續增長，鋰電產業鏈需求也將提升。</t>
+  </si>
+  <si>
+    <t>寧德時代，磷酸鐵鋰電池，減產，新能源市場，動力電池，產量，需求，供應商，合作，技術進步，創新，海通國際，新能源車，鋰電產業鏈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">寧德時代為業界龍頭，擁有強大的品牌影響力及技術實力。
+磷酸鐵鋰電池市場需求持續增長，為公司帶來穩定的營收來源。
+與供應商保持良好合作關係，有助於降低生產成本及提升效率。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">產業競爭激烈，新興競爭者不斷湧現，造成市場份額壓力。
+原材料價格波動，影響公司生產成本及利潤。
+負面消息可能影響公司形象及投資者信心。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新能源汽車市場持續擴大，帶來巨大的市場潛力。
+持續研發創新技術，提升產品競爭力。
+拓展海外市場，提升國際影響力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">政府政策調整或變動，可能影響產業發展。
+原材料供應短缺或價格大幅波動，造成生產風險。
+競爭對手技術突破或策略調整，造成市場份額流失。
+</t>
+  </si>
+  <si>
+    <t>高息「道指狗股」今年表現再次失靈</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E9%AB%98%E6%AE%96%E5%88%A9%E7%8E%87%E9%81%B8%E8%82%A1%E6%88%90%E6%95%88%E4%B8%8D%E4%BD%B3-%E9%81%93%E7%93%8A%E7%8B%97%E8%82%A1-%E5%8F%88%E8%B5%B0-%E5%B9%B4%E8%A1%B0%E9%81%8B-065002132.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經據《Barron's》報導，「道指狗股(Dogs of the Dow)」投資理論近年來表現不佳，但許多投資者對2025 年仍抱持希望。14 小時前</t>
+  </si>
+  <si>
+    <t>.據《Barron’s》報導，「道指狗股 (Dogs of the Dow)」投資理論近年來表現不佳，但許多投資者對 2025 年仍抱持希望。
+道指狗股策略是一種反向操作策略，指的是在每年年初購買道瓊指數中，股息率最高的 10 支股票，持有它們，然後在下一年年初重新調整投資組合。高股息率可能表明公司策略、增長、管理或其他方面存在問題。買入狗股就是押注情況會好轉。
+截至 2024 年年底，2025 年道指狗股包括：Verizon(VZ)、雪佛龍 (CVX)、安進 (AMGN)、嬌生 (JNJ)、默沙東 (MRK)、可口可樂 (KO)、IBM(IBM)、思科 (CSCO)、麥當勞 (MCD) 和 Procter &amp; Gamble(PG)。
+2024 年的狗股 (即 2023 年殖利率最高的股票清單，包括 Walgreens Boots Alliance、陶氏公司和 3M) 表現更差，今年平均虧損 1%(不包括股息)。 默沙東、麥當勞和 Procter &amp; Gamble 取代了 Walgreens、陶氏和 3M，成為新一批狗股。Walgreens 和陶氏公司退出道瓊工業平均指數，而 3M 則因為表現良好，不再位列殖利率最高的 10 支股票之列。
+道瓊狗股策略在 2024 年根本不起作用，更進一步說， 這種策略已經很久沒有奏效了。
+截至 2024 年年底，狗股今年的表現落後道瓊指數約 14 個百分點，落後標普 500 指數約 25 個百分點，這是狗股連續第二年相對於指數出現兩位數百分點的落後。事實上，在過去 6 年中，道瓊狗股在其中 5 年都跑輸道瓊指數和標普 500 指數。
+2024 年的狗股平均虧損 1%，遠遠落後於道瓊指數的其他 30 支成分股。其他 20 支股票的平均變化 (包括新增和刪除股票的一些微調) 約為 25% 的漲幅。
+截至 2024 年年底，新一批狗股 (稱之為「幼犬」) 今年平均上漲約 5%，而道瓊指數上漲 14%，標普 500 指數飆升 24%。
+2025 年的狗股平均殖利率約為 3.5%，而道瓊指數的整體殖利率為 2%。標普 500 指數中派息股票的平均殖利率約為 2.3%，而整體指數的平均殖利率約為 1.9%。標普 500 指數中約有 80% 的公司派發股息。
+儘管如此，針對狗股還是有一點樂觀的理由。 2025 年的狗股預計明年每股收益的平均本益比約為 16 倍，而標普 500 指數的本益比約為 22 倍。 這與 2022 年初的差距相似，當時狗股的表現優於標普 500 指數。
+狗股近期表現不佳的原因不難理解，這份名單中充斥著能源、消費必需品和醫療保健類股，而投資者近來一直關注人工智慧和七大科技巨頭。
+對整個狗股清單不感興趣的投資者可以利用華爾街評級來縮小選擇範圍，找到分析師最看好的股票。 2025 年狗股的平均買入評級比率約為 58%，而道瓊指數成分股的平均買入評級比率約為 68%。
+但有兩支狗股的買入評級比率高於平均水準：可口可樂和默沙東。 涵蓋這兩支股票的分析師中，約有 76% 和 81% 的人分別給予它們買入評級。
+更多鉅亨報導
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:12:03</t>
+  </si>
+  <si>
+    <t>本文探討了「道指狗股 (Dogs of the Dow)」投資策略在2024年的表現，以及2025年的展望。「道指狗股」策略是指每年年初投資道瓊指數中股息率最高的10支股票，其核心邏輯是高股息率可能暗示公司存在潛在問題，但情況未來可能好轉。然而，文章指出，該策略在2024年表現不佳，落後於道瓊指數和標普500指數。2025年的「道指狗股」名單已公布，其平均殖利率為3.5%，高於道瓊指數和標普500指數，且本益比相對較低，但整體買入評級比率低於道瓊指數平均水平。 文章分析了其表現不佳的原因，並指出可口可樂和默沙東兩支股票的買入評級比率相對較高。</t>
+  </si>
+  <si>
+    <t>「道指狗股 (Dogs of the Dow)」投資理論近年來表現不佳，但許多投資者對 2025 年仍抱持希望。2024 年的狗股表現更差，今年平均虧損 1%。道瓊狗股策略在 2024 年根本不起作用，落後道瓊指數約 14 個百分點，落後標普 500 指數約 25 個百分點。2025 年的狗股平均殖利率約為 3.5%，而道瓊指數的整體殖利率為 2%。2025 年狗股的平均買入評級比率約為 58%，但可口可樂和默沙東的買入評級比率高於平均水準。</t>
+  </si>
+  <si>
+    <t>道指狗股、DogsoftheDow、投資策略、股息率、Verizon、雪佛龍、安進、嬌生、默沙東、可口可樂、IBM、思科、麥當勞、Procter&amp;Gamble、道瓊指數、標普500指數、本益比、買入評級、高股息、反向操作、投資組合、華爾街評級</t>
+  </si>
+  <si>
+    <t xml:space="preserve">策略簡單易懂，易於執行。
+高股息率提供一定的現金流。
+相較於市場整體，潛在的低估價值。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">近年表現不佳，持續跑輸大盤。
+高股息率可能反映公司基本面問題。
+忽略了公司成長性及其他重要因素。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如果市場環境轉變，高股息股票可能表現突出。
+選擇個股時，可以結合基本面分析，降低風險。
+可以將其作為投資組合中的一小部分，降低整體風險。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">市場環境持續不利於高股息股票。
+所選股票可能出現負面消息，導致股價下跌。
+其他投資策略可能提供更高的回報。
+</t>
+  </si>
+  <si>
+    <t>金種子酒與鳳凰網再攜手 重磅推出「2024中國力量年度人物」</t>
+  </si>
+  <si>
+    <t>http://www.hkcd.com.hk/content_app/2024-12/28/content_8673892.html</t>
+  </si>
+  <si>
+    <t>香港商报科技創設美好生活，讓世界看見中國力量。 12月26日，由鳳凰網和安徽金種子酒業聯合主辦的「2024中國力量年度人物盛典」在安徽合肥圓滿舉行。這是金種子酒第二次攜手鳳凰...15 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+金種子酒與鳳凰網再攜手 重磅推出「2024中國力量年度人物」
+來源：香港商報網 原創
+2024-12-28 21:30 
+    科技創設美好生活，讓世界看見中國力量。
+    12月26日，由鳳凰網和安徽金種子酒業聯合主辦的「2024中國力量年度人物盛典」在安徽合肥圓滿舉行。這是金種子酒第二次攜手鳳凰網開展「中國力量年度人物」評選活動，旨在挖掘並表彰運用科技力量積極改善社會、促進人類福祉、引領可持續發展的個人和團隊。
+    本次評選以「科技向善」為主題，歷經專家評審團的推薦、評審與數百萬大眾投票，「2024中國力量年度人物」現場揭曉：蔡磊漸凍症科研合作團隊，中交一航局平陸運河項目部總工程師、中交天津港研院岩土所總工程師劉文彬，國家卓越工程師、寧德時代首席科學家吳凱，中國科學院空天信息創新研究院研究員劉少創，華為鴻蒙無障礙及小藝聲音修復團隊，中交新疆烏尉高速公路建設團隊，北京市農林科學院雜交小麥首席科學家趙昌平，第二次青藏科考冰川隊，山東第一醫科大學附屬眼科醫院、山東省眼科醫院院長史偉雲，中國鐵路設計集團有限公司雅萬高鐵總體設計師夏健獲頒2024中國力量年度人物。正泰新能源董事長、正泰集團董事陸川，寧波大學特聘研究員、博士生導師王歡獲頒評審委員會特別獎。
+    盛典現場嘉賓雲集。國家健康和人口發展戰略研究院學術委員會主席，十三屆全國政協人口資源環境委員會副主任，原國家衛生計生委副主任王培安，中國工程院原副院長、中國工程院院士杜祥琬，中國工程院院士、管理科學與信息系統工程專家楊善林，火山地質與第四紀地質學家，中國科學院院士、中國科學院地質與地球物理所研究員劉嘉麒，英國皇家工程院院士、歐洲科學院院士、香港工程科學院院士、香港科技大學首席副校長郭毅可，中國科協原副主席、國際歐亞科學院院士、北京理工大學教授馮長根，希望工程創始人、國務院參事室原特約研究員徐永光，南開大學傑出教授、新聞與傳播學院創始院長，鳳凰衛視總編輯、執行董事，鳳凰網董事長兼CEO孫玉勝，華潤啤酒（控股）有限公司董事會主席、執行董事侯孝海，科技日報原總編輯劉亞東，印尼駐華大使館新聞官黛薇等出席本次盛典，並擔任頒獎嘉賓。知名主持人、奧林匹克語言傳播大使蔡紫與鳳凰衛視主持人王峰聯合主持本次盛典。
+    在今天，科學技術的迅猛發展，不僅重塑了社會生產方式，更改變了人們的日常生活。從生成式人工智能的井噴，到大數據、雲計算、基因編輯等新技術的火熱，面對技術帶來的諸多新問題與倫理挑戰，「科技向善」成為關乎每個人未來的重要議題。
+    如何推動科學技術的正向應用？如何通過技術成就中國力量？在致辭和演講環節來自不同領域的嘉賓給出了各自的理解。
+    「安徽是中國農村改革的主要發源地，素有敢為人先的精神，在風起浪涌、與時俱進的歷史進程中，不斷奮勇爭先、破繭成蝶，創造了一個個令人驚嘆的發展奇蹟。」安徽省委網信辦副主任文霞平發表開場致辭。他表示，今天的安徽合肥，不僅蘊含着海納百川、追求卓越、敢為人先、樸實奉獻的精神特質，也與新時代科技創新變革的天然稟賦內在貫通，這與本次盛典「科技向善」主題高度契合。
+圖2.jpg
+安徽省委網信辦副主任文霞平致辭
+    作為一座新時代的科創名城，今天的安徽擁有超過200家各類「國字號」創新平台，不僅在科技創新、文化自信上有所作為，也在綠色發展、農業發展等方面貢獻了安徽力量。
+    在致辭中，安徽省阜陽市人大常委會黨組副書記、副主任、一級巡視員王玉峰呼籲更多的企業和個人，積極投身於傳遞中國力量的偉大事業，為構建更加美好和諧的社會貢獻智慧和力量。
+圖3.jpg
+安徽省阜陽市人大常委會黨組副書記、副主任、一級巡視員王玉峰致辭
+    「我們相信，中國多一份力量，世界就一定多一份美好。我們也願意同中國廣大的科技工作者攜手，讓中國力量成為改善世界的澎湃動力。」中國力量的綿延，離不開有責任感的媒體講好中國故事。鳳凰網高級副總裁劉春作為主辦方代表登台致辭。
+    華潤啤酒（控股）有限公司董事會主席、執行董事侯孝海代表聯合主辦方致辭，表達了他對「科技向善」的理解。
+    「『科技向善』不僅是一個理念，它更是我們這個時代的行動指南。在此征程中，我們不僅要致力於技術的革新與飛躍，還須深刻考量技術運用的道德框架，保障科技進步能夠普惠眾生。」侯孝海在講話中介紹，近年來，金種子的每一步發展，都與科技向善緊密相連，不僅在產品創新上不斷探索，推動綠色生產，也不斷踐行「匠心釀造美好生活」，探索傳統釀造工藝與現代科技的融合。
+圖4.jpg
+華潤啤酒（控股）有限公司董事會主席、執行董事侯孝海致辭
+    「當善良美好的種子被種下，當不懼困難的精神被看到，當勇敢堅定的信念被匯聚，它們將生根發芽、星火燎原，成為推動時代進步、民族繁榮、國家興旺的強大力量。」在盛典尾聲，安徽金種子酒業股份有限公司總經理何秀俠發表致辭。她提到，近年來，金種子酒業始終秉承以科研、創新推動企業高質量、可持續發展的理念，面對「新機遇，新挑戰，新征程」，金種子酒業將以創新為翼，以奮鬥為槳，書寫輝煌的新篇章。
+圖5.jpg
+安徽金種子酒業股份有限公司總經理何秀俠致辭
+圖6.jpg
+「2024中國力量年度人物」獲獎嘉賓與參會領導嘉賓和小演員們一起合影留念
+    「無論夢想的路途多麼遙遠，只要心中有光，就能找到前行的方向。」合肥市紅星路小學小百靈合唱團獻唱歌曲《夢的地圖》。伴隨着孩子們美妙的歌聲，本次盛典正式落下帷幕。
+    涓滴之水，匯集成科技向善的浩瀚汪洋；大國重器，雕琢出華夏兒女的璀璨榮光。當新一年的鐘聲即將敲響，讓我們以堅定的腳步奔赴未來，成就磅礴的中國力量。
+    向上向善向前看  金種子酒未來可期
+    今年是華潤進駐金種子酒的第三年，從第二年開始，金種子酒即攜手鳳凰網，將目光聚焦在千萬個為國家默默奉獻的群體和個人身上，因為他們知道，一粒種子的成功不算成功，億萬顆種子的茁壯成長才是未來和希望。
+    金種子酒在三年時間裏，持續加大科研投入，加強與中國酒業協會、江南大學等權威機構的合作，產品品質得到大幅提升，以其高端產品金種子馥合香系列為引領，金種子酒全系產品品質實現質的跨越，越來越為經銷商和消費者所認可。
+    在當前中國酒業市場深度調整的關鍵時刻，金種子酒在持續為全社會注入正能量的同時，
+    活動所展現出的家國情懷和催人奮進的力量，與金種子向上向善的發展戰略一脈相承，不僅令廣大國人為之感動，也為金種子持續拔節生長、凝聚更多發展共識、堅定長期主義定力、穿越行業發展周期提供了強大支撐。
+    正如華潤啤酒董事會主席侯孝海在華潤啤酒30年慶典活動上所言，「我們進入了多周期疊加的新世界。穿越新世界，我們要「向前看，走大道，發揮科技和創新兩大新質競爭力，構建商業新世界的增長曲線；同時堅持樂觀主義和長期主義，這是我們做產業的最重要的支撐。」（記者 楊凌雲）
+頂圖：盛典現場
+責任編輯：林梓琦
+香港商報版權作品，轉載須註明出處。
+推薦新聞
+華潤啤酒30年獻禮鵬城 BREWTOWN啤酒小鎮開業 雪花總部大廈落成
+香港商報2024-12-18
+華潤啤酒成立三十周年慶典活動在深圳隆重舉行
+香港商報2024-12-18
+華潤啤酒亮相第二十一屆酒博會 「醴」邀世界共品中國名酒
+香港商報2024-10-11
+金種子酒 讓阜陽的這個中秋不一般
+香港商報2024-09-19
+更多推薦新聞&gt;&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:12:34</t>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t>鳳凰網和安徽金種子酒業聯合主辦的「2024中國力量年度人物盛典」在安徽合肥舉行，旨在表彰運用科技力量積極改善社會、促進人類福祉、引領可持續發展的個人和團隊。評選以「科技向善」為主題，評選出十位「2024中國力量年度人物」和兩位評審委員會特別獎獲得者，涵蓋科技、工程、醫療、農業等多個領域，嘉賓雲集，盛典現場氣氛熱烈，肯定了科技在社會發展中的積極作用。金種子酒連續兩年參與主辦，也展現了其企業社會責任和品牌形象。</t>
+  </si>
+  <si>
+    <t>由鳳凰網和安徽金種子酒業聯合主辦的「2024中國力量年度人物盛典」在安徽合肥圓滿舉行，旨在挖掘並表彰運用科技力量積極改善社會、促進人類福祉、引領可持續發展的個人和團隊。本次評選以「科技向善」為主題……現場揭曉「2024中國力量年度人物」，涵蓋科技、工程、醫療、農業等領域……金種子酒業總經理何秀俠發表致辭，提到金種子酒業始終秉承以科研、創新推動企業高質量、可持續發展的理念……「科技向善」成為關乎每個人未來的重要議題……</t>
+  </si>
+  <si>
+    <t>中國力量年度人物、科技向善、鳳凰網、安徽金種子酒業、安徽合肥、科技創新、社會責任、可持續發展、年度人物、蔡磊漸凍症科研合作團隊、寧德時代、華為、中國鐵路設計集團、正泰新能源、評選活動</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成功舉辦盛典，提升鳳凰網和金種子酒業的品牌形象和社會影響力。
+表彰了在科技領域做出突出貢獻的個人和團隊，弘揚了社會正能量。
+「科技向善」主題契合時代發展趨勢，具有社會意義。
+嘉賓陣容強大，增加了盛典的影響力和權威性。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">評選標準和過程的透明度有待提高，避免主觀性和偏見。
+活動的宣傳和覆蓋面可能需要進一步擴大，以提高社會影響力。
+部分獲獎者的具體貢獻和成就需要更詳細的介紹，才能讓公眾更好地理解。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以將盛典打造成一個長期品牌活動，持續表彰科技領域的傑出人物。
+可以與更多相關機構合作，擴大活動的影響力和參與度。
+可以將活動的經驗和成果與其他地區和國家分享，推動全球科技向善的發展。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">社會輿論的負面評價可能會影響活動的公信力和影響力。
+缺乏持續的資金和資源支持，可能會影響活動的長期發展。
+其他類似活動的競爭可能會影響活動的獨特性和吸引力。
+</t>
+  </si>
+  <si>
+    <t>〈熱門股〉宸曜改寫新高價周漲25% 11月自結EPS 0.42元</t>
+  </si>
+  <si>
+    <t>https://hk.finance.yahoo.com/news/%E7%86%B1%E9%96%80%E8%82%A1-%E5%AE%B8%E6%9B%9C%E6%94%B9%E5%AF%AB%E6%96%B0%E9%AB%98%E5%83%B9%E5%91%A8%E6%BC%B225-11%E6%9C%88%E8%87%AA%E7%B5%90eps-0-42%E5%85%83-093042411.html</t>
+  </si>
+  <si>
+    <t>Yahoo 財經工業電腦廠宸曜(6922-TW) 受惠AI 邊緣運算、機器人題材帶動，本周股價突破200 元，最高來到238 元，改寫新高價，周五收211 元，周漲25%。 因近期多次達公布注意交易資訊...19 小時前</t>
+  </si>
+  <si>
+    <t>.工業電腦廠宸曜 (6922-TW) 受惠 AI 邊緣運算、機器人題材帶動，本周股價突破 200 元，最高來到 238 元，改寫新高價，周五收 211 元，周漲 25%。
+因近期多次達公布注意交易資訊標準，宸曜也公告 11 月自結營收 1.23 億元，年增 40.4%，稅後純益 1100 萬元、每股純益 0.42 元，較去年同期虧轉盈。
+展望 2025 年，宸曜表示，除了軍工、煉油專案訂單升溫外，AI 專案不論訂單的量或是金額規模都有提高，整體訂單能見度已達明年上半年。
+至於市場關注的人形機器人，宸曜直言，考量精密感測技術還有待突破，以及目前成本較高、法規等因素，市場起來還需要一段時間。
+更多鉅亨報導 •宸曜軍工專案明年放量 將擴美國組裝產能
+推薦新聞</t>
+  </si>
+  <si>
+    <t>2024-12-29 12:12:55</t>
+  </si>
+  <si>
+    <t>工業電腦廠宸曜(6922-TW) 受惠AI邊緣運算和機器人題材，股價近期突破200元，創下歷史新高。11月自結營收1.23億元，年增40.4%，稅後純益1100萬元，每股純益0.42元，較去年同期由虧轉盈。宸曜表示，AI專案訂單量和金額規模都有提升，整體訂單能見度已達明年上半年，軍工和煉油專案訂單也升溫。但宸曜也指出，人形機器人市場因精密感測技術、成本和法規等因素，發展仍需時間。</t>
+  </si>
+  <si>
+    <t>宸曜股價突破200元，創新高，11月自結營收1.23億元，年增40.4%，稅後純益1100萬元，每股純益0.42元，較去年同期虧轉盈。展望2025年，AI專案訂單量及金額規模提高，整體訂單能見度達明年上半年；軍工、煉油專案訂單也升溫。至於人形機器人，宸曜表示市場起來還需要一段時間。</t>
+  </si>
+  <si>
+    <t>宸曜、6922-TW、工業電腦、AI、邊緣運算、機器人、股價、營收、獲利、訂單、軍工、煉油、人形機器人、精密感測技術</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI邊緣運算和機器人題材帶動業績成長。
+AI專案訂單能見度已達明年上半年。
+軍工和煉油專案訂單升溫。
+11月營收及獲利表現亮眼，由虧轉盈。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人形機器人市場發展仍需時間，考量精密感測技術、成本及法規因素。
+受惠於特定題材，股價波動風險較高。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">積極拓展AI相關業務，把握AI產業成長動能。
+持續開發軍工和煉油等高毛利專案。
+拓展新興應用領域，提升營收規模。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全球經濟下行風險影響客戶需求。
+競爭對手技術或價格競爭。
+AI相關技術發展不及預期。
+</t>
+  </si>
+  <si>
+    <t>《大陸產業》陸企分紅大爆發 今年總額創新高</t>
+  </si>
+  <si>
+    <t>https://ww2.money-link.com.tw/RealtimeNews/NewsContent.aspx?SN=5694677001&amp;PU=0010</t>
+  </si>
+  <si>
+    <t>富聯網【時報-台北電】隨著大陸新「國九條」和分紅新規上路，陸股上市公司分紅熱情空前高漲。根據萬得數據顯示，截至12月23日，2024年大陸A股已有3,965家上市公司實施現金分紅，...1 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+【時報-台北電】隨著大陸新「國九條」和分紅新規上路，陸股上市公司分紅熱情空前高漲。根據萬得數據顯示，截至12月23日，2024年大陸A股已有3,965家上市公司實施現金分紅，分紅總金額超過人民幣（下同）2.38兆元，創下歷史新高。　證券時報報導，目前政策效應逐步發酵，2024年已有超過100家A股上市公司完成上市以來首次分紅。招商基金研究部首席經濟學家李湛表示，這項成績不僅展現資本市場改革的成效，也反映出上市公司對股東回報的重視，以及資本市場環境持續優化。　近期，包括寧德時代、長江電力等行業巨頭紛紛公布分紅預案。其中，長江電力宣布首次進行中期分紅，派發現金股利約51.38億元。寧德時代推出特別現金分紅方案，總額約54億元。　為進一步提升企業分紅意願，中國證券登記結算公司日前宣布，自2025年1月1日起，對滬深A股分紅派息手續費實施減半優惠。同時，大陸國務院國資委也公布意見，要求大陸央企控股上市公司提高現金分紅比例與頻率。　上海國家會計學院學者周贇指出，在當前的低利率環境下，高分紅企業更容易吸引長期投資人的關注參與。　近期資金大舉湧入紅利主題ETF。大陸基金巨頭華泰柏瑞旗下紅利ETF，12月截至26日累計獲得資金流入近44億元，邁向紀錄最大單月淨流入。(新聞來源 : 工商時報一蘇崇愷／綜合報導)
+</t>
+  </si>
+  <si>
+    <t>2024-12-29 15:10:26</t>
+  </si>
+  <si>
+    <t>大陸新「國九條」和分紅新規上路後，2024年大陸A股上市公司現金分紅金額已超過2.38兆元人民幣，創下歷史新高。超過100家公司完成上市以來首次分紅，反映資本市場改革成效、上市公司重視股東回報，以及資本市場環境持續優化。寧德時代、長江電力等行業巨頭也紛紛公布高額分紅預案。為提升企業分紅意願，中國證券登記結算公司自2025年1月1日起將對滬深A股分紅派息手續費減半，國務院國資委也要求央企控股上市公司提高現金分紅比例與頻率。高分紅企業在低利率環境下更易吸引長期投資人，近期資金也大舉湧入紅利主題ETF。</t>
+  </si>
+  <si>
+    <t>2024年大陸A股已有3,965家上市公司實施現金分紅，分紅總金額超過人民幣2.38兆元，創下歷史新高。已有超過100家A股上市公司完成上市以來首次分紅。寧德時代、長江電力等行業巨頭紛紛公布分紅預案，長江電力派發現金股利約51.38億元，寧德時代特別現金分紅方案總額約54億元。中國證券登記結算公司自2025年1月1日起，對滬深A股分紅派息手續費減半。國務院國資委要求央企控股上市公司提高現金分紅比例與頻率。近期資金大舉湧入紅利主題ETF。</t>
+  </si>
+  <si>
+    <t>大陸A股、現金分紅、國九條、分紅新規、上市公司、股東回報、資本市場改革、寧德時代、長江電力、紅利主題ETF、低利率環境、中國證券登記結算公司、國務院國資委、央企</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大量資金湧入，顯示市場對高分紅策略的認可。
+政策扶持，提高了企業分紅的意願和頻率。
+高分紅公司在低利率環境下更具吸引力，利於長期投資。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">部分公司分紅比例可能仍不足以滿足投資者期待。
+政策的持續性和執行力度仍需觀察。
+市場風險依然存在，高分紅不代表股價必然上漲。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吸引更多長期投資者，提升市場穩定性。
+推動企業提升經營效率和盈利能力。
+促進資本市場健康發展。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宏觀經濟環境變化可能影響公司盈利和分紅能力。
+政策調整可能影響公司分紅意願。
+市場競爭加劇，部分公司分紅能力下降。
+</t>
+  </si>
+  <si>
+    <t>天岳先進擬來港上市　據報最快明年下半年啟動程序 | on.cc 東網 | LINE TODAY</t>
+  </si>
+  <si>
+    <t>https://today.line.me/hk/v2/article/peJrDPp</t>
+  </si>
+  <si>
+    <t>LINE TODAY內地科創板上市公司天岳先進周五(27日)晚上宣布，擬在香港聯交所發行H股上市，以加快公司的國際化戰略及海外業務布局，增強公司的境外融資能力。...20 小時前</t>
+  </si>
+  <si>
+    <t>.啟用Javascript
+財經
+天岳先進擬來港上市　據報最快明年下半年啟動程序
+on.cc 東網
+內地科創板上市公司天岳先進周五(27日)晚上宣布，擬在香港聯交所發行H股上市，以加快公司的國際化戰略及海外業務布局，增強公司的境外融資能力。
+天岳先進表示，公司計劃與相關中介機構就本次H股上市的具體推進工作進行商討，關於本次H股上市的具體細節尚未確定，授權期限為自董事會審議通過之日起12個月內。內媒引述接近天岳先進的人士指，正式啟動港股上市程序，最快要等到明年下半年。
+有業內人士指出，通過在香港上市，天岳先進可以吸引更多國際投資者，為公司提供更多資金和資源支持，有助於公司在全球進行業務拓展和市場競爭；另一方面，在港上市有助於公司提升治理水平和風險管理能力，為公司的全球市場擴張提供有力保障。
+天岳先進是一家寬禁帶半導體材料生產商，主營業務是碳化硅半導體材料的研發、生產和銷售，產品可廣泛應用於微波電子、電力電子等領域。今年首3季，天岳先進營業總收入12.81億元人民幣(下同)，按年上升55.34%；淨利潤1.43億元，按年上升3.09倍。
+報道引述業內人士提到，赴港上市是推動A股公司國際化戰略的重要一環。本月以來，除天岳先進，已有多家A股上市公司宣布「A+H」兩地上市的計劃，包括邁威生物、寧德時代、江波龍、三花智控、海天味業、恒瑞醫藥、均勝電子及安井食品等。
+東網網站 : https://on.cc/東網Facebook專頁 : https://www.facebook.com/onccnews/</t>
+  </si>
+  <si>
+    <t>2024-12-29 15:10:45</t>
+  </si>
+  <si>
+    <t>中國科創板上市公司天岳先進宣佈計劃在香港聯交所發行H股上市，以推進國際化戰略、拓展海外業務和增強境外融資能力。雖然具體上市時間最快也要等到明年下半年，但此舉預計將吸引更多國際投資者，為公司提供更多資金和資源，促進全球業務拓展和市場競爭，並提升公司治理水平和風險管理能力。天岳先進是一家寬禁帶半導體材料生產商，主要生產碳化硅半導體材料，今年前三季度營收和淨利潤均大幅增長。  近期有多家A股公司宣佈了「A+H」兩地上市的計劃。</t>
+  </si>
+  <si>
+    <t>天岳先進擬在香港聯交所發行H股上市，加快國際化戰略及海外業務布局，增強境外融資能力。正式啟動港股上市程序，最快要等到明年下半年。通過在香港上市，天岳先進可以吸引更多國際投資者，為公司提供更多資金和資源支持，有助於公司在全球進行業務拓展和市場競爭；在港上市有助於公司提升治理水平和風險管理能力。天岳先進是一家寬禁帶半導體材料生產商，今年首3季，營業總收入12.81億元人民幣，按年上升55.34%；淨利潤1.43億元，按年上升3.09倍。本月以來，已有多家A股上市公司宣布「A+H」兩地上市的計劃。</t>
+  </si>
+  <si>
+    <t>天岳先進、H股上市、香港聯交所、A+H上市、國際化戰略、海外業務、碳化硅半導體材料、寬禁帶半導體、境外融資、國際投資者、營收增長、淨利潤增長</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天岳先進擁有穩定的業務和強勁的財務表現，為上市提供了堅實基礎。
+香港資本市場成熟，可以為天岳先進帶來更多投資機會和更廣闊的發展空間。
+H股上市可以提升公司國際知名度和品牌形象。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上市過程需要較長時間和較高成本，存在不確定性。
+香港市場競爭激烈，天岳先進需要面對來自其他公司的挑戰。
+國際市場波動性較大，可能影響公司業績。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">獲得更多資金支持，擴大生產規模和研發投入。
+吸引國際人才，提升公司競爭力。
+拓展國際市場，提升公司全球影響力。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">國際經濟環境不穩定，可能影響投資者的信心。
+監管政策變化，可能增加上市的難度。
+市場競爭加劇，可能影響公司的盈利能力。
+</t>
+  </si>
 </sst>
 </file>
 
@@ -20599,7 +23674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S394"/>
+  <dimension ref="A1:S450"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -43851,6 +46926,3310 @@
         <v>51</v>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" t="s" s="0">
+        <v>4123</v>
+      </c>
+      <c r="B395" t="s" s="0">
+        <v>4124</v>
+      </c>
+      <c r="C395" t="s" s="0">
+        <v>4125</v>
+      </c>
+      <c r="D395" t="s" s="0">
+        <v>4126</v>
+      </c>
+      <c r="E395" t="s" s="0">
+        <v>4127</v>
+      </c>
+      <c r="F395" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G395" t="s" s="0">
+        <v>4128</v>
+      </c>
+      <c r="H395" t="s" s="0">
+        <v>4129</v>
+      </c>
+      <c r="I395" t="s" s="0">
+        <v>4130</v>
+      </c>
+      <c r="J395" t="s" s="0">
+        <v>4131</v>
+      </c>
+      <c r="K395" t="s" s="0">
+        <v>4132</v>
+      </c>
+      <c r="L395" t="s" s="0">
+        <v>4133</v>
+      </c>
+      <c r="M395" t="s" s="0">
+        <v>4134</v>
+      </c>
+      <c r="N395" t="s" s="0">
+        <v>1238</v>
+      </c>
+      <c r="O395" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P395" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="Q395" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="R395" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S395" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="0">
+        <v>4135</v>
+      </c>
+      <c r="B396" t="s" s="0">
+        <v>4136</v>
+      </c>
+      <c r="C396" t="s" s="0">
+        <v>4137</v>
+      </c>
+      <c r="D396" t="s" s="0">
+        <v>4138</v>
+      </c>
+      <c r="E396" t="s" s="0">
+        <v>4139</v>
+      </c>
+      <c r="F396" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G396" t="s" s="0">
+        <v>4140</v>
+      </c>
+      <c r="H396" t="s" s="0">
+        <v>4141</v>
+      </c>
+      <c r="I396" t="s" s="0">
+        <v>4142</v>
+      </c>
+      <c r="J396" t="s" s="0">
+        <v>4143</v>
+      </c>
+      <c r="K396" t="s" s="0">
+        <v>4144</v>
+      </c>
+      <c r="L396" t="s" s="0">
+        <v>4145</v>
+      </c>
+      <c r="M396" t="s" s="0">
+        <v>4146</v>
+      </c>
+      <c r="N396" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="O396" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P396" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q396" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="R396" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="S396" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="0">
+        <v>4147</v>
+      </c>
+      <c r="B397" t="s" s="0">
+        <v>4148</v>
+      </c>
+      <c r="C397" t="s" s="0">
+        <v>4149</v>
+      </c>
+      <c r="D397" t="s" s="0">
+        <v>4150</v>
+      </c>
+      <c r="E397" t="s" s="0">
+        <v>4151</v>
+      </c>
+      <c r="F397" t="s" s="0">
+        <v>4152</v>
+      </c>
+      <c r="G397" t="s" s="0">
+        <v>4153</v>
+      </c>
+      <c r="H397" t="s" s="0">
+        <v>4154</v>
+      </c>
+      <c r="I397" t="s" s="0">
+        <v>4155</v>
+      </c>
+      <c r="J397" t="s" s="0">
+        <v>4156</v>
+      </c>
+      <c r="K397" t="s" s="0">
+        <v>4157</v>
+      </c>
+      <c r="L397" t="s" s="0">
+        <v>4158</v>
+      </c>
+      <c r="M397" t="s" s="0">
+        <v>4159</v>
+      </c>
+      <c r="N397" t="s" s="0">
+        <v>1047</v>
+      </c>
+      <c r="O397" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P397" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="Q397" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="R397" t="s" s="0">
+        <v>2616</v>
+      </c>
+      <c r="S397" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="0">
+        <v>4160</v>
+      </c>
+      <c r="B398" t="s" s="0">
+        <v>4161</v>
+      </c>
+      <c r="C398" t="s" s="0">
+        <v>4162</v>
+      </c>
+      <c r="D398" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E398" t="s" s="0">
+        <v>4163</v>
+      </c>
+      <c r="F398" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G398" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H398" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I398" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J398" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="K398" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="L398" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="M398" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="N398" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="O398" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="P398" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q398" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R398" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S398" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="0">
+        <v>4164</v>
+      </c>
+      <c r="B399" t="s" s="0">
+        <v>4165</v>
+      </c>
+      <c r="C399" t="s" s="0">
+        <v>4166</v>
+      </c>
+      <c r="D399" t="s" s="0">
+        <v>4167</v>
+      </c>
+      <c r="E399" t="s" s="0">
+        <v>4168</v>
+      </c>
+      <c r="F399" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G399" t="s" s="0">
+        <v>4169</v>
+      </c>
+      <c r="H399" t="s" s="0">
+        <v>4170</v>
+      </c>
+      <c r="I399" t="s" s="0">
+        <v>4171</v>
+      </c>
+      <c r="J399" t="s" s="0">
+        <v>4172</v>
+      </c>
+      <c r="K399" t="s" s="0">
+        <v>4173</v>
+      </c>
+      <c r="L399" t="s" s="0">
+        <v>4174</v>
+      </c>
+      <c r="M399" t="s" s="0">
+        <v>4175</v>
+      </c>
+      <c r="N399" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="O399" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P399" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q399" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R399" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S399" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="0">
+        <v>4176</v>
+      </c>
+      <c r="B400" t="s" s="0">
+        <v>4177</v>
+      </c>
+      <c r="C400" t="s" s="0">
+        <v>4178</v>
+      </c>
+      <c r="D400" t="s" s="0">
+        <v>4179</v>
+      </c>
+      <c r="E400" t="s" s="0">
+        <v>4180</v>
+      </c>
+      <c r="F400" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G400" t="s" s="0">
+        <v>4181</v>
+      </c>
+      <c r="H400" t="s" s="0">
+        <v>4182</v>
+      </c>
+      <c r="I400" t="s" s="0">
+        <v>4183</v>
+      </c>
+      <c r="J400" t="s" s="0">
+        <v>4184</v>
+      </c>
+      <c r="K400" t="s" s="0">
+        <v>4185</v>
+      </c>
+      <c r="L400" t="s" s="0">
+        <v>4186</v>
+      </c>
+      <c r="M400" t="s" s="0">
+        <v>4187</v>
+      </c>
+      <c r="N400" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="O400" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P400" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="Q400" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="R400" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="S400" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="0">
+        <v>4188</v>
+      </c>
+      <c r="B401" t="s" s="0">
+        <v>4189</v>
+      </c>
+      <c r="C401" t="s" s="0">
+        <v>4190</v>
+      </c>
+      <c r="D401" t="s" s="0">
+        <v>4191</v>
+      </c>
+      <c r="E401" t="s" s="0">
+        <v>4192</v>
+      </c>
+      <c r="F401" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G401" t="s" s="0">
+        <v>4193</v>
+      </c>
+      <c r="H401" t="s" s="0">
+        <v>4194</v>
+      </c>
+      <c r="I401" t="s" s="0">
+        <v>4195</v>
+      </c>
+      <c r="J401" t="s" s="0">
+        <v>4196</v>
+      </c>
+      <c r="K401" t="s" s="0">
+        <v>4197</v>
+      </c>
+      <c r="L401" t="s" s="0">
+        <v>4198</v>
+      </c>
+      <c r="M401" t="s" s="0">
+        <v>4199</v>
+      </c>
+      <c r="N401" t="s" s="0">
+        <v>1064</v>
+      </c>
+      <c r="O401" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P401" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q401" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="R401" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S401" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s" s="0">
+        <v>4200</v>
+      </c>
+      <c r="B402" t="s" s="0">
+        <v>4201</v>
+      </c>
+      <c r="C402" t="s" s="0">
+        <v>4202</v>
+      </c>
+      <c r="D402" t="s" s="0">
+        <v>4203</v>
+      </c>
+      <c r="E402" t="s" s="0">
+        <v>4204</v>
+      </c>
+      <c r="F402" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G402" t="s" s="0">
+        <v>4205</v>
+      </c>
+      <c r="H402" t="s" s="0">
+        <v>4206</v>
+      </c>
+      <c r="I402" t="s" s="0">
+        <v>4207</v>
+      </c>
+      <c r="J402" t="s" s="0">
+        <v>4208</v>
+      </c>
+      <c r="K402" t="s" s="0">
+        <v>4209</v>
+      </c>
+      <c r="L402" t="s" s="0">
+        <v>4210</v>
+      </c>
+      <c r="M402" t="s" s="0">
+        <v>4211</v>
+      </c>
+      <c r="N402" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="O402" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P402" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q402" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R402" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S402" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s" s="0">
+        <v>4212</v>
+      </c>
+      <c r="B403" t="s" s="0">
+        <v>4213</v>
+      </c>
+      <c r="C403" t="s" s="0">
+        <v>4214</v>
+      </c>
+      <c r="D403" t="s" s="0">
+        <v>4215</v>
+      </c>
+      <c r="E403" t="s" s="0">
+        <v>4216</v>
+      </c>
+      <c r="F403" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G403" t="s" s="0">
+        <v>4217</v>
+      </c>
+      <c r="H403" t="s" s="0">
+        <v>4218</v>
+      </c>
+      <c r="I403" t="s" s="0">
+        <v>4219</v>
+      </c>
+      <c r="J403" t="s" s="0">
+        <v>4220</v>
+      </c>
+      <c r="K403" t="s" s="0">
+        <v>4221</v>
+      </c>
+      <c r="L403" t="s" s="0">
+        <v>4222</v>
+      </c>
+      <c r="M403" t="s" s="0">
+        <v>4223</v>
+      </c>
+      <c r="N403" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="O403" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P403" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="Q403" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="R403" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="S403" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s" s="0">
+        <v>4224</v>
+      </c>
+      <c r="B404" t="s" s="0">
+        <v>4225</v>
+      </c>
+      <c r="C404" t="s" s="0">
+        <v>4226</v>
+      </c>
+      <c r="D404" t="s" s="0">
+        <v>2372</v>
+      </c>
+      <c r="E404" t="s" s="0">
+        <v>4227</v>
+      </c>
+      <c r="F404" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G404" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H404" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I404" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J404" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="K404" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="L404" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="M404" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="N404" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="O404" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="P404" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q404" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R404" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S404" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s" s="0">
+        <v>4228</v>
+      </c>
+      <c r="B405" t="s" s="0">
+        <v>4229</v>
+      </c>
+      <c r="C405" t="s" s="0">
+        <v>4230</v>
+      </c>
+      <c r="D405" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E405" t="s" s="0">
+        <v>4231</v>
+      </c>
+      <c r="F405" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G405" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H405" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I405" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J405" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="K405" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="L405" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="M405" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="N405" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="O405" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="P405" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q405" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R405" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S405" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s" s="0">
+        <v>4232</v>
+      </c>
+      <c r="B406" t="s" s="0">
+        <v>4233</v>
+      </c>
+      <c r="C406" t="s" s="0">
+        <v>4234</v>
+      </c>
+      <c r="D406" t="s" s="0">
+        <v>4235</v>
+      </c>
+      <c r="E406" t="s" s="0">
+        <v>4236</v>
+      </c>
+      <c r="F406" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G406" t="s" s="0">
+        <v>4237</v>
+      </c>
+      <c r="H406" t="s" s="0">
+        <v>4238</v>
+      </c>
+      <c r="I406" t="s" s="0">
+        <v>4239</v>
+      </c>
+      <c r="J406" t="s" s="0">
+        <v>4240</v>
+      </c>
+      <c r="K406" t="s" s="0">
+        <v>4241</v>
+      </c>
+      <c r="L406" t="s" s="0">
+        <v>4242</v>
+      </c>
+      <c r="M406" t="s" s="0">
+        <v>4243</v>
+      </c>
+      <c r="N406" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="O406" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P406" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="Q406" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="R406" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S406" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s" s="0">
+        <v>4244</v>
+      </c>
+      <c r="B407" t="s" s="0">
+        <v>4245</v>
+      </c>
+      <c r="C407" t="s" s="0">
+        <v>4246</v>
+      </c>
+      <c r="D407" t="s" s="0">
+        <v>4247</v>
+      </c>
+      <c r="E407" t="s" s="0">
+        <v>4248</v>
+      </c>
+      <c r="F407" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G407" t="s" s="0">
+        <v>4249</v>
+      </c>
+      <c r="H407" t="s" s="0">
+        <v>4250</v>
+      </c>
+      <c r="I407" t="s" s="0">
+        <v>4251</v>
+      </c>
+      <c r="J407" t="s" s="0">
+        <v>4252</v>
+      </c>
+      <c r="K407" t="s" s="0">
+        <v>4253</v>
+      </c>
+      <c r="L407" t="s" s="0">
+        <v>4254</v>
+      </c>
+      <c r="M407" t="s" s="0">
+        <v>4255</v>
+      </c>
+      <c r="N407" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="O407" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P407" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q407" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R407" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S407" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s" s="0">
+        <v>4256</v>
+      </c>
+      <c r="B408" t="s" s="0">
+        <v>4257</v>
+      </c>
+      <c r="C408" t="s" s="0">
+        <v>4258</v>
+      </c>
+      <c r="D408" t="s" s="0">
+        <v>4259</v>
+      </c>
+      <c r="E408" t="s" s="0">
+        <v>4260</v>
+      </c>
+      <c r="F408" t="s" s="0">
+        <v>2922</v>
+      </c>
+      <c r="G408" t="s" s="0">
+        <v>4261</v>
+      </c>
+      <c r="H408" t="s" s="0">
+        <v>4262</v>
+      </c>
+      <c r="I408" t="s" s="0">
+        <v>4263</v>
+      </c>
+      <c r="J408" t="s" s="0">
+        <v>4264</v>
+      </c>
+      <c r="K408" t="s" s="0">
+        <v>4265</v>
+      </c>
+      <c r="L408" t="s" s="0">
+        <v>4266</v>
+      </c>
+      <c r="M408" t="s" s="0">
+        <v>4267</v>
+      </c>
+      <c r="N408" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="O408" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P408" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q408" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="R408" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S408" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s" s="0">
+        <v>4268</v>
+      </c>
+      <c r="B409" t="s" s="0">
+        <v>4269</v>
+      </c>
+      <c r="C409" t="s" s="0">
+        <v>4270</v>
+      </c>
+      <c r="D409" t="s" s="0">
+        <v>4271</v>
+      </c>
+      <c r="E409" t="s" s="0">
+        <v>4272</v>
+      </c>
+      <c r="F409" t="s" s="0">
+        <v>4273</v>
+      </c>
+      <c r="G409" t="s" s="0">
+        <v>4274</v>
+      </c>
+      <c r="H409" t="s" s="0">
+        <v>4275</v>
+      </c>
+      <c r="I409" t="s" s="0">
+        <v>4276</v>
+      </c>
+      <c r="J409" t="s" s="0">
+        <v>4277</v>
+      </c>
+      <c r="K409" t="s" s="0">
+        <v>4278</v>
+      </c>
+      <c r="L409" t="s" s="0">
+        <v>4279</v>
+      </c>
+      <c r="M409" t="s" s="0">
+        <v>4280</v>
+      </c>
+      <c r="N409" t="s" s="0">
+        <v>1064</v>
+      </c>
+      <c r="O409" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P409" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="Q409" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="R409" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S409" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s" s="0">
+        <v>4281</v>
+      </c>
+      <c r="B410" t="s" s="0">
+        <v>4282</v>
+      </c>
+      <c r="C410" t="s" s="0">
+        <v>4283</v>
+      </c>
+      <c r="D410" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E410" t="s" s="0">
+        <v>4284</v>
+      </c>
+      <c r="F410" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G410" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H410" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I410" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J410" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="K410" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="L410" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="M410" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="N410" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="O410" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="P410" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q410" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R410" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S410" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s" s="0">
+        <v>4285</v>
+      </c>
+      <c r="B411" t="s" s="0">
+        <v>4286</v>
+      </c>
+      <c r="C411" t="s" s="0">
+        <v>4287</v>
+      </c>
+      <c r="D411" t="s" s="0">
+        <v>4288</v>
+      </c>
+      <c r="E411" t="s" s="0">
+        <v>4289</v>
+      </c>
+      <c r="F411" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G411" t="s" s="0">
+        <v>4290</v>
+      </c>
+      <c r="H411" t="s" s="0">
+        <v>4291</v>
+      </c>
+      <c r="I411" t="s" s="0">
+        <v>4292</v>
+      </c>
+      <c r="J411" t="s" s="0">
+        <v>4293</v>
+      </c>
+      <c r="K411" t="s" s="0">
+        <v>4294</v>
+      </c>
+      <c r="L411" t="s" s="0">
+        <v>4295</v>
+      </c>
+      <c r="M411" t="s" s="0">
+        <v>4296</v>
+      </c>
+      <c r="N411" t="s" s="0">
+        <v>3695</v>
+      </c>
+      <c r="O411" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P411" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="Q411" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="R411" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="S411" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s" s="0">
+        <v>4297</v>
+      </c>
+      <c r="B412" t="s" s="0">
+        <v>4298</v>
+      </c>
+      <c r="C412" t="s" s="0">
+        <v>4299</v>
+      </c>
+      <c r="D412" t="s" s="0">
+        <v>4300</v>
+      </c>
+      <c r="E412" t="s" s="0">
+        <v>4301</v>
+      </c>
+      <c r="F412" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G412" t="s" s="0">
+        <v>4302</v>
+      </c>
+      <c r="H412" t="s" s="0">
+        <v>4303</v>
+      </c>
+      <c r="I412" t="s" s="0">
+        <v>4304</v>
+      </c>
+      <c r="J412" t="s" s="0">
+        <v>4305</v>
+      </c>
+      <c r="K412" t="s" s="0">
+        <v>4306</v>
+      </c>
+      <c r="L412" t="s" s="0">
+        <v>4307</v>
+      </c>
+      <c r="M412" t="s" s="0">
+        <v>4308</v>
+      </c>
+      <c r="N412" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="O412" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P412" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q412" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R412" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S412" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="0">
+        <v>4309</v>
+      </c>
+      <c r="B413" t="s" s="0">
+        <v>4310</v>
+      </c>
+      <c r="C413" t="s" s="0">
+        <v>4311</v>
+      </c>
+      <c r="D413" t="s" s="0">
+        <v>4312</v>
+      </c>
+      <c r="E413" t="s" s="0">
+        <v>4313</v>
+      </c>
+      <c r="F413" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G413" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H413" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I413" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J413" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="K413" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="L413" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="M413" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="N413" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="O413" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="P413" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q413" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R413" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S413" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="0">
+        <v>4314</v>
+      </c>
+      <c r="B414" t="s" s="0">
+        <v>4315</v>
+      </c>
+      <c r="C414" t="s" s="0">
+        <v>4316</v>
+      </c>
+      <c r="D414" t="s" s="0">
+        <v>4317</v>
+      </c>
+      <c r="E414" t="s" s="0">
+        <v>4318</v>
+      </c>
+      <c r="F414" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G414" t="s" s="0">
+        <v>4319</v>
+      </c>
+      <c r="H414" t="s" s="0">
+        <v>4320</v>
+      </c>
+      <c r="I414" t="s" s="0">
+        <v>4321</v>
+      </c>
+      <c r="J414" t="s" s="0">
+        <v>4322</v>
+      </c>
+      <c r="K414" t="s" s="0">
+        <v>4323</v>
+      </c>
+      <c r="L414" t="s" s="0">
+        <v>4324</v>
+      </c>
+      <c r="M414" t="s" s="0">
+        <v>4325</v>
+      </c>
+      <c r="N414" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="O414" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P414" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q414" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R414" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S414" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="0">
+        <v>4326</v>
+      </c>
+      <c r="B415" t="s" s="0">
+        <v>4327</v>
+      </c>
+      <c r="C415" t="s" s="0">
+        <v>4328</v>
+      </c>
+      <c r="D415" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E415" t="s" s="0">
+        <v>4329</v>
+      </c>
+      <c r="F415" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G415" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H415" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I415" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J415" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="K415" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="L415" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="M415" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="N415" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="O415" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="P415" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q415" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R415" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S415" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="0">
+        <v>4330</v>
+      </c>
+      <c r="B416" t="s" s="0">
+        <v>4331</v>
+      </c>
+      <c r="C416" t="s" s="0">
+        <v>4332</v>
+      </c>
+      <c r="D416" t="s" s="0">
+        <v>4333</v>
+      </c>
+      <c r="E416" t="s" s="0">
+        <v>4334</v>
+      </c>
+      <c r="F416" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G416" t="s" s="0">
+        <v>4335</v>
+      </c>
+      <c r="H416" t="s" s="0">
+        <v>4336</v>
+      </c>
+      <c r="I416" t="s" s="0">
+        <v>4337</v>
+      </c>
+      <c r="J416" t="s" s="0">
+        <v>4338</v>
+      </c>
+      <c r="K416" t="s" s="0">
+        <v>4339</v>
+      </c>
+      <c r="L416" t="s" s="0">
+        <v>4340</v>
+      </c>
+      <c r="M416" t="s" s="0">
+        <v>4341</v>
+      </c>
+      <c r="N416" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="O416" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P416" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="Q416" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R416" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S416" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s" s="0">
+        <v>4342</v>
+      </c>
+      <c r="B417" t="s" s="0">
+        <v>4343</v>
+      </c>
+      <c r="C417" t="s" s="0">
+        <v>4344</v>
+      </c>
+      <c r="D417" t="s" s="0">
+        <v>4345</v>
+      </c>
+      <c r="E417" t="s" s="0">
+        <v>4346</v>
+      </c>
+      <c r="F417" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G417" t="s" s="0">
+        <v>4347</v>
+      </c>
+      <c r="H417" t="s" s="0">
+        <v>4348</v>
+      </c>
+      <c r="I417" t="s" s="0">
+        <v>4349</v>
+      </c>
+      <c r="J417" t="s" s="0">
+        <v>4350</v>
+      </c>
+      <c r="K417" t="s" s="0">
+        <v>4351</v>
+      </c>
+      <c r="L417" t="s" s="0">
+        <v>4352</v>
+      </c>
+      <c r="M417" t="s" s="0">
+        <v>4353</v>
+      </c>
+      <c r="N417" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="O417" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P417" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="Q417" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R417" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S417" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s" s="0">
+        <v>4354</v>
+      </c>
+      <c r="B418" t="s" s="0">
+        <v>4355</v>
+      </c>
+      <c r="C418" t="s" s="0">
+        <v>4356</v>
+      </c>
+      <c r="D418" t="s" s="0">
+        <v>4357</v>
+      </c>
+      <c r="E418" t="s" s="0">
+        <v>4358</v>
+      </c>
+      <c r="F418" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G418" t="s" s="0">
+        <v>4359</v>
+      </c>
+      <c r="H418" t="s" s="0">
+        <v>4360</v>
+      </c>
+      <c r="I418" t="s" s="0">
+        <v>4361</v>
+      </c>
+      <c r="J418" t="s" s="0">
+        <v>4362</v>
+      </c>
+      <c r="K418" t="s" s="0">
+        <v>4363</v>
+      </c>
+      <c r="L418" t="s" s="0">
+        <v>4364</v>
+      </c>
+      <c r="M418" t="s" s="0">
+        <v>4365</v>
+      </c>
+      <c r="N418" t="s" s="0">
+        <v>1064</v>
+      </c>
+      <c r="O418" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P418" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q418" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="R418" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S418" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s" s="0">
+        <v>4366</v>
+      </c>
+      <c r="B419" t="s" s="0">
+        <v>4367</v>
+      </c>
+      <c r="C419" t="s" s="0">
+        <v>4368</v>
+      </c>
+      <c r="D419" t="s" s="0">
+        <v>4369</v>
+      </c>
+      <c r="E419" t="s" s="0">
+        <v>4370</v>
+      </c>
+      <c r="F419" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G419" t="s" s="0">
+        <v>4371</v>
+      </c>
+      <c r="H419" t="s" s="0">
+        <v>4372</v>
+      </c>
+      <c r="I419" t="s" s="0">
+        <v>4373</v>
+      </c>
+      <c r="J419" t="s" s="0">
+        <v>4374</v>
+      </c>
+      <c r="K419" t="s" s="0">
+        <v>4375</v>
+      </c>
+      <c r="L419" t="s" s="0">
+        <v>4376</v>
+      </c>
+      <c r="M419" t="s" s="0">
+        <v>4377</v>
+      </c>
+      <c r="N419" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="O419" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P419" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="Q419" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="R419" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="S419" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s" s="0">
+        <v>4378</v>
+      </c>
+      <c r="B420" t="s" s="0">
+        <v>4379</v>
+      </c>
+      <c r="C420" t="s" s="0">
+        <v>4380</v>
+      </c>
+      <c r="D420" t="s" s="0">
+        <v>4381</v>
+      </c>
+      <c r="E420" t="s" s="0">
+        <v>4382</v>
+      </c>
+      <c r="F420" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G420" t="s" s="0">
+        <v>4383</v>
+      </c>
+      <c r="H420" t="s" s="0">
+        <v>4384</v>
+      </c>
+      <c r="I420" t="s" s="0">
+        <v>4385</v>
+      </c>
+      <c r="J420" t="s" s="0">
+        <v>4386</v>
+      </c>
+      <c r="K420" t="s" s="0">
+        <v>4387</v>
+      </c>
+      <c r="L420" t="s" s="0">
+        <v>4388</v>
+      </c>
+      <c r="M420" t="s" s="0">
+        <v>4389</v>
+      </c>
+      <c r="N420" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="O420" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P420" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q420" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="R420" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="S420" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s" s="0">
+        <v>4390</v>
+      </c>
+      <c r="B421" t="s" s="0">
+        <v>4391</v>
+      </c>
+      <c r="C421" t="s" s="0">
+        <v>4392</v>
+      </c>
+      <c r="D421" t="s" s="0">
+        <v>4393</v>
+      </c>
+      <c r="E421" t="s" s="0">
+        <v>4394</v>
+      </c>
+      <c r="F421" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G421" t="s" s="0">
+        <v>4395</v>
+      </c>
+      <c r="H421" t="s" s="0">
+        <v>4396</v>
+      </c>
+      <c r="I421" t="s" s="0">
+        <v>4397</v>
+      </c>
+      <c r="J421" t="s" s="0">
+        <v>4398</v>
+      </c>
+      <c r="K421" t="s" s="0">
+        <v>4399</v>
+      </c>
+      <c r="L421" t="s" s="0">
+        <v>4400</v>
+      </c>
+      <c r="M421" t="s" s="0">
+        <v>4401</v>
+      </c>
+      <c r="N421" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="O421" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P421" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q421" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R421" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S421" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s" s="0">
+        <v>4402</v>
+      </c>
+      <c r="B422" t="s" s="0">
+        <v>4403</v>
+      </c>
+      <c r="C422" t="s" s="0">
+        <v>4404</v>
+      </c>
+      <c r="D422" t="s" s="0">
+        <v>4405</v>
+      </c>
+      <c r="E422" t="s" s="0">
+        <v>4406</v>
+      </c>
+      <c r="F422" t="s" s="0">
+        <v>2827</v>
+      </c>
+      <c r="G422" t="s" s="0">
+        <v>4407</v>
+      </c>
+      <c r="H422" t="s" s="0">
+        <v>4408</v>
+      </c>
+      <c r="I422" t="s" s="0">
+        <v>4409</v>
+      </c>
+      <c r="J422" t="s" s="0">
+        <v>4410</v>
+      </c>
+      <c r="K422" t="s" s="0">
+        <v>4411</v>
+      </c>
+      <c r="L422" t="s" s="0">
+        <v>4412</v>
+      </c>
+      <c r="M422" t="s" s="0">
+        <v>4413</v>
+      </c>
+      <c r="N422" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="O422" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P422" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q422" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="R422" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S422" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s" s="0">
+        <v>4414</v>
+      </c>
+      <c r="B423" t="s" s="0">
+        <v>4415</v>
+      </c>
+      <c r="C423" t="s" s="0">
+        <v>4416</v>
+      </c>
+      <c r="D423" t="s" s="0">
+        <v>4417</v>
+      </c>
+      <c r="E423" t="s" s="0">
+        <v>4418</v>
+      </c>
+      <c r="F423" t="s" s="0">
+        <v>840</v>
+      </c>
+      <c r="G423" t="s" s="0">
+        <v>4419</v>
+      </c>
+      <c r="H423" t="s" s="0">
+        <v>4420</v>
+      </c>
+      <c r="I423" t="s" s="0">
+        <v>4421</v>
+      </c>
+      <c r="J423" t="s" s="0">
+        <v>4422</v>
+      </c>
+      <c r="K423" t="s" s="0">
+        <v>4423</v>
+      </c>
+      <c r="L423" t="s" s="0">
+        <v>4424</v>
+      </c>
+      <c r="M423" t="s" s="0">
+        <v>4425</v>
+      </c>
+      <c r="N423" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="O423" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="P423" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q423" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R423" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S423" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s" s="0">
+        <v>4426</v>
+      </c>
+      <c r="B424" t="s" s="0">
+        <v>4427</v>
+      </c>
+      <c r="C424" t="s" s="0">
+        <v>4428</v>
+      </c>
+      <c r="D424" t="s" s="0">
+        <v>4429</v>
+      </c>
+      <c r="E424" t="s" s="0">
+        <v>4430</v>
+      </c>
+      <c r="F424" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G424" t="s" s="0">
+        <v>4431</v>
+      </c>
+      <c r="H424" t="s" s="0">
+        <v>4432</v>
+      </c>
+      <c r="I424" t="s" s="0">
+        <v>4433</v>
+      </c>
+      <c r="J424" t="s" s="0">
+        <v>4434</v>
+      </c>
+      <c r="K424" t="s" s="0">
+        <v>4435</v>
+      </c>
+      <c r="L424" t="s" s="0">
+        <v>4436</v>
+      </c>
+      <c r="M424" t="s" s="0">
+        <v>4437</v>
+      </c>
+      <c r="N424" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="O424" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P424" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q424" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R424" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S424" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s" s="0">
+        <v>4438</v>
+      </c>
+      <c r="B425" t="s" s="0">
+        <v>4439</v>
+      </c>
+      <c r="C425" t="s" s="0">
+        <v>4440</v>
+      </c>
+      <c r="D425" t="s" s="0">
+        <v>4441</v>
+      </c>
+      <c r="E425" t="s" s="0">
+        <v>4442</v>
+      </c>
+      <c r="F425" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G425" t="s" s="0">
+        <v>4443</v>
+      </c>
+      <c r="H425" t="s" s="0">
+        <v>4444</v>
+      </c>
+      <c r="I425" t="s" s="0">
+        <v>4445</v>
+      </c>
+      <c r="J425" t="s" s="0">
+        <v>4446</v>
+      </c>
+      <c r="K425" t="s" s="0">
+        <v>4447</v>
+      </c>
+      <c r="L425" t="s" s="0">
+        <v>4448</v>
+      </c>
+      <c r="M425" t="s" s="0">
+        <v>4449</v>
+      </c>
+      <c r="N425" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="O425" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P425" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q425" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R425" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S425" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s" s="0">
+        <v>4450</v>
+      </c>
+      <c r="B426" t="s" s="0">
+        <v>4451</v>
+      </c>
+      <c r="C426" t="s" s="0">
+        <v>4452</v>
+      </c>
+      <c r="D426" t="s" s="0">
+        <v>4453</v>
+      </c>
+      <c r="E426" t="s" s="0">
+        <v>4454</v>
+      </c>
+      <c r="F426" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G426" t="s" s="0">
+        <v>4455</v>
+      </c>
+      <c r="H426" t="s" s="0">
+        <v>4456</v>
+      </c>
+      <c r="I426" t="s" s="0">
+        <v>4457</v>
+      </c>
+      <c r="J426" t="s" s="0">
+        <v>4458</v>
+      </c>
+      <c r="K426" t="s" s="0">
+        <v>4459</v>
+      </c>
+      <c r="L426" t="s" s="0">
+        <v>4460</v>
+      </c>
+      <c r="M426" t="s" s="0">
+        <v>4461</v>
+      </c>
+      <c r="N426" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="O426" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P426" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q426" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R426" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S426" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s" s="0">
+        <v>4462</v>
+      </c>
+      <c r="B427" t="s" s="0">
+        <v>4463</v>
+      </c>
+      <c r="C427" t="s" s="0">
+        <v>4464</v>
+      </c>
+      <c r="D427" t="s" s="0">
+        <v>4465</v>
+      </c>
+      <c r="E427" t="s" s="0">
+        <v>4466</v>
+      </c>
+      <c r="F427" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G427" t="s" s="0">
+        <v>4467</v>
+      </c>
+      <c r="H427" t="s" s="0">
+        <v>4468</v>
+      </c>
+      <c r="I427" t="s" s="0">
+        <v>4469</v>
+      </c>
+      <c r="J427" t="s" s="0">
+        <v>4470</v>
+      </c>
+      <c r="K427" t="s" s="0">
+        <v>4471</v>
+      </c>
+      <c r="L427" t="s" s="0">
+        <v>4472</v>
+      </c>
+      <c r="M427" t="s" s="0">
+        <v>4473</v>
+      </c>
+      <c r="N427" t="s" s="0">
+        <v>4474</v>
+      </c>
+      <c r="O427" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P427" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q427" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R427" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="S427" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s" s="0">
+        <v>4475</v>
+      </c>
+      <c r="B428" t="s" s="0">
+        <v>4476</v>
+      </c>
+      <c r="C428" t="s" s="0">
+        <v>4477</v>
+      </c>
+      <c r="D428" t="s" s="0">
+        <v>4478</v>
+      </c>
+      <c r="E428" t="s" s="0">
+        <v>4479</v>
+      </c>
+      <c r="F428" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G428" t="s" s="0">
+        <v>4480</v>
+      </c>
+      <c r="H428" t="s" s="0">
+        <v>4481</v>
+      </c>
+      <c r="I428" t="s" s="0">
+        <v>4482</v>
+      </c>
+      <c r="J428" t="s" s="0">
+        <v>4483</v>
+      </c>
+      <c r="K428" t="s" s="0">
+        <v>4484</v>
+      </c>
+      <c r="L428" t="s" s="0">
+        <v>4485</v>
+      </c>
+      <c r="M428" t="s" s="0">
+        <v>4486</v>
+      </c>
+      <c r="N428" t="s" s="0">
+        <v>945</v>
+      </c>
+      <c r="O428" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P428" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="Q428" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="R428" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="S428" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s" s="0">
+        <v>4487</v>
+      </c>
+      <c r="B429" t="s" s="0">
+        <v>4488</v>
+      </c>
+      <c r="C429" t="s" s="0">
+        <v>4489</v>
+      </c>
+      <c r="D429" t="s" s="0">
+        <v>4490</v>
+      </c>
+      <c r="E429" t="s" s="0">
+        <v>4491</v>
+      </c>
+      <c r="F429" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G429" t="s" s="0">
+        <v>4492</v>
+      </c>
+      <c r="H429" t="s" s="0">
+        <v>4493</v>
+      </c>
+      <c r="I429" t="s" s="0">
+        <v>4494</v>
+      </c>
+      <c r="J429" t="s" s="0">
+        <v>4495</v>
+      </c>
+      <c r="K429" t="s" s="0">
+        <v>4496</v>
+      </c>
+      <c r="L429" t="s" s="0">
+        <v>4497</v>
+      </c>
+      <c r="M429" t="s" s="0">
+        <v>4498</v>
+      </c>
+      <c r="N429" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="O429" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P429" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q429" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="R429" t="s" s="0">
+        <v>2616</v>
+      </c>
+      <c r="S429" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s" s="0">
+        <v>4499</v>
+      </c>
+      <c r="B430" t="s" s="0">
+        <v>4500</v>
+      </c>
+      <c r="C430" t="s" s="0">
+        <v>4501</v>
+      </c>
+      <c r="D430" t="s" s="0">
+        <v>4502</v>
+      </c>
+      <c r="E430" t="s" s="0">
+        <v>4503</v>
+      </c>
+      <c r="F430" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G430" t="s" s="0">
+        <v>4504</v>
+      </c>
+      <c r="H430" t="s" s="0">
+        <v>4505</v>
+      </c>
+      <c r="I430" t="s" s="0">
+        <v>4506</v>
+      </c>
+      <c r="J430" t="s" s="0">
+        <v>4507</v>
+      </c>
+      <c r="K430" t="s" s="0">
+        <v>4508</v>
+      </c>
+      <c r="L430" t="s" s="0">
+        <v>4509</v>
+      </c>
+      <c r="M430" t="s" s="0">
+        <v>4510</v>
+      </c>
+      <c r="N430" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="O430" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P430" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q430" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R430" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S430" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s" s="0">
+        <v>4511</v>
+      </c>
+      <c r="B431" t="s" s="0">
+        <v>4512</v>
+      </c>
+      <c r="C431" t="s" s="0">
+        <v>4513</v>
+      </c>
+      <c r="D431" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E431" t="s" s="0">
+        <v>4514</v>
+      </c>
+      <c r="F431" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G431" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H431" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I431" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J431" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="K431" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="L431" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="M431" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="N431" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="O431" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="P431" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q431" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R431" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S431" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s" s="0">
+        <v>4515</v>
+      </c>
+      <c r="B432" t="s" s="0">
+        <v>4516</v>
+      </c>
+      <c r="C432" t="s" s="0">
+        <v>4517</v>
+      </c>
+      <c r="D432" t="s" s="0">
+        <v>4518</v>
+      </c>
+      <c r="E432" t="s" s="0">
+        <v>4519</v>
+      </c>
+      <c r="F432" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G432" t="s" s="0">
+        <v>4520</v>
+      </c>
+      <c r="H432" t="s" s="0">
+        <v>4521</v>
+      </c>
+      <c r="I432" t="s" s="0">
+        <v>4522</v>
+      </c>
+      <c r="J432" t="s" s="0">
+        <v>4523</v>
+      </c>
+      <c r="K432" t="s" s="0">
+        <v>4524</v>
+      </c>
+      <c r="L432" t="s" s="0">
+        <v>4525</v>
+      </c>
+      <c r="M432" t="s" s="0">
+        <v>4526</v>
+      </c>
+      <c r="N432" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="O432" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P432" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="Q432" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R432" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="S432" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s" s="0">
+        <v>4527</v>
+      </c>
+      <c r="B433" t="s" s="0">
+        <v>4528</v>
+      </c>
+      <c r="C433" t="s" s="0">
+        <v>4529</v>
+      </c>
+      <c r="D433" t="s" s="0">
+        <v>4530</v>
+      </c>
+      <c r="E433" t="s" s="0">
+        <v>4531</v>
+      </c>
+      <c r="F433" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G433" t="s" s="0">
+        <v>4532</v>
+      </c>
+      <c r="H433" t="s" s="0">
+        <v>4533</v>
+      </c>
+      <c r="I433" t="s" s="0">
+        <v>4534</v>
+      </c>
+      <c r="J433" t="s" s="0">
+        <v>4535</v>
+      </c>
+      <c r="K433" t="s" s="0">
+        <v>4536</v>
+      </c>
+      <c r="L433" t="s" s="0">
+        <v>4537</v>
+      </c>
+      <c r="M433" t="s" s="0">
+        <v>4538</v>
+      </c>
+      <c r="N433" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="O433" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P433" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q433" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="R433" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S433" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s" s="0">
+        <v>4539</v>
+      </c>
+      <c r="B434" t="s" s="0">
+        <v>4540</v>
+      </c>
+      <c r="C434" t="s" s="0">
+        <v>4541</v>
+      </c>
+      <c r="D434" t="s" s="0">
+        <v>4542</v>
+      </c>
+      <c r="E434" t="s" s="0">
+        <v>4543</v>
+      </c>
+      <c r="F434" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G434" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H434" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I434" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J434" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="K434" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="L434" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="M434" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="N434" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="O434" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="P434" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q434" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R434" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S434" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s" s="0">
+        <v>4544</v>
+      </c>
+      <c r="B435" t="s" s="0">
+        <v>4545</v>
+      </c>
+      <c r="C435" t="s" s="0">
+        <v>4546</v>
+      </c>
+      <c r="D435" t="s" s="0">
+        <v>4547</v>
+      </c>
+      <c r="E435" t="s" s="0">
+        <v>4548</v>
+      </c>
+      <c r="F435" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G435" t="s" s="0">
+        <v>4549</v>
+      </c>
+      <c r="H435" t="s" s="0">
+        <v>4550</v>
+      </c>
+      <c r="I435" t="s" s="0">
+        <v>4551</v>
+      </c>
+      <c r="J435" t="s" s="0">
+        <v>4552</v>
+      </c>
+      <c r="K435" t="s" s="0">
+        <v>4553</v>
+      </c>
+      <c r="L435" t="s" s="0">
+        <v>4554</v>
+      </c>
+      <c r="M435" t="s" s="0">
+        <v>4555</v>
+      </c>
+      <c r="N435" t="s" s="0">
+        <v>762</v>
+      </c>
+      <c r="O435" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P435" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="Q435" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="R435" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="S435" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s" s="0">
+        <v>4556</v>
+      </c>
+      <c r="B436" t="s" s="0">
+        <v>4557</v>
+      </c>
+      <c r="C436" t="s" s="0">
+        <v>4558</v>
+      </c>
+      <c r="D436" t="s" s="0">
+        <v>4559</v>
+      </c>
+      <c r="E436" t="s" s="0">
+        <v>4560</v>
+      </c>
+      <c r="F436" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G436" t="s" s="0">
+        <v>4561</v>
+      </c>
+      <c r="H436" t="s" s="0">
+        <v>4562</v>
+      </c>
+      <c r="I436" t="s" s="0">
+        <v>4563</v>
+      </c>
+      <c r="J436" t="s" s="0">
+        <v>4564</v>
+      </c>
+      <c r="K436" t="s" s="0">
+        <v>4565</v>
+      </c>
+      <c r="L436" t="s" s="0">
+        <v>4566</v>
+      </c>
+      <c r="M436" t="s" s="0">
+        <v>4567</v>
+      </c>
+      <c r="N436" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="O436" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P436" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q436" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R436" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S436" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s" s="0">
+        <v>4568</v>
+      </c>
+      <c r="B437" t="s" s="0">
+        <v>4569</v>
+      </c>
+      <c r="C437" t="s" s="0">
+        <v>4570</v>
+      </c>
+      <c r="D437" t="s" s="0">
+        <v>4571</v>
+      </c>
+      <c r="E437" t="s" s="0">
+        <v>4572</v>
+      </c>
+      <c r="F437" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G437" t="s" s="0">
+        <v>4573</v>
+      </c>
+      <c r="H437" t="s" s="0">
+        <v>4574</v>
+      </c>
+      <c r="I437" t="s" s="0">
+        <v>4575</v>
+      </c>
+      <c r="J437" t="s" s="0">
+        <v>4576</v>
+      </c>
+      <c r="K437" t="s" s="0">
+        <v>4577</v>
+      </c>
+      <c r="L437" t="s" s="0">
+        <v>4578</v>
+      </c>
+      <c r="M437" t="s" s="0">
+        <v>4579</v>
+      </c>
+      <c r="N437" t="s" s="0">
+        <v>834</v>
+      </c>
+      <c r="O437" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P437" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q437" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="R437" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="S437" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s" s="0">
+        <v>4580</v>
+      </c>
+      <c r="B438" t="s" s="0">
+        <v>4581</v>
+      </c>
+      <c r="C438" t="s" s="0">
+        <v>4582</v>
+      </c>
+      <c r="D438" t="s" s="0">
+        <v>4583</v>
+      </c>
+      <c r="E438" t="s" s="0">
+        <v>4584</v>
+      </c>
+      <c r="F438" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="G438" t="s" s="0">
+        <v>4585</v>
+      </c>
+      <c r="H438" t="s" s="0">
+        <v>4586</v>
+      </c>
+      <c r="I438" t="s" s="0">
+        <v>4587</v>
+      </c>
+      <c r="J438" t="s" s="0">
+        <v>4588</v>
+      </c>
+      <c r="K438" t="s" s="0">
+        <v>4589</v>
+      </c>
+      <c r="L438" t="s" s="0">
+        <v>4590</v>
+      </c>
+      <c r="M438" t="s" s="0">
+        <v>4591</v>
+      </c>
+      <c r="N438" t="s" s="0">
+        <v>4592</v>
+      </c>
+      <c r="O438" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P438" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q438" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R438" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S438" t="s" s="0">
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s" s="0">
+        <v>4594</v>
+      </c>
+      <c r="B439" t="s" s="0">
+        <v>4595</v>
+      </c>
+      <c r="C439" t="s" s="0">
+        <v>4596</v>
+      </c>
+      <c r="D439" t="s" s="0">
+        <v>4597</v>
+      </c>
+      <c r="E439" t="s" s="0">
+        <v>4598</v>
+      </c>
+      <c r="F439" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G439" t="s" s="0">
+        <v>4599</v>
+      </c>
+      <c r="H439" t="s" s="0">
+        <v>4600</v>
+      </c>
+      <c r="I439" t="s" s="0">
+        <v>4601</v>
+      </c>
+      <c r="J439" t="s" s="0">
+        <v>4602</v>
+      </c>
+      <c r="K439" t="s" s="0">
+        <v>4603</v>
+      </c>
+      <c r="L439" t="s" s="0">
+        <v>4604</v>
+      </c>
+      <c r="M439" t="s" s="0">
+        <v>4605</v>
+      </c>
+      <c r="N439" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="O439" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P439" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q439" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="R439" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="S439" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s" s="0">
+        <v>4606</v>
+      </c>
+      <c r="B440" t="s" s="0">
+        <v>4607</v>
+      </c>
+      <c r="C440" t="s" s="0">
+        <v>4608</v>
+      </c>
+      <c r="D440" t="s" s="0">
+        <v>4609</v>
+      </c>
+      <c r="E440" t="s" s="0">
+        <v>4610</v>
+      </c>
+      <c r="F440" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G440" t="s" s="0">
+        <v>4611</v>
+      </c>
+      <c r="H440" t="s" s="0">
+        <v>4612</v>
+      </c>
+      <c r="I440" t="s" s="0">
+        <v>4613</v>
+      </c>
+      <c r="J440" t="s" s="0">
+        <v>4614</v>
+      </c>
+      <c r="K440" t="s" s="0">
+        <v>4615</v>
+      </c>
+      <c r="L440" t="s" s="0">
+        <v>4616</v>
+      </c>
+      <c r="M440" t="s" s="0">
+        <v>4617</v>
+      </c>
+      <c r="N440" t="s" s="0">
+        <v>1454</v>
+      </c>
+      <c r="O440" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P440" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q440" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R440" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S440" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s" s="0">
+        <v>4618</v>
+      </c>
+      <c r="B441" t="s" s="0">
+        <v>4619</v>
+      </c>
+      <c r="C441" t="s" s="0">
+        <v>4620</v>
+      </c>
+      <c r="D441" t="s" s="0">
+        <v>4621</v>
+      </c>
+      <c r="E441" t="s" s="0">
+        <v>4622</v>
+      </c>
+      <c r="F441" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G441" t="s" s="0">
+        <v>4623</v>
+      </c>
+      <c r="H441" t="s" s="0">
+        <v>4624</v>
+      </c>
+      <c r="I441" t="s" s="0">
+        <v>4625</v>
+      </c>
+      <c r="J441" t="s" s="0">
+        <v>4626</v>
+      </c>
+      <c r="K441" t="s" s="0">
+        <v>4627</v>
+      </c>
+      <c r="L441" t="s" s="0">
+        <v>4628</v>
+      </c>
+      <c r="M441" t="s" s="0">
+        <v>4629</v>
+      </c>
+      <c r="N441" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="O441" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P441" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q441" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R441" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S441" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s" s="0">
+        <v>4630</v>
+      </c>
+      <c r="B442" t="s" s="0">
+        <v>4631</v>
+      </c>
+      <c r="C442" t="s" s="0">
+        <v>4632</v>
+      </c>
+      <c r="D442" t="s" s="0">
+        <v>4633</v>
+      </c>
+      <c r="E442" t="s" s="0">
+        <v>4634</v>
+      </c>
+      <c r="F442" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G442" t="s" s="0">
+        <v>4635</v>
+      </c>
+      <c r="H442" t="s" s="0">
+        <v>4636</v>
+      </c>
+      <c r="I442" t="s" s="0">
+        <v>4637</v>
+      </c>
+      <c r="J442" t="s" s="0">
+        <v>4638</v>
+      </c>
+      <c r="K442" t="s" s="0">
+        <v>4639</v>
+      </c>
+      <c r="L442" t="s" s="0">
+        <v>4640</v>
+      </c>
+      <c r="M442" t="s" s="0">
+        <v>4641</v>
+      </c>
+      <c r="N442" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="O442" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P442" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q442" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R442" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S442" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s" s="0">
+        <v>4642</v>
+      </c>
+      <c r="B443" t="s" s="0">
+        <v>4643</v>
+      </c>
+      <c r="C443" t="s" s="0">
+        <v>4644</v>
+      </c>
+      <c r="D443" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E443" t="s" s="0">
+        <v>4645</v>
+      </c>
+      <c r="F443" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G443" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H443" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I443" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J443" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="K443" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="L443" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="M443" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="N443" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="O443" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="P443" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q443" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R443" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S443" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s" s="0">
+        <v>4646</v>
+      </c>
+      <c r="B444" t="s" s="0">
+        <v>4647</v>
+      </c>
+      <c r="C444" t="s" s="0">
+        <v>4648</v>
+      </c>
+      <c r="D444" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E444" t="s" s="0">
+        <v>4649</v>
+      </c>
+      <c r="F444" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="G444" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H444" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="I444" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="J444" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="K444" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="L444" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="M444" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="N444" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="O444" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="P444" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q444" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R444" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S444" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s" s="0">
+        <v>4650</v>
+      </c>
+      <c r="B445" t="s" s="0">
+        <v>4651</v>
+      </c>
+      <c r="C445" t="s" s="0">
+        <v>4652</v>
+      </c>
+      <c r="D445" t="s" s="0">
+        <v>4653</v>
+      </c>
+      <c r="E445" t="s" s="0">
+        <v>4654</v>
+      </c>
+      <c r="F445" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="G445" t="s" s="0">
+        <v>4655</v>
+      </c>
+      <c r="H445" t="s" s="0">
+        <v>4656</v>
+      </c>
+      <c r="I445" t="s" s="0">
+        <v>4657</v>
+      </c>
+      <c r="J445" t="s" s="0">
+        <v>4658</v>
+      </c>
+      <c r="K445" t="s" s="0">
+        <v>4659</v>
+      </c>
+      <c r="L445" t="s" s="0">
+        <v>4660</v>
+      </c>
+      <c r="M445" t="s" s="0">
+        <v>4661</v>
+      </c>
+      <c r="N445" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="O445" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P445" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q445" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="R445" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="S445" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s" s="0">
+        <v>4662</v>
+      </c>
+      <c r="B446" t="s" s="0">
+        <v>4663</v>
+      </c>
+      <c r="C446" t="s" s="0">
+        <v>4664</v>
+      </c>
+      <c r="D446" t="s" s="0">
+        <v>4665</v>
+      </c>
+      <c r="E446" t="s" s="0">
+        <v>4666</v>
+      </c>
+      <c r="F446" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G446" t="s" s="0">
+        <v>4667</v>
+      </c>
+      <c r="H446" t="s" s="0">
+        <v>4668</v>
+      </c>
+      <c r="I446" t="s" s="0">
+        <v>4669</v>
+      </c>
+      <c r="J446" t="s" s="0">
+        <v>4670</v>
+      </c>
+      <c r="K446" t="s" s="0">
+        <v>4671</v>
+      </c>
+      <c r="L446" t="s" s="0">
+        <v>4672</v>
+      </c>
+      <c r="M446" t="s" s="0">
+        <v>4673</v>
+      </c>
+      <c r="N446" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="O446" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P446" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q446" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="R446" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S446" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s" s="0">
+        <v>4674</v>
+      </c>
+      <c r="B447" t="s" s="0">
+        <v>4675</v>
+      </c>
+      <c r="C447" t="s" s="0">
+        <v>4676</v>
+      </c>
+      <c r="D447" t="s" s="0">
+        <v>4677</v>
+      </c>
+      <c r="E447" t="s" s="0">
+        <v>4678</v>
+      </c>
+      <c r="F447" t="s" s="0">
+        <v>4679</v>
+      </c>
+      <c r="G447" t="s" s="0">
+        <v>4680</v>
+      </c>
+      <c r="H447" t="s" s="0">
+        <v>4681</v>
+      </c>
+      <c r="I447" t="s" s="0">
+        <v>4682</v>
+      </c>
+      <c r="J447" t="s" s="0">
+        <v>4683</v>
+      </c>
+      <c r="K447" t="s" s="0">
+        <v>4684</v>
+      </c>
+      <c r="L447" t="s" s="0">
+        <v>4685</v>
+      </c>
+      <c r="M447" t="s" s="0">
+        <v>4686</v>
+      </c>
+      <c r="N447" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="O447" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="P447" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="Q447" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R447" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S447" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s" s="0">
+        <v>4687</v>
+      </c>
+      <c r="B448" t="s" s="0">
+        <v>4688</v>
+      </c>
+      <c r="C448" t="s" s="0">
+        <v>4689</v>
+      </c>
+      <c r="D448" t="s" s="0">
+        <v>4690</v>
+      </c>
+      <c r="E448" t="s" s="0">
+        <v>4691</v>
+      </c>
+      <c r="F448" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G448" t="s" s="0">
+        <v>4692</v>
+      </c>
+      <c r="H448" t="s" s="0">
+        <v>4693</v>
+      </c>
+      <c r="I448" t="s" s="0">
+        <v>4694</v>
+      </c>
+      <c r="J448" t="s" s="0">
+        <v>4695</v>
+      </c>
+      <c r="K448" t="s" s="0">
+        <v>4696</v>
+      </c>
+      <c r="L448" t="s" s="0">
+        <v>4697</v>
+      </c>
+      <c r="M448" t="s" s="0">
+        <v>4698</v>
+      </c>
+      <c r="N448" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="O448" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P448" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q448" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R448" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S448" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s" s="0">
+        <v>4699</v>
+      </c>
+      <c r="B449" t="s" s="0">
+        <v>4700</v>
+      </c>
+      <c r="C449" t="s" s="0">
+        <v>4701</v>
+      </c>
+      <c r="D449" t="s" s="0">
+        <v>4702</v>
+      </c>
+      <c r="E449" t="s" s="0">
+        <v>4703</v>
+      </c>
+      <c r="F449" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G449" t="s" s="0">
+        <v>4704</v>
+      </c>
+      <c r="H449" t="s" s="0">
+        <v>4705</v>
+      </c>
+      <c r="I449" t="s" s="0">
+        <v>4706</v>
+      </c>
+      <c r="J449" t="s" s="0">
+        <v>4707</v>
+      </c>
+      <c r="K449" t="s" s="0">
+        <v>4708</v>
+      </c>
+      <c r="L449" t="s" s="0">
+        <v>4709</v>
+      </c>
+      <c r="M449" t="s" s="0">
+        <v>4710</v>
+      </c>
+      <c r="N449" t="s" s="0">
+        <v>945</v>
+      </c>
+      <c r="O449" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P449" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="Q449" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="R449" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S449" t="s" s="0">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s" s="0">
+        <v>4711</v>
+      </c>
+      <c r="B450" t="s" s="0">
+        <v>4712</v>
+      </c>
+      <c r="C450" t="s" s="0">
+        <v>4713</v>
+      </c>
+      <c r="D450" t="s" s="0">
+        <v>4714</v>
+      </c>
+      <c r="E450" t="s" s="0">
+        <v>4715</v>
+      </c>
+      <c r="F450" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G450" t="s" s="0">
+        <v>4716</v>
+      </c>
+      <c r="H450" t="s" s="0">
+        <v>4717</v>
+      </c>
+      <c r="I450" t="s" s="0">
+        <v>4718</v>
+      </c>
+      <c r="J450" t="s" s="0">
+        <v>4719</v>
+      </c>
+      <c r="K450" t="s" s="0">
+        <v>4720</v>
+      </c>
+      <c r="L450" t="s" s="0">
+        <v>4721</v>
+      </c>
+      <c r="M450" t="s" s="0">
+        <v>4722</v>
+      </c>
+      <c r="N450" t="s" s="0">
+        <v>834</v>
+      </c>
+      <c r="O450" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="P450" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="Q450" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="R450" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="S450" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
